--- a/outputs-HGR-r202-archive/g__Ruminococcus_E_train.xlsx
+++ b/outputs-HGR-r202-archive/g__Ruminococcus_E_train.xlsx
@@ -506,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I73"/>
+  <dimension ref="A1:I63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1092,29 +1092,29 @@
     <row r="18">
       <c r="A18" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS38_1.fasta</t>
+          <t>label_UMGS38_0.fasta</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.7812315186229651</v>
+        <v>0.4082363273672402</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1370504634912645</v>
+        <v>0.2421300902952831</v>
       </c>
       <c r="D18" t="n">
-        <v>0.01094158004489858</v>
+        <v>0.04741362994208383</v>
       </c>
       <c r="E18" t="n">
-        <v>0.06781137211974231</v>
+        <v>0.3022161870442182</v>
       </c>
       <c r="F18" t="n">
-        <v>1.066982841598657e-13</v>
+        <v>1.15142692035403e-13</v>
       </c>
       <c r="G18" t="n">
-        <v>0.002965065721022605</v>
+        <v>3.765351059370789e-06</v>
       </c>
       <c r="H18" t="n">
-        <v>0.7812315186229651</v>
+        <v>0.4082363273672402</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -1125,29 +1125,29 @@
     <row r="19">
       <c r="A19" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS38_10.fasta</t>
+          <t>label_UMGS38_7.fasta</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.6964872502463642</v>
+        <v>0.8025202679260509</v>
       </c>
       <c r="C19" t="n">
-        <v>0.110441893818978</v>
+        <v>0.07392702246652044</v>
       </c>
       <c r="D19" t="n">
-        <v>0.04306421813057952</v>
+        <v>0.006629424053103298</v>
       </c>
       <c r="E19" t="n">
-        <v>0.1415928224280663</v>
+        <v>0.1169149860581573</v>
       </c>
       <c r="F19" t="n">
-        <v>7.155115313505632e-14</v>
+        <v>2.349395506779499e-14</v>
       </c>
       <c r="G19" t="n">
-        <v>0.008413815375940336</v>
+        <v>8.299496144645944e-06</v>
       </c>
       <c r="H19" t="n">
-        <v>0.6964872502463642</v>
+        <v>0.8025202679260509</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -1158,29 +1158,29 @@
     <row r="20">
       <c r="A20" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS38_11.fasta</t>
+          <t>label_UMGS456_1.fasta</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.8449637016609669</v>
+        <v>0.5859791073033128</v>
       </c>
       <c r="C20" t="n">
-        <v>0.06832024921443412</v>
+        <v>0.1497359759319762</v>
       </c>
       <c r="D20" t="n">
-        <v>0.01049683889539368</v>
+        <v>0.02466238489273324</v>
       </c>
       <c r="E20" t="n">
-        <v>0.07532506664359193</v>
+        <v>0.2396123937997281</v>
       </c>
       <c r="F20" t="n">
-        <v>4.12227048328945e-14</v>
+        <v>5.944180724424247e-14</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0008941435855722636</v>
+        <v>1.013807219022862e-05</v>
       </c>
       <c r="H20" t="n">
-        <v>0.8449637016609669</v>
+        <v>0.5859791073033128</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -1191,29 +1191,29 @@
     <row r="21">
       <c r="A21" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS38_16.fasta</t>
+          <t>label_UMGS456_10.fasta</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.7934988254761427</v>
+        <v>0.6381251108278028</v>
       </c>
       <c r="C21" t="n">
-        <v>0.04561490982212968</v>
+        <v>0.1359429638734647</v>
       </c>
       <c r="D21" t="n">
-        <v>0.01778148218342377</v>
+        <v>0.04476563246501097</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1424501735425378</v>
+        <v>0.1811397547812334</v>
       </c>
       <c r="F21" t="n">
-        <v>2.485957664580575e-14</v>
+        <v>4.764711249757874e-14</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0006546089757411017</v>
+        <v>2.653805244059931e-05</v>
       </c>
       <c r="H21" t="n">
-        <v>0.7934988254761427</v>
+        <v>0.6381251108278028</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -1224,29 +1224,29 @@
     <row r="22">
       <c r="A22" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS38_21.fasta</t>
+          <t>label_UMGS456_14.fasta</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.5803919958591174</v>
+        <v>0.7906632950799057</v>
       </c>
       <c r="C22" t="n">
-        <v>0.02910610248623997</v>
+        <v>0.05039242884947288</v>
       </c>
       <c r="D22" t="n">
-        <v>0.03569372872104412</v>
+        <v>0.009667475992017888</v>
       </c>
       <c r="E22" t="n">
-        <v>0.3541497631150561</v>
+        <v>0.1492345428976268</v>
       </c>
       <c r="F22" t="n">
-        <v>2.229561344414515e-14</v>
+        <v>2.224226988100152e-14</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0006584098185200999</v>
+        <v>4.225718095456731e-05</v>
       </c>
       <c r="H22" t="n">
-        <v>0.5803919958591174</v>
+        <v>0.7906632950799057</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -1257,29 +1257,29 @@
     <row r="23">
       <c r="A23" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS456_18.fasta</t>
+          <t>label_UMGS456_24.fasta</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.5015937605210123</v>
+        <v>0.8001489507479064</v>
       </c>
       <c r="C23" t="n">
-        <v>0.05563646385791146</v>
+        <v>0.01434723423388035</v>
       </c>
       <c r="D23" t="n">
-        <v>0.08794465430839359</v>
+        <v>0.03588436331838812</v>
       </c>
       <c r="E23" t="n">
-        <v>0.3538700042360577</v>
+        <v>0.1476926420699377</v>
       </c>
       <c r="F23" t="n">
-        <v>3.209819797261909e-14</v>
+        <v>2.229955392977414e-14</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0009551170765928541</v>
+        <v>0.00192680962986527</v>
       </c>
       <c r="H23" t="n">
-        <v>0.5015937605210123</v>
+        <v>0.8001489507479064</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -1290,29 +1290,29 @@
     <row r="24">
       <c r="A24" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS456_21.fasta</t>
+          <t>label_UMGS456_26.fasta</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.8467313901580986</v>
+        <v>0.818696818502148</v>
       </c>
       <c r="C24" t="n">
-        <v>0.03686473088749351</v>
+        <v>0.008080083768624721</v>
       </c>
       <c r="D24" t="n">
-        <v>0.01529201899057375</v>
+        <v>0.04863903385549169</v>
       </c>
       <c r="E24" t="n">
-        <v>0.08759349340605209</v>
+        <v>0.123871021663109</v>
       </c>
       <c r="F24" t="n">
-        <v>2.225714404900899e-14</v>
+        <v>2.230144279611386e-14</v>
       </c>
       <c r="G24" t="n">
-        <v>0.01351836655775974</v>
+        <v>0.0007130422106042227</v>
       </c>
       <c r="H24" t="n">
-        <v>0.8467313901580986</v>
+        <v>0.818696818502148</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
@@ -1323,29 +1323,29 @@
     <row r="25">
       <c r="A25" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS456_28.fasta</t>
+          <t>label_UMGS38_12.fasta</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.4712534492931392</v>
+        <v>0.6843400218326717</v>
       </c>
       <c r="C25" t="n">
-        <v>0.03268346369855343</v>
+        <v>0.03404388319175957</v>
       </c>
       <c r="D25" t="n">
-        <v>0.124306175049752</v>
+        <v>0.08141731536589458</v>
       </c>
       <c r="E25" t="n">
-        <v>0.3705509063069043</v>
+        <v>0.2001624188640378</v>
       </c>
       <c r="F25" t="n">
-        <v>2.223395073739368e-14</v>
+        <v>2.231705045974999e-14</v>
       </c>
       <c r="G25" t="n">
-        <v>0.001206005651628739</v>
+        <v>3.636074561398776e-05</v>
       </c>
       <c r="H25" t="n">
-        <v>0.4712534492931392</v>
+        <v>0.6843400218326717</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -1356,62 +1356,62 @@
     <row r="26">
       <c r="A26" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS456_29.fasta</t>
+          <t>label_UMGS38_14.fasta</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.105285372674427</v>
+        <v>0.8613804844132599</v>
       </c>
       <c r="C26" t="n">
-        <v>0.05543725251475145</v>
+        <v>0.02429263731811841</v>
       </c>
       <c r="D26" t="n">
-        <v>0.3782535745536874</v>
+        <v>0.01767910739995045</v>
       </c>
       <c r="E26" t="n">
-        <v>0.4529823038065001</v>
+        <v>0.09664363107122252</v>
       </c>
       <c r="F26" t="n">
-        <v>3.731459525473475e-14</v>
+        <v>2.226480548568644e-14</v>
       </c>
       <c r="G26" t="n">
-        <v>0.008041496450596748</v>
+        <v>4.139797426509471e-06</v>
       </c>
       <c r="H26" t="n">
-        <v>0.4529823038065001</v>
+        <v>0.8613804844132599</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>s__Ruminococcus_E sp003526955</t>
+          <t>s__Ruminococcus_E bromii</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS456_4.fasta</t>
+          <t>label_UMGS38_17.fasta</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.273813265534654</v>
+        <v>0.8096099746452203</v>
       </c>
       <c r="C27" t="n">
-        <v>0.1468192828420192</v>
+        <v>0.03058603639249472</v>
       </c>
       <c r="D27" t="n">
-        <v>0.1923712871733382</v>
+        <v>0.01330182235051707</v>
       </c>
       <c r="E27" t="n">
-        <v>0.2548734439426482</v>
+        <v>0.1465020510324607</v>
       </c>
       <c r="F27" t="n">
-        <v>9.226171612516941e-14</v>
+        <v>2.22789299138574e-14</v>
       </c>
       <c r="G27" t="n">
-        <v>0.1321227205072483</v>
+        <v>1.1557928496016e-07</v>
       </c>
       <c r="H27" t="n">
-        <v>0.273813265534654</v>
+        <v>0.8096099746452203</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
@@ -1422,29 +1422,29 @@
     <row r="28">
       <c r="A28" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS38_0.fasta</t>
+          <t>label_UMGS38_18.fasta</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.4082363273672402</v>
+        <v>0.8644247876757711</v>
       </c>
       <c r="C28" t="n">
-        <v>0.2421300902952831</v>
+        <v>0.01905041939875672</v>
       </c>
       <c r="D28" t="n">
-        <v>0.04741362994208383</v>
+        <v>0.01226638505208002</v>
       </c>
       <c r="E28" t="n">
-        <v>0.3022161870442182</v>
+        <v>0.1042583091866889</v>
       </c>
       <c r="F28" t="n">
-        <v>1.15142692035403e-13</v>
+        <v>2.226480885521218e-14</v>
       </c>
       <c r="G28" t="n">
-        <v>3.765351059370789e-06</v>
+        <v>9.868668106247547e-08</v>
       </c>
       <c r="H28" t="n">
-        <v>0.4082363273672402</v>
+        <v>0.8644247876757711</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
@@ -1455,62 +1455,62 @@
     <row r="29">
       <c r="A29" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS38_7.fasta</t>
+          <t>label_UMGS38_23.fasta</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.8025202679260509</v>
+        <v>0.02406131345121565</v>
       </c>
       <c r="C29" t="n">
-        <v>0.07392702246652044</v>
+        <v>0.1762431138383306</v>
       </c>
       <c r="D29" t="n">
-        <v>0.006629424053103298</v>
+        <v>0.2370760930877126</v>
       </c>
       <c r="E29" t="n">
-        <v>0.1169149860581573</v>
+        <v>0.5551317800212386</v>
       </c>
       <c r="F29" t="n">
-        <v>2.349395506779499e-14</v>
+        <v>1.532842512995986e-13</v>
       </c>
       <c r="G29" t="n">
-        <v>8.299496144645944e-06</v>
+        <v>0.007487699601349043</v>
       </c>
       <c r="H29" t="n">
-        <v>0.8025202679260509</v>
+        <v>0.5551317800212386</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>s__Ruminococcus_E bromii</t>
+          <t>s__Ruminococcus_E sp003526955</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS456_1.fasta</t>
+          <t>label_UMGS38_24.fasta</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.5859791073033128</v>
+        <v>0.6468062586869073</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1497359759319762</v>
+        <v>0.02960177133179972</v>
       </c>
       <c r="D30" t="n">
-        <v>0.02466238489273324</v>
+        <v>0.1195762150760652</v>
       </c>
       <c r="E30" t="n">
-        <v>0.2396123937997281</v>
+        <v>0.2037530188323597</v>
       </c>
       <c r="F30" t="n">
-        <v>5.944180724424247e-14</v>
+        <v>2.434425254121377e-14</v>
       </c>
       <c r="G30" t="n">
-        <v>1.013807219022862e-05</v>
+        <v>0.0002627360728435055</v>
       </c>
       <c r="H30" t="n">
-        <v>0.5859791073033128</v>
+        <v>0.6468062586869073</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
@@ -1521,29 +1521,29 @@
     <row r="31">
       <c r="A31" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS456_10.fasta</t>
+          <t>label_UMGS456_6.fasta</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.6381251108278028</v>
+        <v>0.878447877584744</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1359429638734647</v>
+        <v>0.02610039747906901</v>
       </c>
       <c r="D31" t="n">
-        <v>0.04476563246501097</v>
+        <v>0.008519806163413425</v>
       </c>
       <c r="E31" t="n">
-        <v>0.1811397547812334</v>
+        <v>0.08693177138569644</v>
       </c>
       <c r="F31" t="n">
-        <v>4.764711249757874e-14</v>
+        <v>2.224226075376602e-14</v>
       </c>
       <c r="G31" t="n">
-        <v>2.653805244059931e-05</v>
+        <v>1.473870549189504e-07</v>
       </c>
       <c r="H31" t="n">
-        <v>0.6381251108278028</v>
+        <v>0.878447877584744</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
@@ -1554,29 +1554,29 @@
     <row r="32">
       <c r="A32" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS456_14.fasta</t>
+          <t>label_UMGS38_2.fasta</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.7906632950799057</v>
+        <v>0.6826541457538283</v>
       </c>
       <c r="C32" t="n">
-        <v>0.05039242884947288</v>
+        <v>0.1297916446650979</v>
       </c>
       <c r="D32" t="n">
-        <v>0.009667475992017888</v>
+        <v>0.007008259805748726</v>
       </c>
       <c r="E32" t="n">
-        <v>0.1492345428976268</v>
+        <v>0.1805459460499803</v>
       </c>
       <c r="F32" t="n">
-        <v>2.224226988100152e-14</v>
+        <v>4.988462210110829e-14</v>
       </c>
       <c r="G32" t="n">
-        <v>4.225718095456731e-05</v>
+        <v>3.725294798796969e-09</v>
       </c>
       <c r="H32" t="n">
-        <v>0.7906632950799057</v>
+        <v>0.6826541457538283</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
@@ -1587,29 +1587,29 @@
     <row r="33">
       <c r="A33" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS456_24.fasta</t>
+          <t>label_UMGS38_20.fasta</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.8001489507479064</v>
+        <v>0.7481871138793581</v>
       </c>
       <c r="C33" t="n">
-        <v>0.01434723423388035</v>
+        <v>0.05718506892094909</v>
       </c>
       <c r="D33" t="n">
-        <v>0.03588436331838812</v>
+        <v>0.04590031340112399</v>
       </c>
       <c r="E33" t="n">
-        <v>0.1476926420699377</v>
+        <v>0.1487274822361837</v>
       </c>
       <c r="F33" t="n">
-        <v>2.229955392977414e-14</v>
+        <v>2.222203691340964e-14</v>
       </c>
       <c r="G33" t="n">
-        <v>0.00192680962986527</v>
+        <v>2.156236309626206e-08</v>
       </c>
       <c r="H33" t="n">
-        <v>0.8001489507479064</v>
+        <v>0.7481871138793581</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
@@ -1620,62 +1620,62 @@
     <row r="34">
       <c r="A34" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS456_26.fasta</t>
+          <t>label_UMGS38_25.fasta</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.818696818502148</v>
+        <v>0.008555645063990676</v>
       </c>
       <c r="C34" t="n">
-        <v>0.008080083768624721</v>
+        <v>0.1897436310151833</v>
       </c>
       <c r="D34" t="n">
-        <v>0.04863903385549169</v>
+        <v>0.4863499642899739</v>
       </c>
       <c r="E34" t="n">
-        <v>0.123871021663109</v>
+        <v>0.3152996842327375</v>
       </c>
       <c r="F34" t="n">
-        <v>2.230144279611386e-14</v>
+        <v>1.085771519571388e-13</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0007130422106042227</v>
+        <v>5.10753980060134e-05</v>
       </c>
       <c r="H34" t="n">
-        <v>0.818696818502148</v>
+        <v>0.4863499642899739</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>s__Ruminococcus_E bromii</t>
+          <t>s__Ruminococcus_E sp003438075</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS38_12.fasta</t>
+          <t>label_UMGS38_5.fasta</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.6843400218326717</v>
+        <v>0.4451991066056837</v>
       </c>
       <c r="C35" t="n">
-        <v>0.03404388319175957</v>
+        <v>0.253038906268246</v>
       </c>
       <c r="D35" t="n">
-        <v>0.08141731536589458</v>
+        <v>0.08884627224499808</v>
       </c>
       <c r="E35" t="n">
-        <v>0.2001624188640378</v>
+        <v>0.2129157094607583</v>
       </c>
       <c r="F35" t="n">
-        <v>2.231705045974999e-14</v>
+        <v>1.415494564889816e-13</v>
       </c>
       <c r="G35" t="n">
-        <v>3.636074561398776e-05</v>
+        <v>5.420172248974269e-09</v>
       </c>
       <c r="H35" t="n">
-        <v>0.6843400218326717</v>
+        <v>0.4451991066056837</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
@@ -1686,29 +1686,29 @@
     <row r="36">
       <c r="A36" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS38_14.fasta</t>
+          <t>label_UMGS38_6.fasta</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.8613804844132599</v>
+        <v>0.6786317043946087</v>
       </c>
       <c r="C36" t="n">
-        <v>0.02429263731811841</v>
+        <v>0.1360997442228068</v>
       </c>
       <c r="D36" t="n">
-        <v>0.01767910739995045</v>
+        <v>0.03902170703907253</v>
       </c>
       <c r="E36" t="n">
-        <v>0.09664363107122252</v>
+        <v>0.1462468403695597</v>
       </c>
       <c r="F36" t="n">
-        <v>2.226480548568644e-14</v>
+        <v>5.296684244805495e-14</v>
       </c>
       <c r="G36" t="n">
-        <v>4.139797426509471e-06</v>
+        <v>3.973899447088729e-09</v>
       </c>
       <c r="H36" t="n">
-        <v>0.8613804844132599</v>
+        <v>0.6786317043946087</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
@@ -1719,29 +1719,29 @@
     <row r="37">
       <c r="A37" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS38_17.fasta</t>
+          <t>label_UMGS38_9.fasta</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.8096099746452203</v>
+        <v>0.7868042971968614</v>
       </c>
       <c r="C37" t="n">
-        <v>0.03058603639249472</v>
+        <v>0.05535799411998015</v>
       </c>
       <c r="D37" t="n">
-        <v>0.01330182235051707</v>
+        <v>0.006537582803036832</v>
       </c>
       <c r="E37" t="n">
-        <v>0.1465020510324607</v>
+        <v>0.1513000787856634</v>
       </c>
       <c r="F37" t="n">
-        <v>2.22789299138574e-14</v>
+        <v>2.222252607766515e-14</v>
       </c>
       <c r="G37" t="n">
-        <v>1.1557928496016e-07</v>
+        <v>4.7094435991307e-08</v>
       </c>
       <c r="H37" t="n">
-        <v>0.8096099746452203</v>
+        <v>0.7868042971968614</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
@@ -1752,29 +1752,29 @@
     <row r="38">
       <c r="A38" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS38_18.fasta</t>
+          <t>label_UMGS456_11.fasta</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.8644247876757711</v>
+        <v>0.7585064745865787</v>
       </c>
       <c r="C38" t="n">
-        <v>0.01905041939875672</v>
+        <v>0.06953703402655632</v>
       </c>
       <c r="D38" t="n">
-        <v>0.01226638505208002</v>
+        <v>0.003121705763483673</v>
       </c>
       <c r="E38" t="n">
-        <v>0.1042583091866889</v>
+        <v>0.1688344910734185</v>
       </c>
       <c r="F38" t="n">
-        <v>2.226480885521218e-14</v>
+        <v>2.511852226736697e-14</v>
       </c>
       <c r="G38" t="n">
-        <v>9.868668106247547e-08</v>
+        <v>2.945499376045744e-07</v>
       </c>
       <c r="H38" t="n">
-        <v>0.8644247876757711</v>
+        <v>0.7585064745865787</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
@@ -1785,62 +1785,62 @@
     <row r="39">
       <c r="A39" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS38_23.fasta</t>
+          <t>label_UMGS456_12.fasta</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.02406131345121565</v>
+        <v>0.7744863826794541</v>
       </c>
       <c r="C39" t="n">
-        <v>0.1762431138383306</v>
+        <v>0.07950617297356967</v>
       </c>
       <c r="D39" t="n">
-        <v>0.2370760930877126</v>
+        <v>0.009127077092220541</v>
       </c>
       <c r="E39" t="n">
-        <v>0.5551317800212386</v>
+        <v>0.136880360460418</v>
       </c>
       <c r="F39" t="n">
-        <v>1.532842512995986e-13</v>
+        <v>2.902708051412315e-14</v>
       </c>
       <c r="G39" t="n">
-        <v>0.007487699601349043</v>
+        <v>6.79430873971347e-09</v>
       </c>
       <c r="H39" t="n">
-        <v>0.5551317800212386</v>
+        <v>0.7744863826794541</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>s__Ruminococcus_E sp003526955</t>
+          <t>s__Ruminococcus_E bromii</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS38_24.fasta</t>
+          <t>label_UMGS456_13.fasta</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.6468062586869073</v>
+        <v>0.6453050059191482</v>
       </c>
       <c r="C40" t="n">
-        <v>0.02960177133179972</v>
+        <v>0.1231736306037348</v>
       </c>
       <c r="D40" t="n">
-        <v>0.1195762150760652</v>
+        <v>0.06227969846892818</v>
       </c>
       <c r="E40" t="n">
-        <v>0.2037530188323597</v>
+        <v>0.169241511530318</v>
       </c>
       <c r="F40" t="n">
-        <v>2.434425254121377e-14</v>
+        <v>5.205500514793834e-14</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0002627360728435055</v>
+        <v>1.534778186395988e-07</v>
       </c>
       <c r="H40" t="n">
-        <v>0.6468062586869073</v>
+        <v>0.6453050059191482</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
@@ -1851,29 +1851,29 @@
     <row r="41">
       <c r="A41" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS456_6.fasta</t>
+          <t>label_UMGS456_15.fasta</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.878447877584744</v>
+        <v>0.6629416436221752</v>
       </c>
       <c r="C41" t="n">
-        <v>0.02610039747906901</v>
+        <v>0.0900438731891869</v>
       </c>
       <c r="D41" t="n">
-        <v>0.008519806163413425</v>
+        <v>0.02619932250041881</v>
       </c>
       <c r="E41" t="n">
-        <v>0.08693177138569644</v>
+        <v>0.220814400722862</v>
       </c>
       <c r="F41" t="n">
-        <v>2.224226075376602e-14</v>
+        <v>3.319204058736102e-14</v>
       </c>
       <c r="G41" t="n">
-        <v>1.473870549189504e-07</v>
+        <v>7.599653237498894e-07</v>
       </c>
       <c r="H41" t="n">
-        <v>0.878447877584744</v>
+        <v>0.6629416436221752</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
@@ -1884,29 +1884,29 @@
     <row r="42">
       <c r="A42" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS38_2.fasta</t>
+          <t>label_UMGS456_2.fasta</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.6826541457538283</v>
+        <v>0.5546676360868577</v>
       </c>
       <c r="C42" t="n">
-        <v>0.1297916446650979</v>
+        <v>0.2093904053725191</v>
       </c>
       <c r="D42" t="n">
-        <v>0.007008259805748726</v>
+        <v>0.03623650629468814</v>
       </c>
       <c r="E42" t="n">
-        <v>0.1805459460499803</v>
+        <v>0.1997054426939579</v>
       </c>
       <c r="F42" t="n">
-        <v>4.988462210110829e-14</v>
+        <v>1.008374150192106e-13</v>
       </c>
       <c r="G42" t="n">
-        <v>3.725294798796969e-09</v>
+        <v>9.551876478992721e-09</v>
       </c>
       <c r="H42" t="n">
-        <v>0.6826541457538283</v>
+        <v>0.5546676360868577</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
@@ -1917,29 +1917,29 @@
     <row r="43">
       <c r="A43" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS38_20.fasta</t>
+          <t>label_UMGS456_20.fasta</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.7481871138793581</v>
+        <v>0.7481188612076239</v>
       </c>
       <c r="C43" t="n">
-        <v>0.05718506892094909</v>
+        <v>0.05067707615932112</v>
       </c>
       <c r="D43" t="n">
-        <v>0.04590031340112399</v>
+        <v>0.02174242556058946</v>
       </c>
       <c r="E43" t="n">
-        <v>0.1487274822361837</v>
+        <v>0.1794616354997352</v>
       </c>
       <c r="F43" t="n">
-        <v>2.222203691340964e-14</v>
+        <v>2.224825682769421e-14</v>
       </c>
       <c r="G43" t="n">
-        <v>2.156236309626206e-08</v>
+        <v>1.572708270603272e-09</v>
       </c>
       <c r="H43" t="n">
-        <v>0.7481871138793581</v>
+        <v>0.7481188612076239</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
@@ -1950,62 +1950,62 @@
     <row r="44">
       <c r="A44" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS38_25.fasta</t>
+          <t>label_UMGS456_23.fasta</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.008555645063990676</v>
+        <v>0.7136290775805694</v>
       </c>
       <c r="C44" t="n">
-        <v>0.1897436310151833</v>
+        <v>0.04746107197801066</v>
       </c>
       <c r="D44" t="n">
-        <v>0.4863499642899739</v>
+        <v>0.02938392268577453</v>
       </c>
       <c r="E44" t="n">
-        <v>0.3152996842327375</v>
+        <v>0.2095258766893816</v>
       </c>
       <c r="F44" t="n">
-        <v>1.085771519571388e-13</v>
+        <v>2.225650292115021e-14</v>
       </c>
       <c r="G44" t="n">
-        <v>5.10753980060134e-05</v>
+        <v>5.106624174506807e-08</v>
       </c>
       <c r="H44" t="n">
-        <v>0.4863499642899739</v>
+        <v>0.7136290775805694</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>s__Ruminococcus_E sp003438075</t>
+          <t>s__Ruminococcus_E bromii</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS38_5.fasta</t>
+          <t>label_UMGS456_27.fasta</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.4451991066056837</v>
+        <v>0.4945074360911919</v>
       </c>
       <c r="C45" t="n">
-        <v>0.253038906268246</v>
+        <v>0.0903746327066485</v>
       </c>
       <c r="D45" t="n">
-        <v>0.08884627224499808</v>
+        <v>0.1418765776508829</v>
       </c>
       <c r="E45" t="n">
-        <v>0.2129157094607583</v>
+        <v>0.2732098358669456</v>
       </c>
       <c r="F45" t="n">
-        <v>1.415494564889816e-13</v>
+        <v>4.853732050318457e-14</v>
       </c>
       <c r="G45" t="n">
-        <v>5.420172248974269e-09</v>
+        <v>3.151768428289184e-05</v>
       </c>
       <c r="H45" t="n">
-        <v>0.4451991066056837</v>
+        <v>0.4945074360911919</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
@@ -2016,62 +2016,62 @@
     <row r="46">
       <c r="A46" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS38_6.fasta</t>
+          <t>label_UMGS456_5.fasta</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.6786317043946087</v>
+        <v>0.3174709868308684</v>
       </c>
       <c r="C46" t="n">
-        <v>0.1360997442228068</v>
+        <v>0.1864924505517791</v>
       </c>
       <c r="D46" t="n">
-        <v>0.03902170703907253</v>
+        <v>0.06729019435016936</v>
       </c>
       <c r="E46" t="n">
-        <v>0.1462468403695597</v>
+        <v>0.4287406822279035</v>
       </c>
       <c r="F46" t="n">
-        <v>5.296684244805495e-14</v>
+        <v>7.968799246170247e-14</v>
       </c>
       <c r="G46" t="n">
-        <v>3.973899447088729e-09</v>
+        <v>5.686039199863285e-06</v>
       </c>
       <c r="H46" t="n">
-        <v>0.6786317043946087</v>
+        <v>0.4287406822279035</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>s__Ruminococcus_E bromii</t>
+          <t>s__Ruminococcus_E sp003526955</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS38_9.fasta</t>
+          <t>label_UMGS456_7.fasta</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.7868042971968614</v>
+        <v>0.7296033627561793</v>
       </c>
       <c r="C47" t="n">
-        <v>0.05535799411998015</v>
+        <v>0.08839630355489105</v>
       </c>
       <c r="D47" t="n">
-        <v>0.006537582803036832</v>
+        <v>0.006427515164276502</v>
       </c>
       <c r="E47" t="n">
-        <v>0.1513000787856634</v>
+        <v>0.1755727618606846</v>
       </c>
       <c r="F47" t="n">
-        <v>2.222252607766515e-14</v>
+        <v>3.457753086510244e-14</v>
       </c>
       <c r="G47" t="n">
-        <v>4.7094435991307e-08</v>
+        <v>5.666393405068585e-08</v>
       </c>
       <c r="H47" t="n">
-        <v>0.7868042971968614</v>
+        <v>0.7296033627561793</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
@@ -2082,29 +2082,29 @@
     <row r="48">
       <c r="A48" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS456_11.fasta</t>
+          <t>label_UMGS38_13.fasta</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.7585064745865787</v>
+        <v>0.8702682398744759</v>
       </c>
       <c r="C48" t="n">
-        <v>0.06953703402655632</v>
+        <v>0.05964884623148389</v>
       </c>
       <c r="D48" t="n">
-        <v>0.003121705763483673</v>
+        <v>0.02716981254862043</v>
       </c>
       <c r="E48" t="n">
-        <v>0.1688344910734185</v>
+        <v>0.04291310134533841</v>
       </c>
       <c r="F48" t="n">
-        <v>2.511852226736697e-14</v>
+        <v>2.22256590645489e-14</v>
       </c>
       <c r="G48" t="n">
-        <v>2.945499376045744e-07</v>
+        <v>5.914378196303074e-14</v>
       </c>
       <c r="H48" t="n">
-        <v>0.7585064745865787</v>
+        <v>0.8702682398744759</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
@@ -2115,62 +2115,62 @@
     <row r="49">
       <c r="A49" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS456_12.fasta</t>
+          <t>label_UMGS38_15.fasta</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.7744863826794541</v>
+        <v>0.3514113547196331</v>
       </c>
       <c r="C49" t="n">
-        <v>0.07950617297356967</v>
+        <v>0.1065660901289234</v>
       </c>
       <c r="D49" t="n">
-        <v>0.009127077092220541</v>
+        <v>0.151734491072976</v>
       </c>
       <c r="E49" t="n">
-        <v>0.136880360460418</v>
+        <v>0.390288063046628</v>
       </c>
       <c r="F49" t="n">
-        <v>2.902708051412315e-14</v>
+        <v>4.253513481360013e-14</v>
       </c>
       <c r="G49" t="n">
-        <v>6.79430873971347e-09</v>
+        <v>1.031796886328991e-09</v>
       </c>
       <c r="H49" t="n">
-        <v>0.7744863826794541</v>
+        <v>0.390288063046628</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>s__Ruminococcus_E bromii</t>
+          <t>s__Ruminococcus_E sp003526955</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS456_13.fasta</t>
+          <t>label_UMGS38_19.fasta</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.6453050059191482</v>
+        <v>0.7791615029139085</v>
       </c>
       <c r="C50" t="n">
-        <v>0.1231736306037348</v>
+        <v>0.0823489776515846</v>
       </c>
       <c r="D50" t="n">
-        <v>0.06227969846892818</v>
+        <v>0.04835563017087738</v>
       </c>
       <c r="E50" t="n">
-        <v>0.169241511530318</v>
+        <v>0.09013388925014376</v>
       </c>
       <c r="F50" t="n">
-        <v>5.205500514793834e-14</v>
+        <v>3.179546860253587e-14</v>
       </c>
       <c r="G50" t="n">
-        <v>1.534778186395988e-07</v>
+        <v>1.345376481370528e-11</v>
       </c>
       <c r="H50" t="n">
-        <v>0.6453050059191482</v>
+        <v>0.7791615029139085</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
@@ -2181,62 +2181,62 @@
     <row r="51">
       <c r="A51" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS456_15.fasta</t>
+          <t>label_UMGS38_22.fasta</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.6629416436221752</v>
+        <v>0.1535598262252818</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0900438731891869</v>
+        <v>0.04869353603236214</v>
       </c>
       <c r="D51" t="n">
-        <v>0.02619932250041881</v>
+        <v>0.1855048958541123</v>
       </c>
       <c r="E51" t="n">
-        <v>0.220814400722862</v>
+        <v>0.6122417416165727</v>
       </c>
       <c r="F51" t="n">
-        <v>3.319204058736102e-14</v>
+        <v>2.232831182100873e-14</v>
       </c>
       <c r="G51" t="n">
-        <v>7.599653237498894e-07</v>
+        <v>2.71648707649338e-10</v>
       </c>
       <c r="H51" t="n">
-        <v>0.6629416436221752</v>
+        <v>0.6122417416165727</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>s__Ruminococcus_E bromii</t>
+          <t>s__Ruminococcus_E sp003526955</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS456_2.fasta</t>
+          <t>label_UMGS38_3.fasta</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.5546676360868577</v>
+        <v>0.7057923827249033</v>
       </c>
       <c r="C52" t="n">
-        <v>0.2093904053725191</v>
+        <v>0.1596758191417136</v>
       </c>
       <c r="D52" t="n">
-        <v>0.03623650629468814</v>
+        <v>0.09402207844961168</v>
       </c>
       <c r="E52" t="n">
-        <v>0.1997054426939579</v>
+        <v>0.04050971968360412</v>
       </c>
       <c r="F52" t="n">
-        <v>1.008374150192106e-13</v>
+        <v>8.35451604012693e-14</v>
       </c>
       <c r="G52" t="n">
-        <v>9.551876478992721e-09</v>
+        <v>8.354516040127339e-14</v>
       </c>
       <c r="H52" t="n">
-        <v>0.5546676360868577</v>
+        <v>0.7057923827249033</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
@@ -2247,29 +2247,29 @@
     <row r="53">
       <c r="A53" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS456_20.fasta</t>
+          <t>label_UMGS38_4.fasta</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.7481188612076239</v>
+        <v>0.827401968553054</v>
       </c>
       <c r="C53" t="n">
-        <v>0.05067707615932112</v>
+        <v>0.1042318015073433</v>
       </c>
       <c r="D53" t="n">
-        <v>0.02174242556058946</v>
+        <v>0.02059795707630495</v>
       </c>
       <c r="E53" t="n">
-        <v>0.1794616354997352</v>
+        <v>0.04776827286316584</v>
       </c>
       <c r="F53" t="n">
-        <v>2.224825682769421e-14</v>
+        <v>4.641368586571504e-14</v>
       </c>
       <c r="G53" t="n">
-        <v>1.572708270603272e-09</v>
+        <v>8.564361205083896e-14</v>
       </c>
       <c r="H53" t="n">
-        <v>0.7481188612076239</v>
+        <v>0.827401968553054</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
@@ -2280,29 +2280,29 @@
     <row r="54">
       <c r="A54" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS456_23.fasta</t>
+          <t>label_UMGS38_8.fasta</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.7136290775805694</v>
+        <v>0.5183876152353247</v>
       </c>
       <c r="C54" t="n">
-        <v>0.04746107197801066</v>
+        <v>0.128788940598148</v>
       </c>
       <c r="D54" t="n">
-        <v>0.02938392268577453</v>
+        <v>0.08601718799954858</v>
       </c>
       <c r="E54" t="n">
-        <v>0.2095258766893816</v>
+        <v>0.2668062561662568</v>
       </c>
       <c r="F54" t="n">
-        <v>2.225650292115021e-14</v>
+        <v>5.609707958720142e-14</v>
       </c>
       <c r="G54" t="n">
-        <v>5.106624174506807e-08</v>
+        <v>6.656148843129099e-13</v>
       </c>
       <c r="H54" t="n">
-        <v>0.7136290775805694</v>
+        <v>0.5183876152353247</v>
       </c>
       <c r="I54" t="inlineStr">
         <is>
@@ -2313,29 +2313,29 @@
     <row r="55">
       <c r="A55" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS456_27.fasta</t>
+          <t>label_UMGS456_0.fasta</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.4945074360911919</v>
+        <v>0.7309591316284023</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0903746327066485</v>
+        <v>0.1674390591579877</v>
       </c>
       <c r="D55" t="n">
-        <v>0.1418765776508829</v>
+        <v>0.07638798432617062</v>
       </c>
       <c r="E55" t="n">
-        <v>0.2732098358669456</v>
+        <v>0.02521382488447467</v>
       </c>
       <c r="F55" t="n">
-        <v>4.853732050318457e-14</v>
+        <v>9.627219977018917e-14</v>
       </c>
       <c r="G55" t="n">
-        <v>3.151768428289184e-05</v>
+        <v>2.868586013238974e-12</v>
       </c>
       <c r="H55" t="n">
-        <v>0.4945074360911919</v>
+        <v>0.7309591316284023</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
@@ -2346,62 +2346,62 @@
     <row r="56">
       <c r="A56" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS456_5.fasta</t>
+          <t>label_UMGS456_16.fasta</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.3174709868308684</v>
+        <v>0.8960207307450336</v>
       </c>
       <c r="C56" t="n">
-        <v>0.1864924505517791</v>
+        <v>0.05084432459869158</v>
       </c>
       <c r="D56" t="n">
-        <v>0.06729019435016936</v>
+        <v>0.02355733461915259</v>
       </c>
       <c r="E56" t="n">
-        <v>0.4287406822279035</v>
+        <v>0.02957761003707774</v>
       </c>
       <c r="F56" t="n">
-        <v>7.968799246170247e-14</v>
+        <v>2.222058157088679e-14</v>
       </c>
       <c r="G56" t="n">
-        <v>5.686039199863285e-06</v>
+        <v>2.222058157088679e-14</v>
       </c>
       <c r="H56" t="n">
-        <v>0.4287406822279035</v>
+        <v>0.8960207307450336</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>s__Ruminococcus_E sp003526955</t>
+          <t>s__Ruminococcus_E bromii</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS456_7.fasta</t>
+          <t>label_UMGS456_17.fasta</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.7296033627561793</v>
+        <v>0.775520361092032</v>
       </c>
       <c r="C57" t="n">
-        <v>0.08839630355489105</v>
+        <v>0.1010733643163541</v>
       </c>
       <c r="D57" t="n">
-        <v>0.006427515164276502</v>
+        <v>0.06315735910071817</v>
       </c>
       <c r="E57" t="n">
-        <v>0.1755727618606846</v>
+        <v>0.06024891545355027</v>
       </c>
       <c r="F57" t="n">
-        <v>3.457753086510244e-14</v>
+        <v>4.458887166792194e-14</v>
       </c>
       <c r="G57" t="n">
-        <v>5.666393405068585e-08</v>
+        <v>3.730085799148186e-11</v>
       </c>
       <c r="H57" t="n">
-        <v>0.7296033627561793</v>
+        <v>0.775520361092032</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
@@ -2412,29 +2412,29 @@
     <row r="58">
       <c r="A58" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS38_13.fasta</t>
+          <t>label_UMGS456_19.fasta</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.8702682398744759</v>
+        <v>0.8811119096230441</v>
       </c>
       <c r="C58" t="n">
-        <v>0.05964884623148389</v>
+        <v>0.05427353725604789</v>
       </c>
       <c r="D58" t="n">
-        <v>0.02716981254862043</v>
+        <v>0.02957010871497062</v>
       </c>
       <c r="E58" t="n">
-        <v>0.04291310134533841</v>
+        <v>0.03504444440100129</v>
       </c>
       <c r="F58" t="n">
-        <v>2.22256590645489e-14</v>
+        <v>2.221043982950196e-14</v>
       </c>
       <c r="G58" t="n">
-        <v>5.914378196303074e-14</v>
+        <v>4.913979145650021e-12</v>
       </c>
       <c r="H58" t="n">
-        <v>0.8702682398744759</v>
+        <v>0.8811119096230441</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
@@ -2445,62 +2445,62 @@
     <row r="59">
       <c r="A59" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS38_15.fasta</t>
+          <t>label_UMGS456_22.fasta</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.3514113547196331</v>
+        <v>0.7699019256887156</v>
       </c>
       <c r="C59" t="n">
-        <v>0.1065660901289234</v>
+        <v>0.05937656686009793</v>
       </c>
       <c r="D59" t="n">
-        <v>0.151734491072976</v>
+        <v>0.09156172484312547</v>
       </c>
       <c r="E59" t="n">
-        <v>0.390288063046628</v>
+        <v>0.07915978255599676</v>
       </c>
       <c r="F59" t="n">
-        <v>4.253513481360013e-14</v>
+        <v>2.378564121714275e-14</v>
       </c>
       <c r="G59" t="n">
-        <v>1.031796886328991e-09</v>
+        <v>5.204033370181462e-11</v>
       </c>
       <c r="H59" t="n">
-        <v>0.390288063046628</v>
+        <v>0.7699019256887156</v>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>s__Ruminococcus_E sp003526955</t>
+          <t>s__Ruminococcus_E bromii</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS38_19.fasta</t>
+          <t>label_UMGS456_25.fasta</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.7791615029139085</v>
+        <v>0.7983471640596644</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0823489776515846</v>
+        <v>0.031821150811231</v>
       </c>
       <c r="D60" t="n">
-        <v>0.04835563017087738</v>
+        <v>0.0326005467018401</v>
       </c>
       <c r="E60" t="n">
-        <v>0.09013388925014376</v>
+        <v>0.1372311384147872</v>
       </c>
       <c r="F60" t="n">
-        <v>3.179546860253587e-14</v>
+        <v>2.234741731633027e-14</v>
       </c>
       <c r="G60" t="n">
-        <v>1.345376481370528e-11</v>
+        <v>1.245492260280876e-11</v>
       </c>
       <c r="H60" t="n">
-        <v>0.7791615029139085</v>
+        <v>0.7983471640596644</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
@@ -2511,62 +2511,62 @@
     <row r="61">
       <c r="A61" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS38_22.fasta</t>
+          <t>label_UMGS456_3.fasta</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.1535598262252818</v>
+        <v>0.4246494907816014</v>
       </c>
       <c r="C61" t="n">
-        <v>0.04869353603236214</v>
+        <v>0.1778519761039959</v>
       </c>
       <c r="D61" t="n">
-        <v>0.1855048958541123</v>
+        <v>0.09807289897998736</v>
       </c>
       <c r="E61" t="n">
-        <v>0.6122417416165727</v>
+        <v>0.2994256340916163</v>
       </c>
       <c r="F61" t="n">
-        <v>2.232831182100873e-14</v>
+        <v>8.806246662765271e-14</v>
       </c>
       <c r="G61" t="n">
-        <v>2.71648707649338e-10</v>
+        <v>4.271100727751197e-11</v>
       </c>
       <c r="H61" t="n">
-        <v>0.6122417416165727</v>
+        <v>0.4246494907816014</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>s__Ruminococcus_E sp003526955</t>
+          <t>s__Ruminococcus_E bromii</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS38_3.fasta</t>
+          <t>label_UMGS456_8.fasta</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.7057923827249033</v>
+        <v>0.8149065645822802</v>
       </c>
       <c r="C62" t="n">
-        <v>0.1596758191417136</v>
+        <v>0.1087224614347634</v>
       </c>
       <c r="D62" t="n">
-        <v>0.09402207844961168</v>
+        <v>0.02840545291568845</v>
       </c>
       <c r="E62" t="n">
-        <v>0.04050971968360412</v>
+        <v>0.04796552106689002</v>
       </c>
       <c r="F62" t="n">
-        <v>8.35451604012693e-14</v>
+        <v>4.722104932482179e-14</v>
       </c>
       <c r="G62" t="n">
-        <v>8.354516040127339e-14</v>
+        <v>3.307291453804325e-13</v>
       </c>
       <c r="H62" t="n">
-        <v>0.7057923827249033</v>
+        <v>0.8149065645822802</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
@@ -2577,361 +2577,31 @@
     <row r="63">
       <c r="A63" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS38_4.fasta</t>
+          <t>label_UMGS456_9.fasta</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.827401968553054</v>
+        <v>0.3910744267272117</v>
       </c>
       <c r="C63" t="n">
-        <v>0.1042318015073433</v>
+        <v>0.2181765312508827</v>
       </c>
       <c r="D63" t="n">
-        <v>0.02059795707630495</v>
+        <v>0.1870676439394082</v>
       </c>
       <c r="E63" t="n">
-        <v>0.04776827286316584</v>
+        <v>0.2036813980777584</v>
       </c>
       <c r="F63" t="n">
-        <v>4.641368586571504e-14</v>
+        <v>1.257113465162636e-13</v>
       </c>
       <c r="G63" t="n">
-        <v>8.564361205083896e-14</v>
+        <v>4.613246572476539e-12</v>
       </c>
       <c r="H63" t="n">
-        <v>0.827401968553054</v>
+        <v>0.3910744267272117</v>
       </c>
       <c r="I63" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_E bromii</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS38_8.fasta</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>0.5183876152353247</v>
-      </c>
-      <c r="C64" t="n">
-        <v>0.128788940598148</v>
-      </c>
-      <c r="D64" t="n">
-        <v>0.08601718799954858</v>
-      </c>
-      <c r="E64" t="n">
-        <v>0.2668062561662568</v>
-      </c>
-      <c r="F64" t="n">
-        <v>5.609707958720142e-14</v>
-      </c>
-      <c r="G64" t="n">
-        <v>6.656148843129099e-13</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0.5183876152353247</v>
-      </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_E bromii</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS456_0.fasta</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>0.7309591316284023</v>
-      </c>
-      <c r="C65" t="n">
-        <v>0.1674390591579877</v>
-      </c>
-      <c r="D65" t="n">
-        <v>0.07638798432617062</v>
-      </c>
-      <c r="E65" t="n">
-        <v>0.02521382488447467</v>
-      </c>
-      <c r="F65" t="n">
-        <v>9.627219977018917e-14</v>
-      </c>
-      <c r="G65" t="n">
-        <v>2.868586013238974e-12</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0.7309591316284023</v>
-      </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_E bromii</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS456_16.fasta</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>0.8960207307450336</v>
-      </c>
-      <c r="C66" t="n">
-        <v>0.05084432459869158</v>
-      </c>
-      <c r="D66" t="n">
-        <v>0.02355733461915259</v>
-      </c>
-      <c r="E66" t="n">
-        <v>0.02957761003707774</v>
-      </c>
-      <c r="F66" t="n">
-        <v>2.222058157088679e-14</v>
-      </c>
-      <c r="G66" t="n">
-        <v>2.222058157088679e-14</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0.8960207307450336</v>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_E bromii</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS456_17.fasta</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>0.775520361092032</v>
-      </c>
-      <c r="C67" t="n">
-        <v>0.1010733643163541</v>
-      </c>
-      <c r="D67" t="n">
-        <v>0.06315735910071817</v>
-      </c>
-      <c r="E67" t="n">
-        <v>0.06024891545355027</v>
-      </c>
-      <c r="F67" t="n">
-        <v>4.458887166792194e-14</v>
-      </c>
-      <c r="G67" t="n">
-        <v>3.730085799148186e-11</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0.775520361092032</v>
-      </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_E bromii</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS456_19.fasta</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>0.8811119096230441</v>
-      </c>
-      <c r="C68" t="n">
-        <v>0.05427353725604789</v>
-      </c>
-      <c r="D68" t="n">
-        <v>0.02957010871497062</v>
-      </c>
-      <c r="E68" t="n">
-        <v>0.03504444440100129</v>
-      </c>
-      <c r="F68" t="n">
-        <v>2.221043982950196e-14</v>
-      </c>
-      <c r="G68" t="n">
-        <v>4.913979145650021e-12</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0.8811119096230441</v>
-      </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_E bromii</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS456_22.fasta</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>0.7699019256887156</v>
-      </c>
-      <c r="C69" t="n">
-        <v>0.05937656686009793</v>
-      </c>
-      <c r="D69" t="n">
-        <v>0.09156172484312547</v>
-      </c>
-      <c r="E69" t="n">
-        <v>0.07915978255599676</v>
-      </c>
-      <c r="F69" t="n">
-        <v>2.378564121714275e-14</v>
-      </c>
-      <c r="G69" t="n">
-        <v>5.204033370181462e-11</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0.7699019256887156</v>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_E bromii</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS456_25.fasta</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>0.7983471640596644</v>
-      </c>
-      <c r="C70" t="n">
-        <v>0.031821150811231</v>
-      </c>
-      <c r="D70" t="n">
-        <v>0.0326005467018401</v>
-      </c>
-      <c r="E70" t="n">
-        <v>0.1372311384147872</v>
-      </c>
-      <c r="F70" t="n">
-        <v>2.234741731633027e-14</v>
-      </c>
-      <c r="G70" t="n">
-        <v>1.245492260280876e-11</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0.7983471640596644</v>
-      </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_E bromii</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS456_3.fasta</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>0.4246494907816014</v>
-      </c>
-      <c r="C71" t="n">
-        <v>0.1778519761039959</v>
-      </c>
-      <c r="D71" t="n">
-        <v>0.09807289897998736</v>
-      </c>
-      <c r="E71" t="n">
-        <v>0.2994256340916163</v>
-      </c>
-      <c r="F71" t="n">
-        <v>8.806246662765271e-14</v>
-      </c>
-      <c r="G71" t="n">
-        <v>4.271100727751197e-11</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0.4246494907816014</v>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_E bromii</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS456_8.fasta</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>0.8149065645822802</v>
-      </c>
-      <c r="C72" t="n">
-        <v>0.1087224614347634</v>
-      </c>
-      <c r="D72" t="n">
-        <v>0.02840545291568845</v>
-      </c>
-      <c r="E72" t="n">
-        <v>0.04796552106689002</v>
-      </c>
-      <c r="F72" t="n">
-        <v>4.722104932482179e-14</v>
-      </c>
-      <c r="G72" t="n">
-        <v>3.307291453804325e-13</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0.8149065645822802</v>
-      </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_E bromii</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS456_9.fasta</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>0.3910744267272117</v>
-      </c>
-      <c r="C73" t="n">
-        <v>0.2181765312508827</v>
-      </c>
-      <c r="D73" t="n">
-        <v>0.1870676439394082</v>
-      </c>
-      <c r="E73" t="n">
-        <v>0.2036813980777584</v>
-      </c>
-      <c r="F73" t="n">
-        <v>1.257113465162636e-13</v>
-      </c>
-      <c r="G73" t="n">
-        <v>4.613246572476539e-12</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0.3910744267272117</v>
-      </c>
-      <c r="I73" t="inlineStr">
         <is>
           <t>s__Ruminococcus_E bromii</t>
         </is>
@@ -2948,7 +2618,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3039,29 +2709,29 @@
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
-          <t>label_14207_7_95_1.fasta</t>
+          <t>label_14207_7_95_10.fasta</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7152948029313227</v>
+        <v>0.4278040915200124</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1621165810602835</v>
+        <v>0.03726745670679743</v>
       </c>
       <c r="D3" t="n">
-        <v>0.007381640776732611</v>
+        <v>0.2164644025939055</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1117018792252197</v>
+        <v>0.3183561534078116</v>
       </c>
       <c r="F3" t="n">
-        <v>1.253982544744069e-13</v>
+        <v>2.331477423978902e-14</v>
       </c>
       <c r="G3" t="n">
-        <v>0.003505096006316087</v>
+        <v>0.000107895771449711</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7152948029313227</v>
+        <v>0.4278040915200124</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -3072,29 +2742,29 @@
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>label_14207_7_95_11.fasta</t>
+          <t>label_14207_7_95_6.fasta</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1670421055250427</v>
+        <v>0.3433420895124536</v>
       </c>
       <c r="C4" t="n">
-        <v>0.04309459848119875</v>
+        <v>0.1540624170105779</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2048335523972705</v>
+        <v>0.1153202508263268</v>
       </c>
       <c r="E4" t="n">
-        <v>0.582725702420154</v>
+        <v>0.3871937819173856</v>
       </c>
       <c r="F4" t="n">
-        <v>2.821480540682216e-14</v>
+        <v>6.822116876359203e-14</v>
       </c>
       <c r="G4" t="n">
-        <v>0.002304041176305803</v>
+        <v>8.146073318778251e-05</v>
       </c>
       <c r="H4" t="n">
-        <v>0.582725702420154</v>
+        <v>0.3871937819173856</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -3105,62 +2775,62 @@
     <row r="5">
       <c r="A5" s="11" t="inlineStr">
         <is>
-          <t>label_14207_7_95_12.fasta</t>
+          <t>label_14207_7_95_8.fasta</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.722547664826201e-13</v>
+        <v>0.7542654478946218</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1775225540448515</v>
+        <v>0.06927046586041002</v>
       </c>
       <c r="D5" t="n">
-        <v>0.01498964324025298</v>
+        <v>0.03290475524972371</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4250452265229812</v>
+        <v>0.1435283410824301</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3709309106009351</v>
+        <v>2.619516209161905e-14</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01151166559080693</v>
+        <v>3.098991278831348e-05</v>
       </c>
       <c r="H5" t="n">
-        <v>0.4250452265229812</v>
+        <v>0.7542654478946218</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>s__Ruminococcus_E sp003526955</t>
+          <t>s__Ruminococcus_E bromii</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="11" t="inlineStr">
         <is>
-          <t>label_14207_7_95_3.fasta</t>
+          <t>label_14207_7_95_0.fasta</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6203500602330492</v>
+        <v>0.7059612297759346</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1768739047312101</v>
+        <v>0.06811737221320575</v>
       </c>
       <c r="D6" t="n">
-        <v>0.02263467294585906</v>
+        <v>0.02195529999643202</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1749943114125647</v>
+        <v>0.2039658443502469</v>
       </c>
       <c r="F6" t="n">
-        <v>1.280301618881433e-13</v>
+        <v>2.69487621510543e-14</v>
       </c>
       <c r="G6" t="n">
-        <v>0.005147050677188819</v>
+        <v>2.536641536508347e-07</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6203500602330492</v>
+        <v>0.7059612297759346</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -3171,29 +2841,29 @@
     <row r="7">
       <c r="A7" s="11" t="inlineStr">
         <is>
-          <t>label_14207_7_95_7.fasta</t>
+          <t>label_14207_7_95_4.fasta</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6289047759870016</v>
+        <v>0.8080332656888983</v>
       </c>
       <c r="C7" t="n">
-        <v>0.08177122359000799</v>
+        <v>0.06301862416621344</v>
       </c>
       <c r="D7" t="n">
-        <v>0.03264222156090424</v>
+        <v>0.01615227544581116</v>
       </c>
       <c r="E7" t="n">
-        <v>0.255474508463007</v>
+        <v>0.1127956969847486</v>
       </c>
       <c r="F7" t="n">
-        <v>4.469479817536154e-14</v>
+        <v>2.528539902231541e-14</v>
       </c>
       <c r="G7" t="n">
-        <v>0.001207270399034581</v>
+        <v>1.377143031227739e-07</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6289047759870016</v>
+        <v>0.8080332656888983</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -3204,29 +2874,29 @@
     <row r="8">
       <c r="A8" s="11" t="inlineStr">
         <is>
-          <t>label_14207_7_95_10.fasta</t>
+          <t>label_14207_7_95_9.fasta</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.4278040915200124</v>
+        <v>0.879813893136686</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03726745670679743</v>
+        <v>0.0202177401247564</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2164644025939055</v>
+        <v>0.01003926785209318</v>
       </c>
       <c r="E8" t="n">
-        <v>0.3183561534078116</v>
+        <v>0.08992901022111999</v>
       </c>
       <c r="F8" t="n">
-        <v>2.331477423978902e-14</v>
+        <v>2.225228247704714e-14</v>
       </c>
       <c r="G8" t="n">
-        <v>0.000107895771449711</v>
+        <v>8.866532225741459e-08</v>
       </c>
       <c r="H8" t="n">
-        <v>0.4278040915200124</v>
+        <v>0.879813893136686</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -3237,229 +2907,64 @@
     <row r="9">
       <c r="A9" s="11" t="inlineStr">
         <is>
-          <t>label_14207_7_95_6.fasta</t>
+          <t>label_14207_7_95_2.fasta</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.3433420895124536</v>
+        <v>0.7184311794501649</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1540624170105779</v>
+        <v>0.1419340300001001</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1153202508263268</v>
+        <v>0.009101350738119738</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3871937819173856</v>
+        <v>0.1305334052515771</v>
       </c>
       <c r="F9" t="n">
-        <v>6.822116876359203e-14</v>
+        <v>5.782412489664099e-14</v>
       </c>
       <c r="G9" t="n">
-        <v>8.146073318778251e-05</v>
+        <v>3.455998042966663e-08</v>
       </c>
       <c r="H9" t="n">
-        <v>0.3871937819173856</v>
+        <v>0.7184311794501649</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>s__Ruminococcus_E sp003526955</t>
+          <t>s__Ruminococcus_E bromii</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="11" t="inlineStr">
         <is>
-          <t>label_14207_7_95_8.fasta</t>
+          <t>label_14207_7_95_5.fasta</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.7542654478946218</v>
+        <v>0.6930623133816635</v>
       </c>
       <c r="C10" t="n">
-        <v>0.06927046586041002</v>
+        <v>0.1485918082722184</v>
       </c>
       <c r="D10" t="n">
-        <v>0.03290475524972371</v>
+        <v>0.02828455591613211</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1435283410824301</v>
+        <v>0.1300613224291517</v>
       </c>
       <c r="F10" t="n">
-        <v>2.619516209161905e-14</v>
+        <v>7.11586072765181e-14</v>
       </c>
       <c r="G10" t="n">
-        <v>3.098991278831348e-05</v>
+        <v>7.629892644897886e-13</v>
       </c>
       <c r="H10" t="n">
-        <v>0.7542654478946218</v>
+        <v>0.6930623133816635</v>
       </c>
       <c r="I10" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_E bromii</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="11" t="inlineStr">
-        <is>
-          <t>label_14207_7_95_0.fasta</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>0.7059612297759346</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.06811737221320575</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.02195529999643202</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.2039658443502469</v>
-      </c>
-      <c r="F11" t="n">
-        <v>2.69487621510543e-14</v>
-      </c>
-      <c r="G11" t="n">
-        <v>2.536641536508347e-07</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.7059612297759346</v>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_E bromii</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="11" t="inlineStr">
-        <is>
-          <t>label_14207_7_95_4.fasta</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>0.8080332656888983</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.06301862416621344</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.01615227544581116</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.1127956969847486</v>
-      </c>
-      <c r="F12" t="n">
-        <v>2.528539902231541e-14</v>
-      </c>
-      <c r="G12" t="n">
-        <v>1.377143031227739e-07</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.8080332656888983</v>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_E bromii</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="11" t="inlineStr">
-        <is>
-          <t>label_14207_7_95_9.fasta</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0.879813893136686</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.0202177401247564</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.01003926785209318</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.08992901022111999</v>
-      </c>
-      <c r="F13" t="n">
-        <v>2.225228247704714e-14</v>
-      </c>
-      <c r="G13" t="n">
-        <v>8.866532225741459e-08</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0.879813893136686</v>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_E bromii</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="11" t="inlineStr">
-        <is>
-          <t>label_14207_7_95_2.fasta</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>0.7184311794501649</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1419340300001001</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.009101350738119738</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.1305334052515771</v>
-      </c>
-      <c r="F14" t="n">
-        <v>5.782412489664099e-14</v>
-      </c>
-      <c r="G14" t="n">
-        <v>3.455998042966663e-08</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0.7184311794501649</v>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_E bromii</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="11" t="inlineStr">
-        <is>
-          <t>label_14207_7_95_5.fasta</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>0.6930623133816635</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1485918082722184</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.02828455591613211</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.1300613224291517</v>
-      </c>
-      <c r="F15" t="n">
-        <v>7.11586072765181e-14</v>
-      </c>
-      <c r="G15" t="n">
-        <v>7.629892644897886e-13</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0.6930623133816635</v>
-      </c>
-      <c r="I15" t="inlineStr">
         <is>
           <t>s__Ruminococcus_E bromii</t>
         </is>
@@ -3476,7 +2981,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I59"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3765,29 +3270,29 @@
     <row r="9">
       <c r="A9" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS279_10.fasta</t>
+          <t>label_UMGS279_17.fasta</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.04821358525368154</v>
+        <v>0.04248956527405565</v>
       </c>
       <c r="C9" t="n">
-        <v>0.04594670647929146</v>
+        <v>0.03561674916562928</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6871353022039002</v>
+        <v>0.672778457460928</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2169649792664569</v>
+        <v>0.2481603651373754</v>
       </c>
       <c r="F9" t="n">
-        <v>3.145391745328089e-14</v>
+        <v>2.290974026445296e-14</v>
       </c>
       <c r="G9" t="n">
-        <v>0.001739426796638703</v>
+        <v>0.0009548629619888677</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6871353022039002</v>
+        <v>0.672778457460928</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -3798,29 +3303,29 @@
     <row r="10">
       <c r="A10" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS279_11.fasta</t>
+          <t>label_UMGS279_24.fasta</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.05295807063139191</v>
+        <v>0.07201668979751456</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0370031331546983</v>
+        <v>0.03359593093666356</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6651876840548365</v>
+        <v>0.6857756720562151</v>
       </c>
       <c r="E10" t="n">
-        <v>0.2418362016717309</v>
+        <v>0.2085417121131662</v>
       </c>
       <c r="F10" t="n">
-        <v>2.503858767700046e-14</v>
+        <v>2.484103009148943e-14</v>
       </c>
       <c r="G10" t="n">
-        <v>0.003014910487317269</v>
+        <v>6.999509641584419e-05</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6651876840548365</v>
+        <v>0.6857756720562151</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -3831,29 +3336,29 @@
     <row r="11">
       <c r="A11" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS279_15.fasta</t>
+          <t>label_UMGS279_25.fasta</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2643525335085571</v>
+        <v>0.05200762124256162</v>
       </c>
       <c r="C11" t="n">
-        <v>0.03243731710579707</v>
+        <v>0.04669942161437859</v>
       </c>
       <c r="D11" t="n">
-        <v>0.4339955011206705</v>
+        <v>0.6612049006494028</v>
       </c>
       <c r="E11" t="n">
-        <v>0.2690299308831924</v>
+        <v>0.2396068927664225</v>
       </c>
       <c r="F11" t="n">
-        <v>2.223469363105701e-14</v>
+        <v>2.885239820433388e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0001847173817606645</v>
+        <v>0.0004811637272056004</v>
       </c>
       <c r="H11" t="n">
-        <v>0.4339955011206705</v>
+        <v>0.6612049006494028</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -3864,95 +3369,95 @@
     <row r="12">
       <c r="A12" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS279_34.fasta</t>
+          <t>label_UMGS279_26.fasta</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1661304173010825</v>
+        <v>0.1219762517623481</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1451252737237673</v>
+        <v>0.04172720151107221</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2855296285765979</v>
+        <v>0.6005350970537655</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3223901121802502</v>
+        <v>0.235710072734287</v>
       </c>
       <c r="F12" t="n">
-        <v>1.053224832254375e-13</v>
+        <v>2.726011535275945e-14</v>
       </c>
       <c r="G12" t="n">
-        <v>0.08082456821819677</v>
+        <v>5.137693850009954e-05</v>
       </c>
       <c r="H12" t="n">
-        <v>0.3223901121802502</v>
+        <v>0.6005350970537655</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>s__Ruminococcus_E sp003526955</t>
+          <t>s__Ruminococcus_E sp003438075</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS279_36.fasta</t>
+          <t>label_UMGS279_29.fasta</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.1006521845962014</v>
+        <v>0.09601701469796005</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0429174648470463</v>
+        <v>0.04519712464125959</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3327429417472942</v>
+        <v>0.6353959482764873</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5224154191783565</v>
+        <v>0.2232046858022636</v>
       </c>
       <c r="F13" t="n">
-        <v>2.634759370900063e-14</v>
+        <v>2.683290391908149e-14</v>
       </c>
       <c r="G13" t="n">
-        <v>0.00127198963107513</v>
+        <v>0.0001852265820027064</v>
       </c>
       <c r="H13" t="n">
-        <v>0.5224154191783565</v>
+        <v>0.6353959482764873</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>s__Ruminococcus_E sp003526955</t>
+          <t>s__Ruminococcus_E sp003438075</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS279_38.fasta</t>
+          <t>label_UMGS279_31.fasta</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.06355577104199546</v>
+        <v>0.1313890135172689</v>
       </c>
       <c r="C14" t="n">
-        <v>0.06557526652044722</v>
+        <v>0.06999559177647205</v>
       </c>
       <c r="D14" t="n">
-        <v>0.464880611185846</v>
+        <v>0.4391583900222158</v>
       </c>
       <c r="E14" t="n">
-        <v>0.4009414408836737</v>
+        <v>0.3593587575033851</v>
       </c>
       <c r="F14" t="n">
-        <v>3.820926191422528e-14</v>
+        <v>3.634609667014641e-14</v>
       </c>
       <c r="G14" t="n">
-        <v>0.005046910367999467</v>
+        <v>9.82471806218583e-05</v>
       </c>
       <c r="H14" t="n">
-        <v>0.464880611185846</v>
+        <v>0.4391583900222158</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -3963,29 +3468,29 @@
     <row r="15">
       <c r="A15" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS279_44.fasta</t>
+          <t>label_UMGS279_40.fasta</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.002690207312587733</v>
+        <v>0.0008779756520522838</v>
       </c>
       <c r="C15" t="n">
-        <v>0.09488925339648346</v>
+        <v>0.09709142114287934</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7637830464503421</v>
+        <v>0.7438259284617192</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1330340107934816</v>
+        <v>0.1575899109630428</v>
       </c>
       <c r="F15" t="n">
-        <v>6.406186801292032e-14</v>
+        <v>4.132786788976002e-14</v>
       </c>
       <c r="G15" t="n">
-        <v>0.00560348204704121</v>
+        <v>0.0006147637802651139</v>
       </c>
       <c r="H15" t="n">
-        <v>0.7637830464503421</v>
+        <v>0.7438259284617192</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -3996,29 +3501,29 @@
     <row r="16">
       <c r="A16" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS279_48.fasta</t>
+          <t>label_UMGS279_41.fasta</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>9.838144259743909e-06</v>
+        <v>0.07516443961018711</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1960544504753148</v>
+        <v>0.08014028619034436</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3997296315441799</v>
+        <v>0.4569054103048396</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1415362635128348</v>
+        <v>0.3875845729275165</v>
       </c>
       <c r="F16" t="n">
-        <v>1.562827324453819e-13</v>
+        <v>4.263163068517168e-14</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2626698163232545</v>
+        <v>0.0002052909670699087</v>
       </c>
       <c r="H16" t="n">
-        <v>0.3997296315441799</v>
+        <v>0.4569054103048396</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -4029,95 +3534,95 @@
     <row r="17">
       <c r="A17" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS279_6.fasta</t>
+          <t>label_UMGS279_42.fasta</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.2300447674995556</v>
+        <v>0.01731798321994843</v>
       </c>
       <c r="C17" t="n">
-        <v>0.05994413324873716</v>
+        <v>0.1238040086691043</v>
       </c>
       <c r="D17" t="n">
-        <v>0.3422765979631934</v>
+        <v>0.4600168351839016</v>
       </c>
       <c r="E17" t="n">
-        <v>0.363110633577427</v>
+        <v>0.398626642695792</v>
       </c>
       <c r="F17" t="n">
-        <v>3.501165534939553e-14</v>
+        <v>5.393268420493661e-14</v>
       </c>
       <c r="G17" t="n">
-        <v>0.004623867711051909</v>
+        <v>0.0002345302311995217</v>
       </c>
       <c r="H17" t="n">
-        <v>0.363110633577427</v>
+        <v>0.4600168351839016</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>s__Ruminococcus_E sp003526955</t>
+          <t>s__Ruminococcus_E sp003438075</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS279_17.fasta</t>
+          <t>label_UMGS279_49.fasta</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.04248956527405565</v>
+        <v>9.758659548584287e-05</v>
       </c>
       <c r="C18" t="n">
-        <v>0.03561674916562928</v>
+        <v>0.4323757946409976</v>
       </c>
       <c r="D18" t="n">
-        <v>0.672778457460928</v>
+        <v>0.3006745757008688</v>
       </c>
       <c r="E18" t="n">
-        <v>0.2481603651373754</v>
+        <v>0.2539238162019695</v>
       </c>
       <c r="F18" t="n">
-        <v>2.290974026445296e-14</v>
+        <v>8.492374973204286e-14</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0009548629619888677</v>
+        <v>0.01292822686059305</v>
       </c>
       <c r="H18" t="n">
-        <v>0.672778457460928</v>
+        <v>0.4323757946409976</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>s__Ruminococcus_E sp003438075</t>
+          <t>s__Ruminococcus_E bromii_B</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS279_24.fasta</t>
+          <t>label_UMGS279_0.fasta</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.07201668979751456</v>
+        <v>0.004316061150364983</v>
       </c>
       <c r="C19" t="n">
-        <v>0.03359593093666356</v>
+        <v>0.05868517421095053</v>
       </c>
       <c r="D19" t="n">
-        <v>0.6857756720562151</v>
+        <v>0.5920673885770182</v>
       </c>
       <c r="E19" t="n">
-        <v>0.2085417121131662</v>
+        <v>0.3449233300037778</v>
       </c>
       <c r="F19" t="n">
-        <v>2.484103009148943e-14</v>
+        <v>3.631823919971327e-14</v>
       </c>
       <c r="G19" t="n">
-        <v>6.999509641584419e-05</v>
+        <v>8.046057852068536e-06</v>
       </c>
       <c r="H19" t="n">
-        <v>0.6857756720562151</v>
+        <v>0.5920673885770182</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -4128,29 +3633,29 @@
     <row r="20">
       <c r="A20" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS279_25.fasta</t>
+          <t>label_UMGS279_12.fasta</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.05200762124256162</v>
+        <v>0.03440135473927335</v>
       </c>
       <c r="C20" t="n">
-        <v>0.04669942161437859</v>
+        <v>0.06938249444820523</v>
       </c>
       <c r="D20" t="n">
-        <v>0.6612049006494028</v>
+        <v>0.4595504426426494</v>
       </c>
       <c r="E20" t="n">
-        <v>0.2396068927664225</v>
+        <v>0.4366604414706345</v>
       </c>
       <c r="F20" t="n">
-        <v>2.885239820433388e-14</v>
+        <v>4.003421687331604e-14</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0004811637272056004</v>
+        <v>5.266699197349668e-06</v>
       </c>
       <c r="H20" t="n">
-        <v>0.6612049006494028</v>
+        <v>0.4595504426426494</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -4161,29 +3666,29 @@
     <row r="21">
       <c r="A21" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS279_26.fasta</t>
+          <t>label_UMGS279_13.fasta</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.1219762517623481</v>
+        <v>0.07857687643333502</v>
       </c>
       <c r="C21" t="n">
-        <v>0.04172720151107221</v>
+        <v>0.05625892750535907</v>
       </c>
       <c r="D21" t="n">
-        <v>0.6005350970537655</v>
+        <v>0.4916546984976468</v>
       </c>
       <c r="E21" t="n">
-        <v>0.235710072734287</v>
+        <v>0.3733561517243852</v>
       </c>
       <c r="F21" t="n">
-        <v>2.726011535275945e-14</v>
+        <v>3.245991013890593e-14</v>
       </c>
       <c r="G21" t="n">
-        <v>5.137693850009954e-05</v>
+        <v>0.0001533458392413599</v>
       </c>
       <c r="H21" t="n">
-        <v>0.6005350970537655</v>
+        <v>0.4916546984976468</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -4194,29 +3699,29 @@
     <row r="22">
       <c r="A22" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS279_29.fasta</t>
+          <t>label_UMGS279_14.fasta</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.09601701469796005</v>
+        <v>0.04072204605516491</v>
       </c>
       <c r="C22" t="n">
-        <v>0.04519712464125959</v>
+        <v>0.0417950037614816</v>
       </c>
       <c r="D22" t="n">
-        <v>0.6353959482764873</v>
+        <v>0.7800717953653492</v>
       </c>
       <c r="E22" t="n">
-        <v>0.2232046858022636</v>
+        <v>0.1372624445821883</v>
       </c>
       <c r="F22" t="n">
-        <v>2.683290391908149e-14</v>
+        <v>2.748828523310008e-14</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0001852265820027064</v>
+        <v>0.0001487102357886349</v>
       </c>
       <c r="H22" t="n">
-        <v>0.6353959482764873</v>
+        <v>0.7800717953653492</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -4227,62 +3732,62 @@
     <row r="23">
       <c r="A23" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS279_31.fasta</t>
+          <t>label_UMGS279_18.fasta</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.1313890135172689</v>
+        <v>0.1263733099433474</v>
       </c>
       <c r="C23" t="n">
-        <v>0.06999559177647205</v>
+        <v>0.06764704853269003</v>
       </c>
       <c r="D23" t="n">
-        <v>0.4391583900222158</v>
+        <v>0.3474625630859423</v>
       </c>
       <c r="E23" t="n">
-        <v>0.3593587575033851</v>
+        <v>0.4585161242331753</v>
       </c>
       <c r="F23" t="n">
-        <v>3.634609667014641e-14</v>
+        <v>3.700596529593862e-14</v>
       </c>
       <c r="G23" t="n">
-        <v>9.82471806218583e-05</v>
+        <v>9.54204807811313e-07</v>
       </c>
       <c r="H23" t="n">
-        <v>0.4391583900222158</v>
+        <v>0.4585161242331753</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>s__Ruminococcus_E sp003438075</t>
+          <t>s__Ruminococcus_E sp003526955</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS279_40.fasta</t>
+          <t>label_UMGS279_2.fasta</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.0008779756520522838</v>
+        <v>0.003229344699110709</v>
       </c>
       <c r="C24" t="n">
-        <v>0.09709142114287934</v>
+        <v>0.05419792830159733</v>
       </c>
       <c r="D24" t="n">
-        <v>0.7438259284617192</v>
+        <v>0.5909933317120781</v>
       </c>
       <c r="E24" t="n">
-        <v>0.1575899109630428</v>
+        <v>0.3515569312137155</v>
       </c>
       <c r="F24" t="n">
-        <v>4.132786788976002e-14</v>
+        <v>2.951171441899514e-14</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0006147637802651139</v>
+        <v>2.246407346894724e-05</v>
       </c>
       <c r="H24" t="n">
-        <v>0.7438259284617192</v>
+        <v>0.5909933317120781</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
@@ -4293,29 +3798,29 @@
     <row r="25">
       <c r="A25" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS279_41.fasta</t>
+          <t>label_UMGS279_20.fasta</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.07516443961018711</v>
+        <v>0.2013786715943948</v>
       </c>
       <c r="C25" t="n">
-        <v>0.08014028619034436</v>
+        <v>0.04856257909205019</v>
       </c>
       <c r="D25" t="n">
-        <v>0.4569054103048396</v>
+        <v>0.449410320203214</v>
       </c>
       <c r="E25" t="n">
-        <v>0.3875845729275165</v>
+        <v>0.3006469726557691</v>
       </c>
       <c r="F25" t="n">
-        <v>4.263163068517168e-14</v>
+        <v>2.810843186734068e-14</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0002052909670699087</v>
+        <v>1.45645454349267e-06</v>
       </c>
       <c r="H25" t="n">
-        <v>0.4569054103048396</v>
+        <v>0.449410320203214</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -4326,29 +3831,29 @@
     <row r="26">
       <c r="A26" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS279_42.fasta</t>
+          <t>label_UMGS279_21.fasta</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.01731798321994843</v>
+        <v>0.0406635243557769</v>
       </c>
       <c r="C26" t="n">
-        <v>0.1238040086691043</v>
+        <v>0.06325905984803402</v>
       </c>
       <c r="D26" t="n">
-        <v>0.4600168351839016</v>
+        <v>0.6891859287064765</v>
       </c>
       <c r="E26" t="n">
-        <v>0.398626642695792</v>
+        <v>0.2007458754836851</v>
       </c>
       <c r="F26" t="n">
-        <v>5.393268420493661e-14</v>
+        <v>4.305429119295428e-14</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0002345302311995217</v>
+        <v>0.006145611605984281</v>
       </c>
       <c r="H26" t="n">
-        <v>0.4600168351839016</v>
+        <v>0.6891859287064765</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
@@ -4359,95 +3864,95 @@
     <row r="27">
       <c r="A27" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS279_49.fasta</t>
+          <t>label_UMGS279_28.fasta</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>9.758659548584287e-05</v>
+        <v>0.06462780095919618</v>
       </c>
       <c r="C27" t="n">
-        <v>0.4323757946409976</v>
+        <v>0.06129929735801035</v>
       </c>
       <c r="D27" t="n">
-        <v>0.3006745757008688</v>
+        <v>0.5984403346058725</v>
       </c>
       <c r="E27" t="n">
-        <v>0.2539238162019695</v>
+        <v>0.2755268630463674</v>
       </c>
       <c r="F27" t="n">
-        <v>8.492374973204286e-14</v>
+        <v>3.544988432503137e-14</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01292822686059305</v>
+        <v>0.000105704030518075</v>
       </c>
       <c r="H27" t="n">
-        <v>0.4323757946409976</v>
+        <v>0.5984403346058725</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>s__Ruminococcus_E bromii_B</t>
+          <t>s__Ruminococcus_E sp003438075</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS279_0.fasta</t>
+          <t>label_UMGS279_33.fasta</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.004316061150364983</v>
+        <v>0.1296485624377944</v>
       </c>
       <c r="C28" t="n">
-        <v>0.05868517421095053</v>
+        <v>0.07700100709073164</v>
       </c>
       <c r="D28" t="n">
-        <v>0.5920673885770182</v>
+        <v>0.3321104138192774</v>
       </c>
       <c r="E28" t="n">
-        <v>0.3449233300037778</v>
+        <v>0.4611982364191662</v>
       </c>
       <c r="F28" t="n">
-        <v>3.631823919971327e-14</v>
+        <v>3.890106630453073e-14</v>
       </c>
       <c r="G28" t="n">
-        <v>8.046057852068536e-06</v>
+        <v>4.178023299146139e-05</v>
       </c>
       <c r="H28" t="n">
-        <v>0.5920673885770182</v>
+        <v>0.4611982364191662</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>s__Ruminococcus_E sp003438075</t>
+          <t>s__Ruminococcus_E sp003526955</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS279_12.fasta</t>
+          <t>label_UMGS279_35.fasta</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.03440135473927335</v>
+        <v>0.007298184383189811</v>
       </c>
       <c r="C29" t="n">
-        <v>0.06938249444820523</v>
+        <v>0.09298455045744192</v>
       </c>
       <c r="D29" t="n">
-        <v>0.4595504426426494</v>
+        <v>0.4625596403829488</v>
       </c>
       <c r="E29" t="n">
-        <v>0.4366604414706345</v>
+        <v>0.4371575898225292</v>
       </c>
       <c r="F29" t="n">
-        <v>4.003421687331604e-14</v>
+        <v>3.6432377446216e-14</v>
       </c>
       <c r="G29" t="n">
-        <v>5.266699197349668e-06</v>
+        <v>3.495385381492714e-08</v>
       </c>
       <c r="H29" t="n">
-        <v>0.4595504426426494</v>
+        <v>0.4625596403829488</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
@@ -4458,29 +3963,29 @@
     <row r="30">
       <c r="A30" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS279_13.fasta</t>
+          <t>label_UMGS279_37.fasta</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.07857687643333502</v>
+        <v>0.08463094514355861</v>
       </c>
       <c r="C30" t="n">
-        <v>0.05625892750535907</v>
+        <v>0.06961358116900977</v>
       </c>
       <c r="D30" t="n">
-        <v>0.4916546984976468</v>
+        <v>0.4522626939123683</v>
       </c>
       <c r="E30" t="n">
-        <v>0.3733561517243852</v>
+        <v>0.3934827933898296</v>
       </c>
       <c r="F30" t="n">
-        <v>3.245991013890593e-14</v>
+        <v>3.437521443883826e-14</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0001533458392413599</v>
+        <v>9.986385199354973e-06</v>
       </c>
       <c r="H30" t="n">
-        <v>0.4916546984976468</v>
+        <v>0.4522626939123683</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
@@ -4491,128 +3996,128 @@
     <row r="31">
       <c r="A31" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS279_14.fasta</t>
+          <t>label_UMGS279_39.fasta</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.04072204605516491</v>
+        <v>0.0677614862688071</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0417950037614816</v>
+        <v>0.1048785024561176</v>
       </c>
       <c r="D31" t="n">
-        <v>0.7800717953653492</v>
+        <v>0.3570312370851528</v>
       </c>
       <c r="E31" t="n">
-        <v>0.1372624445821883</v>
+        <v>0.4703036918118543</v>
       </c>
       <c r="F31" t="n">
-        <v>2.748828523310008e-14</v>
+        <v>5.713758286013039e-14</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0001487102357886349</v>
+        <v>2.508237801115665e-05</v>
       </c>
       <c r="H31" t="n">
-        <v>0.7800717953653492</v>
+        <v>0.4703036918118543</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>s__Ruminococcus_E sp003438075</t>
+          <t>s__Ruminococcus_E sp003526955</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS279_18.fasta</t>
+          <t>label_UMGS279_4.fasta</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.1263733099433474</v>
+        <v>0.00897961563477432</v>
       </c>
       <c r="C32" t="n">
-        <v>0.06764704853269003</v>
+        <v>0.05550170298961529</v>
       </c>
       <c r="D32" t="n">
-        <v>0.3474625630859423</v>
+        <v>0.6923246626431014</v>
       </c>
       <c r="E32" t="n">
-        <v>0.4585161242331753</v>
+        <v>0.2431310426378784</v>
       </c>
       <c r="F32" t="n">
-        <v>3.700596529593862e-14</v>
+        <v>3.43327916700781e-14</v>
       </c>
       <c r="G32" t="n">
-        <v>9.54204807811313e-07</v>
+        <v>6.29760945962282e-05</v>
       </c>
       <c r="H32" t="n">
-        <v>0.4585161242331753</v>
+        <v>0.6923246626431014</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>s__Ruminococcus_E sp003526955</t>
+          <t>s__Ruminococcus_E sp003438075</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS279_2.fasta</t>
+          <t>label_UMGS279_47.fasta</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.003229344699110709</v>
+        <v>0.0004854123486669458</v>
       </c>
       <c r="C33" t="n">
-        <v>0.05419792830159733</v>
+        <v>0.1258880606536048</v>
       </c>
       <c r="D33" t="n">
-        <v>0.5909933317120781</v>
+        <v>0.2429832889150185</v>
       </c>
       <c r="E33" t="n">
-        <v>0.3515569312137155</v>
+        <v>0.6306431306854109</v>
       </c>
       <c r="F33" t="n">
-        <v>2.951171441899514e-14</v>
+        <v>5.692897370997328e-14</v>
       </c>
       <c r="G33" t="n">
-        <v>2.246407346894724e-05</v>
+        <v>1.073972421445058e-07</v>
       </c>
       <c r="H33" t="n">
-        <v>0.5909933317120781</v>
+        <v>0.6306431306854109</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>s__Ruminococcus_E sp003438075</t>
+          <t>s__Ruminococcus_E sp003526955</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS279_20.fasta</t>
+          <t>label_UMGS279_8.fasta</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.2013786715943948</v>
+        <v>0.05437048515485635</v>
       </c>
       <c r="C34" t="n">
-        <v>0.04856257909205019</v>
+        <v>0.0630796030444328</v>
       </c>
       <c r="D34" t="n">
-        <v>0.449410320203214</v>
+        <v>0.5200153903845822</v>
       </c>
       <c r="E34" t="n">
-        <v>0.3006469726557691</v>
+        <v>0.3624870260963819</v>
       </c>
       <c r="F34" t="n">
-        <v>2.810843186734068e-14</v>
+        <v>3.389128430207481e-14</v>
       </c>
       <c r="G34" t="n">
-        <v>1.45645454349267e-06</v>
+        <v>4.749531971302993e-05</v>
       </c>
       <c r="H34" t="n">
-        <v>0.449410320203214</v>
+        <v>0.5200153903845822</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
@@ -4623,29 +4128,29 @@
     <row r="35">
       <c r="A35" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS279_21.fasta</t>
+          <t>label_UMGS279_16.fasta</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.0406635243557769</v>
+        <v>0.09808645796027561</v>
       </c>
       <c r="C35" t="n">
-        <v>0.06325905984803402</v>
+        <v>0.05758193237278867</v>
       </c>
       <c r="D35" t="n">
-        <v>0.6891859287064765</v>
+        <v>0.6168458554116075</v>
       </c>
       <c r="E35" t="n">
-        <v>0.2007458754836851</v>
+        <v>0.2274857459436662</v>
       </c>
       <c r="F35" t="n">
-        <v>4.305429119295428e-14</v>
+        <v>2.304438961306574e-14</v>
       </c>
       <c r="G35" t="n">
-        <v>0.006145611605984281</v>
+        <v>8.311638917252972e-09</v>
       </c>
       <c r="H35" t="n">
-        <v>0.6891859287064765</v>
+        <v>0.6168458554116075</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
@@ -4656,29 +4161,29 @@
     <row r="36">
       <c r="A36" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS279_28.fasta</t>
+          <t>label_UMGS279_19.fasta</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.06462780095919618</v>
+        <v>0.1304692407936895</v>
       </c>
       <c r="C36" t="n">
-        <v>0.06129929735801035</v>
+        <v>0.05515606886952727</v>
       </c>
       <c r="D36" t="n">
-        <v>0.5984403346058725</v>
+        <v>0.520545837072796</v>
       </c>
       <c r="E36" t="n">
-        <v>0.2755268630463674</v>
+        <v>0.293828846742802</v>
       </c>
       <c r="F36" t="n">
-        <v>3.544988432503137e-14</v>
+        <v>2.225853519478082e-14</v>
       </c>
       <c r="G36" t="n">
-        <v>0.000105704030518075</v>
+        <v>6.521163032400103e-09</v>
       </c>
       <c r="H36" t="n">
-        <v>0.5984403346058725</v>
+        <v>0.520545837072796</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
@@ -4689,29 +4194,29 @@
     <row r="37">
       <c r="A37" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS279_33.fasta</t>
+          <t>label_UMGS279_22.fasta</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.1296485624377944</v>
+        <v>0.2677644809902456</v>
       </c>
       <c r="C37" t="n">
-        <v>0.07700100709073164</v>
+        <v>0.05498805153780967</v>
       </c>
       <c r="D37" t="n">
-        <v>0.3321104138192774</v>
+        <v>0.1628215721640474</v>
       </c>
       <c r="E37" t="n">
-        <v>0.4611982364191662</v>
+        <v>0.5144258102607333</v>
       </c>
       <c r="F37" t="n">
-        <v>3.890106630453073e-14</v>
+        <v>2.22426428030027e-14</v>
       </c>
       <c r="G37" t="n">
-        <v>4.178023299146139e-05</v>
+        <v>8.50471416883265e-08</v>
       </c>
       <c r="H37" t="n">
-        <v>0.4611982364191662</v>
+        <v>0.5144258102607333</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
@@ -4722,29 +4227,29 @@
     <row r="38">
       <c r="A38" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS279_35.fasta</t>
+          <t>label_UMGS279_23.fasta</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.007298184383189811</v>
+        <v>0.06636184778830914</v>
       </c>
       <c r="C38" t="n">
-        <v>0.09298455045744192</v>
+        <v>0.04332635663727238</v>
       </c>
       <c r="D38" t="n">
-        <v>0.4625596403829488</v>
+        <v>0.7172406812544408</v>
       </c>
       <c r="E38" t="n">
-        <v>0.4371575898225292</v>
+        <v>0.1730708062820582</v>
       </c>
       <c r="F38" t="n">
-        <v>3.6432377446216e-14</v>
+        <v>2.232552508063382e-14</v>
       </c>
       <c r="G38" t="n">
-        <v>3.495385381492714e-08</v>
+        <v>3.080378970901337e-07</v>
       </c>
       <c r="H38" t="n">
-        <v>0.4625596403829488</v>
+        <v>0.7172406812544408</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
@@ -4755,29 +4260,29 @@
     <row r="39">
       <c r="A39" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS279_37.fasta</t>
+          <t>label_UMGS279_3.fasta</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.08463094514355861</v>
+        <v>0.00730906477486613</v>
       </c>
       <c r="C39" t="n">
-        <v>0.06961358116900977</v>
+        <v>0.08446938242277367</v>
       </c>
       <c r="D39" t="n">
-        <v>0.4522626939123683</v>
+        <v>0.5564102232638991</v>
       </c>
       <c r="E39" t="n">
-        <v>0.3934827933898296</v>
+        <v>0.351811276887578</v>
       </c>
       <c r="F39" t="n">
-        <v>3.437521443883826e-14</v>
+        <v>3.407390118190284e-14</v>
       </c>
       <c r="G39" t="n">
-        <v>9.986385199354973e-06</v>
+        <v>5.265084898760853e-08</v>
       </c>
       <c r="H39" t="n">
-        <v>0.4522626939123683</v>
+        <v>0.5564102232638991</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
@@ -4788,62 +4293,62 @@
     <row r="40">
       <c r="A40" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS279_39.fasta</t>
+          <t>label_UMGS279_32.fasta</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.0677614862688071</v>
+        <v>0.1145682825652222</v>
       </c>
       <c r="C40" t="n">
-        <v>0.1048785024561176</v>
+        <v>0.05309973753920089</v>
       </c>
       <c r="D40" t="n">
-        <v>0.3570312370851528</v>
+        <v>0.6602904354627885</v>
       </c>
       <c r="E40" t="n">
-        <v>0.4703036918118543</v>
+        <v>0.1720409605314591</v>
       </c>
       <c r="F40" t="n">
-        <v>5.713758286013039e-14</v>
+        <v>2.222919647213186e-14</v>
       </c>
       <c r="G40" t="n">
-        <v>2.508237801115665e-05</v>
+        <v>5.839013070681356e-07</v>
       </c>
       <c r="H40" t="n">
-        <v>0.4703036918118543</v>
+        <v>0.6602904354627885</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>s__Ruminococcus_E sp003526955</t>
+          <t>s__Ruminococcus_E sp003438075</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS279_4.fasta</t>
+          <t>label_UMGS279_46.fasta</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.00897961563477432</v>
+        <v>0.000228837485261435</v>
       </c>
       <c r="C41" t="n">
-        <v>0.05550170298961529</v>
+        <v>0.2861148007494584</v>
       </c>
       <c r="D41" t="n">
-        <v>0.6923246626431014</v>
+        <v>0.4908372281398939</v>
       </c>
       <c r="E41" t="n">
-        <v>0.2431310426378784</v>
+        <v>0.1596798195832285</v>
       </c>
       <c r="F41" t="n">
-        <v>3.43327916700781e-14</v>
+        <v>2.791285209124462e-13</v>
       </c>
       <c r="G41" t="n">
-        <v>6.29760945962282e-05</v>
+        <v>0.06313931404187874</v>
       </c>
       <c r="H41" t="n">
-        <v>0.6923246626431014</v>
+        <v>0.4908372281398939</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
@@ -4854,95 +4359,95 @@
     <row r="42">
       <c r="A42" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS279_47.fasta</t>
+          <t>label_UMGS279_5.fasta</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.0004854123486669458</v>
+        <v>0.0434702855679015</v>
       </c>
       <c r="C42" t="n">
-        <v>0.1258880606536048</v>
+        <v>0.07501811399082908</v>
       </c>
       <c r="D42" t="n">
-        <v>0.2429832889150185</v>
+        <v>0.6831121182007104</v>
       </c>
       <c r="E42" t="n">
-        <v>0.6306431306854109</v>
+        <v>0.198399448698218</v>
       </c>
       <c r="F42" t="n">
-        <v>5.692897370997328e-14</v>
+        <v>2.914643394327204e-14</v>
       </c>
       <c r="G42" t="n">
-        <v>1.073972421445058e-07</v>
+        <v>3.354231182924542e-08</v>
       </c>
       <c r="H42" t="n">
-        <v>0.6306431306854109</v>
+        <v>0.6831121182007104</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>s__Ruminococcus_E sp003526955</t>
+          <t>s__Ruminococcus_E sp003438075</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS279_8.fasta</t>
+          <t>label_UMGS279_7.fasta</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.05437048515485635</v>
+        <v>0.2042505051576488</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0630796030444328</v>
+        <v>0.08497333547048141</v>
       </c>
       <c r="D43" t="n">
-        <v>0.5200153903845822</v>
+        <v>0.1641089476412323</v>
       </c>
       <c r="E43" t="n">
-        <v>0.3624870260963819</v>
+        <v>0.5466664568050338</v>
       </c>
       <c r="F43" t="n">
-        <v>3.389128430207481e-14</v>
+        <v>3.402477459340971e-14</v>
       </c>
       <c r="G43" t="n">
-        <v>4.749531971302993e-05</v>
+        <v>7.549255696149718e-07</v>
       </c>
       <c r="H43" t="n">
-        <v>0.5200153903845822</v>
+        <v>0.5466664568050338</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>s__Ruminococcus_E sp003438075</t>
+          <t>s__Ruminococcus_E sp003526955</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS279_16.fasta</t>
+          <t>label_UMGS279_1.fasta</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.09808645796027561</v>
+        <v>0.01013376619323501</v>
       </c>
       <c r="C44" t="n">
-        <v>0.05758193237278867</v>
+        <v>0.08933561327037588</v>
       </c>
       <c r="D44" t="n">
-        <v>0.6168458554116075</v>
+        <v>0.8181616567037694</v>
       </c>
       <c r="E44" t="n">
-        <v>0.2274857459436662</v>
+        <v>0.08236896376095999</v>
       </c>
       <c r="F44" t="n">
-        <v>2.304438961306574e-14</v>
+        <v>4.000439839914942e-14</v>
       </c>
       <c r="G44" t="n">
-        <v>8.311638917252972e-09</v>
+        <v>7.161987193360393e-11</v>
       </c>
       <c r="H44" t="n">
-        <v>0.6168458554116075</v>
+        <v>0.8181616567037694</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
@@ -4953,29 +4458,29 @@
     <row r="45">
       <c r="A45" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS279_19.fasta</t>
+          <t>label_UMGS279_27.fasta</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.1304692407936895</v>
+        <v>0.1499543270144006</v>
       </c>
       <c r="C45" t="n">
-        <v>0.05515606886952727</v>
+        <v>0.06167323329791592</v>
       </c>
       <c r="D45" t="n">
-        <v>0.520545837072796</v>
+        <v>0.6137365470436417</v>
       </c>
       <c r="E45" t="n">
-        <v>0.293828846742802</v>
+        <v>0.1746358926289214</v>
       </c>
       <c r="F45" t="n">
-        <v>2.225853519478082e-14</v>
+        <v>2.50841447666075e-14</v>
       </c>
       <c r="G45" t="n">
-        <v>6.521163032400103e-09</v>
+        <v>1.509542848463965e-11</v>
       </c>
       <c r="H45" t="n">
-        <v>0.520545837072796</v>
+        <v>0.6137365470436417</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
@@ -4986,62 +4491,62 @@
     <row r="46">
       <c r="A46" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS279_22.fasta</t>
+          <t>label_UMGS279_30.fasta</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.2677644809902456</v>
+        <v>0.1091309437446276</v>
       </c>
       <c r="C46" t="n">
-        <v>0.05498805153780967</v>
+        <v>0.07426744312681642</v>
       </c>
       <c r="D46" t="n">
-        <v>0.1628215721640474</v>
+        <v>0.6715319573743612</v>
       </c>
       <c r="E46" t="n">
-        <v>0.5144258102607333</v>
+        <v>0.1450688840044023</v>
       </c>
       <c r="F46" t="n">
-        <v>2.22426428030027e-14</v>
+        <v>3.182984481695996e-14</v>
       </c>
       <c r="G46" t="n">
-        <v>8.50471416883265e-08</v>
+        <v>7.717497604864333e-07</v>
       </c>
       <c r="H46" t="n">
-        <v>0.5144258102607333</v>
+        <v>0.6715319573743612</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>s__Ruminococcus_E sp003526955</t>
+          <t>s__Ruminococcus_E sp003438075</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS279_23.fasta</t>
+          <t>label_UMGS279_43.fasta</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.06636184778830914</v>
+        <v>0.01184332992459065</v>
       </c>
       <c r="C47" t="n">
-        <v>0.04332635663727238</v>
+        <v>0.1632700132393511</v>
       </c>
       <c r="D47" t="n">
-        <v>0.7172406812544408</v>
+        <v>0.5071489017098753</v>
       </c>
       <c r="E47" t="n">
-        <v>0.1730708062820582</v>
+        <v>0.3177377537114116</v>
       </c>
       <c r="F47" t="n">
-        <v>2.232552508063382e-14</v>
+        <v>8.455030354430522e-14</v>
       </c>
       <c r="G47" t="n">
-        <v>3.080378970901337e-07</v>
+        <v>1.414686823910544e-09</v>
       </c>
       <c r="H47" t="n">
-        <v>0.7172406812544408</v>
+        <v>0.5071489017098753</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
@@ -5052,29 +4557,29 @@
     <row r="48">
       <c r="A48" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS279_3.fasta</t>
+          <t>label_UMGS279_45.fasta</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.00730906477486613</v>
+        <v>0.02152548465232346</v>
       </c>
       <c r="C48" t="n">
-        <v>0.08446938242277367</v>
+        <v>0.1209263341195759</v>
       </c>
       <c r="D48" t="n">
-        <v>0.5564102232638991</v>
+        <v>0.8026801204166</v>
       </c>
       <c r="E48" t="n">
-        <v>0.351811276887578</v>
+        <v>0.05486805978722666</v>
       </c>
       <c r="F48" t="n">
-        <v>3.407390118190284e-14</v>
+        <v>5.827381084806042e-14</v>
       </c>
       <c r="G48" t="n">
-        <v>5.265084898760853e-08</v>
+        <v>1.024215893638136e-09</v>
       </c>
       <c r="H48" t="n">
-        <v>0.5564102232638991</v>
+        <v>0.8026801204166</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
@@ -5085,29 +4590,29 @@
     <row r="49">
       <c r="A49" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS279_32.fasta</t>
+          <t>label_UMGS279_50.fasta</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.1145682825652222</v>
+        <v>1.037051698910988e-05</v>
       </c>
       <c r="C49" t="n">
-        <v>0.05309973753920089</v>
+        <v>0.2031247711585547</v>
       </c>
       <c r="D49" t="n">
-        <v>0.6602904354627885</v>
+        <v>0.6573687371218507</v>
       </c>
       <c r="E49" t="n">
-        <v>0.1720409605314591</v>
+        <v>0.1394961082158407</v>
       </c>
       <c r="F49" t="n">
-        <v>2.222919647213186e-14</v>
+        <v>9.989100984704723e-14</v>
       </c>
       <c r="G49" t="n">
-        <v>5.839013070681356e-07</v>
+        <v>1.298666478572633e-08</v>
       </c>
       <c r="H49" t="n">
-        <v>0.6602904354627885</v>
+        <v>0.6573687371218507</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
@@ -5118,328 +4623,31 @@
     <row r="50">
       <c r="A50" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS279_46.fasta</t>
+          <t>label_UMGS279_9.fasta</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.000228837485261435</v>
+        <v>0.05168333572159735</v>
       </c>
       <c r="C50" t="n">
-        <v>0.2861148007494584</v>
+        <v>0.06511815829328489</v>
       </c>
       <c r="D50" t="n">
-        <v>0.4908372281398939</v>
+        <v>0.7871003639340881</v>
       </c>
       <c r="E50" t="n">
-        <v>0.1596798195832285</v>
+        <v>0.09609814205088682</v>
       </c>
       <c r="F50" t="n">
-        <v>2.791285209124462e-13</v>
+        <v>2.688651130345759e-14</v>
       </c>
       <c r="G50" t="n">
-        <v>0.06313931404187874</v>
+        <v>1.160822059014273e-13</v>
       </c>
       <c r="H50" t="n">
-        <v>0.4908372281398939</v>
+        <v>0.7871003639340881</v>
       </c>
       <c r="I50" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_E sp003438075</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS279_5.fasta</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>0.0434702855679015</v>
-      </c>
-      <c r="C51" t="n">
-        <v>0.07501811399082908</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0.6831121182007104</v>
-      </c>
-      <c r="E51" t="n">
-        <v>0.198399448698218</v>
-      </c>
-      <c r="F51" t="n">
-        <v>2.914643394327204e-14</v>
-      </c>
-      <c r="G51" t="n">
-        <v>3.354231182924542e-08</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0.6831121182007104</v>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_E sp003438075</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS279_7.fasta</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>0.2042505051576488</v>
-      </c>
-      <c r="C52" t="n">
-        <v>0.08497333547048141</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0.1641089476412323</v>
-      </c>
-      <c r="E52" t="n">
-        <v>0.5466664568050338</v>
-      </c>
-      <c r="F52" t="n">
-        <v>3.402477459340971e-14</v>
-      </c>
-      <c r="G52" t="n">
-        <v>7.549255696149718e-07</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0.5466664568050338</v>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_E sp003526955</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS279_1.fasta</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>0.01013376619323501</v>
-      </c>
-      <c r="C53" t="n">
-        <v>0.08933561327037588</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0.8181616567037694</v>
-      </c>
-      <c r="E53" t="n">
-        <v>0.08236896376095999</v>
-      </c>
-      <c r="F53" t="n">
-        <v>4.000439839914942e-14</v>
-      </c>
-      <c r="G53" t="n">
-        <v>7.161987193360393e-11</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0.8181616567037694</v>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_E sp003438075</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS279_27.fasta</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>0.1499543270144006</v>
-      </c>
-      <c r="C54" t="n">
-        <v>0.06167323329791592</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0.6137365470436417</v>
-      </c>
-      <c r="E54" t="n">
-        <v>0.1746358926289214</v>
-      </c>
-      <c r="F54" t="n">
-        <v>2.50841447666075e-14</v>
-      </c>
-      <c r="G54" t="n">
-        <v>1.509542848463965e-11</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0.6137365470436417</v>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_E sp003438075</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS279_30.fasta</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>0.1091309437446276</v>
-      </c>
-      <c r="C55" t="n">
-        <v>0.07426744312681642</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0.6715319573743612</v>
-      </c>
-      <c r="E55" t="n">
-        <v>0.1450688840044023</v>
-      </c>
-      <c r="F55" t="n">
-        <v>3.182984481695996e-14</v>
-      </c>
-      <c r="G55" t="n">
-        <v>7.717497604864333e-07</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0.6715319573743612</v>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_E sp003438075</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS279_43.fasta</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>0.01184332992459065</v>
-      </c>
-      <c r="C56" t="n">
-        <v>0.1632700132393511</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0.5071489017098753</v>
-      </c>
-      <c r="E56" t="n">
-        <v>0.3177377537114116</v>
-      </c>
-      <c r="F56" t="n">
-        <v>8.455030354430522e-14</v>
-      </c>
-      <c r="G56" t="n">
-        <v>1.414686823910544e-09</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0.5071489017098753</v>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_E sp003438075</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS279_45.fasta</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>0.02152548465232346</v>
-      </c>
-      <c r="C57" t="n">
-        <v>0.1209263341195759</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0.8026801204166</v>
-      </c>
-      <c r="E57" t="n">
-        <v>0.05486805978722666</v>
-      </c>
-      <c r="F57" t="n">
-        <v>5.827381084806042e-14</v>
-      </c>
-      <c r="G57" t="n">
-        <v>1.024215893638136e-09</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0.8026801204166</v>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_E sp003438075</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS279_50.fasta</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>1.037051698910988e-05</v>
-      </c>
-      <c r="C58" t="n">
-        <v>0.2031247711585547</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0.6573687371218507</v>
-      </c>
-      <c r="E58" t="n">
-        <v>0.1394961082158407</v>
-      </c>
-      <c r="F58" t="n">
-        <v>9.989100984704723e-14</v>
-      </c>
-      <c r="G58" t="n">
-        <v>1.298666478572633e-08</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0.6573687371218507</v>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_E sp003438075</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS279_9.fasta</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>0.05168333572159735</v>
-      </c>
-      <c r="C59" t="n">
-        <v>0.06511815829328489</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0.7871003639340881</v>
-      </c>
-      <c r="E59" t="n">
-        <v>0.09609814205088682</v>
-      </c>
-      <c r="F59" t="n">
-        <v>2.688651130345759e-14</v>
-      </c>
-      <c r="G59" t="n">
-        <v>1.160822059014273e-13</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0.7871003639340881</v>
-      </c>
-      <c r="I59" t="inlineStr">
         <is>
           <t>s__Ruminococcus_E sp003438075</t>
         </is>
@@ -5456,7 +4664,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I65"/>
+  <dimension ref="A1:I54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5844,29 +5052,29 @@
     <row r="12">
       <c r="A12" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS160_16.fasta</t>
+          <t>label_UMGS160_13.fasta</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.06243893824237676</v>
+        <v>0.07156463350958413</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0399924493022869</v>
+        <v>0.08141523524937395</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1342845591579774</v>
+        <v>0.2608173780910857</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7598411497374615</v>
+        <v>0.5861617780387673</v>
       </c>
       <c r="F12" t="n">
-        <v>2.370404970287505e-14</v>
+        <v>4.65531585536697e-14</v>
       </c>
       <c r="G12" t="n">
-        <v>0.003442903559873771</v>
+        <v>4.097511114257626e-05</v>
       </c>
       <c r="H12" t="n">
-        <v>0.7598411497374615</v>
+        <v>0.5861617780387673</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -5877,29 +5085,29 @@
     <row r="13">
       <c r="A13" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS160_27.fasta</t>
+          <t>label_UMGS160_14.fasta</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.2107607022369756</v>
+        <v>0.1615506054366845</v>
       </c>
       <c r="C13" t="n">
-        <v>0.02847144074546373</v>
+        <v>0.07347450957317285</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1700142961001381</v>
+        <v>0.1519286653256539</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5903159766861205</v>
+        <v>0.6130158662950691</v>
       </c>
       <c r="F13" t="n">
-        <v>2.235230560786774e-14</v>
+        <v>3.912253062901e-14</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0004375842312797563</v>
+        <v>3.035336938055422e-05</v>
       </c>
       <c r="H13" t="n">
-        <v>0.5903159766861205</v>
+        <v>0.6130158662950691</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -5910,29 +5118,29 @@
     <row r="14">
       <c r="A14" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS160_29.fasta</t>
+          <t>label_UMGS160_17.fasta</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.1189168852323194</v>
+        <v>0.2222684534356371</v>
       </c>
       <c r="C14" t="n">
-        <v>0.04204544688958356</v>
+        <v>0.05983721673281803</v>
       </c>
       <c r="D14" t="n">
-        <v>0.3264534017526495</v>
+        <v>0.2409122806979491</v>
       </c>
       <c r="E14" t="n">
-        <v>0.5115415530203339</v>
+        <v>0.4765461699095552</v>
       </c>
       <c r="F14" t="n">
-        <v>2.502733310696517e-14</v>
+        <v>3.111486231582203e-14</v>
       </c>
       <c r="G14" t="n">
-        <v>0.00104271310508878</v>
+        <v>0.0004358792240095528</v>
       </c>
       <c r="H14" t="n">
-        <v>0.5115415530203339</v>
+        <v>0.4765461699095552</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -5943,29 +5151,29 @@
     <row r="15">
       <c r="A15" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS160_30.fasta</t>
+          <t>label_UMGS160_23.fasta</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.3324078105978664</v>
+        <v>0.1883097496957982</v>
       </c>
       <c r="C15" t="n">
-        <v>0.04181969886204365</v>
+        <v>0.07376189145943308</v>
       </c>
       <c r="D15" t="n">
-        <v>0.2219581224895225</v>
+        <v>0.181381313098672</v>
       </c>
       <c r="E15" t="n">
-        <v>0.3912093583457057</v>
+        <v>0.5565197220664246</v>
       </c>
       <c r="F15" t="n">
-        <v>2.752046860096971e-14</v>
+        <v>3.800907297857783e-14</v>
       </c>
       <c r="G15" t="n">
-        <v>0.01260500970483423</v>
+        <v>2.732367963400404e-05</v>
       </c>
       <c r="H15" t="n">
-        <v>0.3912093583457057</v>
+        <v>0.5565197220664246</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -5976,29 +5184,29 @@
     <row r="16">
       <c r="A16" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS160_36.fasta</t>
+          <t>label_UMGS160_26.fasta</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1912261942165167</v>
+        <v>0.1233300153207107</v>
       </c>
       <c r="C16" t="n">
-        <v>0.03621001892789323</v>
+        <v>0.05297005691235967</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1939606650734589</v>
+        <v>0.2099027997106049</v>
       </c>
       <c r="E16" t="n">
-        <v>0.5774488760373009</v>
+        <v>0.6137812225020624</v>
       </c>
       <c r="F16" t="n">
-        <v>2.228946670452248e-14</v>
+        <v>3.060274866652971e-14</v>
       </c>
       <c r="G16" t="n">
-        <v>0.001154245744807945</v>
+        <v>1.590555423197779e-05</v>
       </c>
       <c r="H16" t="n">
-        <v>0.5774488760373009</v>
+        <v>0.6137812225020624</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -6009,29 +5217,29 @@
     <row r="17">
       <c r="A17" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS160_37.fasta</t>
+          <t>label_UMGS160_28.fasta</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.1890439119629965</v>
+        <v>0.286942703238412</v>
       </c>
       <c r="C17" t="n">
-        <v>0.03716668152746499</v>
+        <v>0.04173200046857425</v>
       </c>
       <c r="D17" t="n">
-        <v>0.3317761055854652</v>
+        <v>0.1947118376380672</v>
       </c>
       <c r="E17" t="n">
-        <v>0.440257558485581</v>
+        <v>0.4763361038267416</v>
       </c>
       <c r="F17" t="n">
-        <v>2.300430555114305e-14</v>
+        <v>3.329149227332329e-14</v>
       </c>
       <c r="G17" t="n">
-        <v>0.001755742438469174</v>
+        <v>0.0002773548281718877</v>
       </c>
       <c r="H17" t="n">
-        <v>0.440257558485581</v>
+        <v>0.4763361038267416</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -6042,62 +5250,62 @@
     <row r="18">
       <c r="A18" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS160_40.fasta</t>
+          <t>label_UMGS160_3.fasta</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.483041259865993</v>
+        <v>0.05214631190838333</v>
       </c>
       <c r="C18" t="n">
-        <v>0.03677427042592778</v>
+        <v>0.1000763827524055</v>
       </c>
       <c r="D18" t="n">
-        <v>0.08661144611272756</v>
+        <v>0.1326311547332789</v>
       </c>
       <c r="E18" t="n">
-        <v>0.3906154259586896</v>
+        <v>0.715127163823471</v>
       </c>
       <c r="F18" t="n">
-        <v>2.30059219659123e-14</v>
+        <v>4.82247193384169e-14</v>
       </c>
       <c r="G18" t="n">
-        <v>0.002957597636639215</v>
+        <v>1.89867824131203e-05</v>
       </c>
       <c r="H18" t="n">
-        <v>0.483041259865993</v>
+        <v>0.715127163823471</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>s__Ruminococcus_E bromii</t>
+          <t>s__Ruminococcus_E sp003526955</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS160_44.fasta</t>
+          <t>label_UMGS160_33.fasta</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.1139582220297563</v>
+        <v>0.2180097037781544</v>
       </c>
       <c r="C19" t="n">
-        <v>0.04839072983638562</v>
+        <v>0.04004150635956599</v>
       </c>
       <c r="D19" t="n">
-        <v>0.3193643763626299</v>
+        <v>0.2992904025323072</v>
       </c>
       <c r="E19" t="n">
-        <v>0.5156737567606846</v>
+        <v>0.4426491754486988</v>
       </c>
       <c r="F19" t="n">
-        <v>3.284939194535986e-14</v>
+        <v>2.311834800201003e-14</v>
       </c>
       <c r="G19" t="n">
-        <v>0.002612915010510643</v>
+        <v>9.211881250499168e-06</v>
       </c>
       <c r="H19" t="n">
-        <v>0.5156737567606846</v>
+        <v>0.4426491754486988</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -6108,29 +5316,29 @@
     <row r="20">
       <c r="A20" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS160_49.fasta</t>
+          <t>label_UMGS160_38.fasta</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.03433927423555325</v>
+        <v>0.1646019854429391</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1833550801621603</v>
+        <v>0.07419518881054875</v>
       </c>
       <c r="D20" t="n">
-        <v>0.1769138099382387</v>
+        <v>0.2641063452931095</v>
       </c>
       <c r="E20" t="n">
-        <v>0.5848207024287118</v>
+        <v>0.4969076728808391</v>
       </c>
       <c r="F20" t="n">
-        <v>1.723002286836165e-13</v>
+        <v>5.108907951706836e-14</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02057113323516368</v>
+        <v>0.0001888075725125289</v>
       </c>
       <c r="H20" t="n">
-        <v>0.5848207024287118</v>
+        <v>0.4969076728808391</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -6141,62 +5349,62 @@
     <row r="21">
       <c r="A21" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS160_50.fasta</t>
+          <t>label_UMGS160_41.fasta</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.002922552201428805</v>
+        <v>0.1982701792732363</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0600458089014117</v>
+        <v>0.06030539292906651</v>
       </c>
       <c r="D21" t="n">
-        <v>0.8265009466671102</v>
+        <v>0.2908898942508564</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1036941032417022</v>
+        <v>0.4504478050671796</v>
       </c>
       <c r="F21" t="n">
-        <v>3.643770105636631e-14</v>
+        <v>3.408124890394686e-14</v>
       </c>
       <c r="G21" t="n">
-        <v>0.006836588988310737</v>
+        <v>8.672847962722453e-05</v>
       </c>
       <c r="H21" t="n">
-        <v>0.8265009466671102</v>
+        <v>0.4504478050671796</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>s__Ruminococcus_E sp003438075</t>
+          <t>s__Ruminococcus_E sp003526955</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS160_8.fasta</t>
+          <t>label_UMGS160_42.fasta</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.07767695047117723</v>
+        <v>0.01344288843685156</v>
       </c>
       <c r="C22" t="n">
-        <v>0.05474593013272156</v>
+        <v>0.1558693219481807</v>
       </c>
       <c r="D22" t="n">
-        <v>0.308952633738031</v>
+        <v>0.3954453340009848</v>
       </c>
       <c r="E22" t="n">
-        <v>0.5572144070241674</v>
+        <v>0.4351380744502719</v>
       </c>
       <c r="F22" t="n">
-        <v>3.223888682455662e-14</v>
+        <v>9.564016596313098e-14</v>
       </c>
       <c r="G22" t="n">
-        <v>0.00141007863387062</v>
+        <v>0.0001043811636153298</v>
       </c>
       <c r="H22" t="n">
-        <v>0.5572144070241674</v>
+        <v>0.4351380744502719</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -6207,62 +5415,62 @@
     <row r="23">
       <c r="A23" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS160_13.fasta</t>
+          <t>label_UMGS160_43.fasta</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.07156463350958413</v>
+        <v>0.08113657066689696</v>
       </c>
       <c r="C23" t="n">
-        <v>0.08141523524937395</v>
+        <v>0.08124473387104243</v>
       </c>
       <c r="D23" t="n">
-        <v>0.2608173780910857</v>
+        <v>0.4206794704433472</v>
       </c>
       <c r="E23" t="n">
-        <v>0.5861617780387673</v>
+        <v>0.4158576231270357</v>
       </c>
       <c r="F23" t="n">
-        <v>4.65531585536697e-14</v>
+        <v>4.491072379945622e-14</v>
       </c>
       <c r="G23" t="n">
-        <v>4.097511114257626e-05</v>
+        <v>0.001081601891632691</v>
       </c>
       <c r="H23" t="n">
-        <v>0.5861617780387673</v>
+        <v>0.4206794704433472</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>s__Ruminococcus_E sp003526955</t>
+          <t>s__Ruminococcus_E sp003438075</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS160_14.fasta</t>
+          <t>label_UMGS160_48.fasta</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.1615506054366845</v>
+        <v>0.002207717207250584</v>
       </c>
       <c r="C24" t="n">
-        <v>0.07347450957317285</v>
+        <v>0.1638266586156319</v>
       </c>
       <c r="D24" t="n">
-        <v>0.1519286653256539</v>
+        <v>0.3980744123729328</v>
       </c>
       <c r="E24" t="n">
-        <v>0.6130158662950691</v>
+        <v>0.4357252030223185</v>
       </c>
       <c r="F24" t="n">
-        <v>3.912253062901e-14</v>
+        <v>4.797201848339976e-14</v>
       </c>
       <c r="G24" t="n">
-        <v>3.035336938055422e-05</v>
+        <v>0.0001660087818183269</v>
       </c>
       <c r="H24" t="n">
-        <v>0.6130158662950691</v>
+        <v>0.4357252030223185</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
@@ -6273,62 +5481,62 @@
     <row r="25">
       <c r="A25" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS160_17.fasta</t>
+          <t>label_UMGS160_52.fasta</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.2222684534356371</v>
+        <v>2.099309414499829e-07</v>
       </c>
       <c r="C25" t="n">
-        <v>0.05983721673281803</v>
+        <v>0.2729991861831111</v>
       </c>
       <c r="D25" t="n">
-        <v>0.2409122806979491</v>
+        <v>0.5543123494275802</v>
       </c>
       <c r="E25" t="n">
-        <v>0.4765461699095552</v>
+        <v>0.1268030908526885</v>
       </c>
       <c r="F25" t="n">
-        <v>3.111486231582203e-14</v>
+        <v>4.658832574206498e-14</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0004358792240095528</v>
+        <v>0.04588516360563197</v>
       </c>
       <c r="H25" t="n">
-        <v>0.4765461699095552</v>
+        <v>0.5543123494275802</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>s__Ruminococcus_E sp003526955</t>
+          <t>s__Ruminococcus_E sp003438075</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS160_23.fasta</t>
+          <t>label_UMGS160_7.fasta</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.1883097496957982</v>
+        <v>0.1055414182527062</v>
       </c>
       <c r="C26" t="n">
-        <v>0.07376189145943308</v>
+        <v>0.08662234232359739</v>
       </c>
       <c r="D26" t="n">
-        <v>0.181381313098672</v>
+        <v>0.110218513780978</v>
       </c>
       <c r="E26" t="n">
-        <v>0.5565197220664246</v>
+        <v>0.6975084830514817</v>
       </c>
       <c r="F26" t="n">
-        <v>3.800907297857783e-14</v>
+        <v>3.956815770812974e-14</v>
       </c>
       <c r="G26" t="n">
-        <v>2.732367963400404e-05</v>
+        <v>0.0001092425911972733</v>
       </c>
       <c r="H26" t="n">
-        <v>0.5565197220664246</v>
+        <v>0.6975084830514817</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
@@ -6339,29 +5547,29 @@
     <row r="27">
       <c r="A27" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS160_26.fasta</t>
+          <t>label_UMGS160_0.fasta</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.1233300153207107</v>
+        <v>0.02340709163000558</v>
       </c>
       <c r="C27" t="n">
-        <v>0.05297005691235967</v>
+        <v>0.08582361699073673</v>
       </c>
       <c r="D27" t="n">
-        <v>0.2099027997106049</v>
+        <v>0.2027149524160934</v>
       </c>
       <c r="E27" t="n">
-        <v>0.6137812225020624</v>
+        <v>0.6880271514189487</v>
       </c>
       <c r="F27" t="n">
-        <v>3.060274866652971e-14</v>
+        <v>5.003433438318469e-14</v>
       </c>
       <c r="G27" t="n">
-        <v>1.590555423197779e-05</v>
+        <v>2.718754416550714e-05</v>
       </c>
       <c r="H27" t="n">
-        <v>0.6137812225020624</v>
+        <v>0.6880271514189487</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
@@ -6372,62 +5580,62 @@
     <row r="28">
       <c r="A28" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS160_28.fasta</t>
+          <t>label_UMGS160_18.fasta</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.286942703238412</v>
+        <v>0.5526709975250014</v>
       </c>
       <c r="C28" t="n">
-        <v>0.04173200046857425</v>
+        <v>0.04531773375584447</v>
       </c>
       <c r="D28" t="n">
-        <v>0.1947118376380672</v>
+        <v>0.1573109802854768</v>
       </c>
       <c r="E28" t="n">
-        <v>0.4763361038267416</v>
+        <v>0.2446902372727529</v>
       </c>
       <c r="F28" t="n">
-        <v>3.329149227332329e-14</v>
+        <v>2.222195834109937e-14</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0002773548281718877</v>
+        <v>1.005116090222384e-05</v>
       </c>
       <c r="H28" t="n">
-        <v>0.4763361038267416</v>
+        <v>0.5526709975250014</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>s__Ruminococcus_E sp003526955</t>
+          <t>s__Ruminococcus_E bromii</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS160_3.fasta</t>
+          <t>label_UMGS160_25.fasta</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.05214631190838333</v>
+        <v>0.2192043079479304</v>
       </c>
       <c r="C29" t="n">
-        <v>0.1000763827524055</v>
+        <v>0.06263201652361984</v>
       </c>
       <c r="D29" t="n">
-        <v>0.1326311547332789</v>
+        <v>0.2716260054958581</v>
       </c>
       <c r="E29" t="n">
-        <v>0.715127163823471</v>
+        <v>0.4465266152920694</v>
       </c>
       <c r="F29" t="n">
-        <v>4.82247193384169e-14</v>
+        <v>3.573129682835541e-14</v>
       </c>
       <c r="G29" t="n">
-        <v>1.89867824131203e-05</v>
+        <v>1.105474048656937e-05</v>
       </c>
       <c r="H29" t="n">
-        <v>0.715127163823471</v>
+        <v>0.4465266152920694</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
@@ -6438,29 +5646,29 @@
     <row r="30">
       <c r="A30" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS160_33.fasta</t>
+          <t>label_UMGS160_31.fasta</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.2180097037781544</v>
+        <v>0.2139573775457083</v>
       </c>
       <c r="C30" t="n">
-        <v>0.04004150635956599</v>
+        <v>0.04928983229213302</v>
       </c>
       <c r="D30" t="n">
-        <v>0.2992904025323072</v>
+        <v>0.1883771053590129</v>
       </c>
       <c r="E30" t="n">
-        <v>0.4426491754486988</v>
+        <v>0.5483751520108</v>
       </c>
       <c r="F30" t="n">
-        <v>2.311834800201003e-14</v>
+        <v>2.77007431965724e-14</v>
       </c>
       <c r="G30" t="n">
-        <v>9.211881250499168e-06</v>
+        <v>5.327923178690604e-07</v>
       </c>
       <c r="H30" t="n">
-        <v>0.4426491754486988</v>
+        <v>0.5483751520108</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
@@ -6471,29 +5679,29 @@
     <row r="31">
       <c r="A31" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS160_38.fasta</t>
+          <t>label_UMGS160_32.fasta</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.1646019854429391</v>
+        <v>0.2205550568442253</v>
       </c>
       <c r="C31" t="n">
-        <v>0.07419518881054875</v>
+        <v>0.06224633025577817</v>
       </c>
       <c r="D31" t="n">
-        <v>0.2641063452931095</v>
+        <v>0.1335200962166813</v>
       </c>
       <c r="E31" t="n">
-        <v>0.4969076728808391</v>
+        <v>0.5836724618705762</v>
       </c>
       <c r="F31" t="n">
-        <v>5.108907951706836e-14</v>
+        <v>3.195921697849661e-14</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0001888075725125289</v>
+        <v>6.054812707254552e-06</v>
       </c>
       <c r="H31" t="n">
-        <v>0.4969076728808391</v>
+        <v>0.5836724618705762</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
@@ -6504,29 +5712,29 @@
     <row r="32">
       <c r="A32" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS160_41.fasta</t>
+          <t>label_UMGS160_35.fasta</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.1982701792732363</v>
+        <v>0.1739370372268444</v>
       </c>
       <c r="C32" t="n">
-        <v>0.06030539292906651</v>
+        <v>0.07427081915919882</v>
       </c>
       <c r="D32" t="n">
-        <v>0.2908898942508564</v>
+        <v>0.2621855234725777</v>
       </c>
       <c r="E32" t="n">
-        <v>0.4504478050671796</v>
+        <v>0.4895087437325013</v>
       </c>
       <c r="F32" t="n">
-        <v>3.408124890394686e-14</v>
+        <v>3.804758409019924e-14</v>
       </c>
       <c r="G32" t="n">
-        <v>8.672847962722453e-05</v>
+        <v>9.787640883955502e-05</v>
       </c>
       <c r="H32" t="n">
-        <v>0.4504478050671796</v>
+        <v>0.4895087437325013</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
@@ -6537,29 +5745,29 @@
     <row r="33">
       <c r="A33" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS160_42.fasta</t>
+          <t>label_UMGS160_4.fasta</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.01344288843685156</v>
+        <v>0.03991599456136851</v>
       </c>
       <c r="C33" t="n">
-        <v>0.1558693219481807</v>
+        <v>0.1038218331944893</v>
       </c>
       <c r="D33" t="n">
-        <v>0.3954453340009848</v>
+        <v>0.2790610849945054</v>
       </c>
       <c r="E33" t="n">
-        <v>0.4351380744502719</v>
+        <v>0.5770887195813491</v>
       </c>
       <c r="F33" t="n">
-        <v>9.564016596313098e-14</v>
+        <v>6.595365322704657e-14</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0001043811636153298</v>
+        <v>0.0001123676682219693</v>
       </c>
       <c r="H33" t="n">
-        <v>0.4351380744502719</v>
+        <v>0.5770887195813491</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
@@ -6570,62 +5778,62 @@
     <row r="34">
       <c r="A34" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS160_43.fasta</t>
+          <t>label_UMGS160_5.fasta</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.08113657066689696</v>
+        <v>0.03332377522534147</v>
       </c>
       <c r="C34" t="n">
-        <v>0.08124473387104243</v>
+        <v>0.08745467469448885</v>
       </c>
       <c r="D34" t="n">
-        <v>0.4206794704433472</v>
+        <v>0.2664923360488734</v>
       </c>
       <c r="E34" t="n">
-        <v>0.4158576231270357</v>
+        <v>0.6126717809176279</v>
       </c>
       <c r="F34" t="n">
-        <v>4.491072379945622e-14</v>
+        <v>4.970341555195536e-14</v>
       </c>
       <c r="G34" t="n">
-        <v>0.001081601891632691</v>
+        <v>5.74331136186915e-05</v>
       </c>
       <c r="H34" t="n">
-        <v>0.4206794704433472</v>
+        <v>0.6126717809176279</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>s__Ruminococcus_E sp003438075</t>
+          <t>s__Ruminococcus_E sp003526955</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS160_48.fasta</t>
+          <t>label_UMGS160_9.fasta</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.002207717207250584</v>
+        <v>0.3227130584639411</v>
       </c>
       <c r="C35" t="n">
-        <v>0.1638266586156319</v>
+        <v>0.06207663325813078</v>
       </c>
       <c r="D35" t="n">
-        <v>0.3980744123729328</v>
+        <v>0.1335280509933113</v>
       </c>
       <c r="E35" t="n">
-        <v>0.4357252030223185</v>
+        <v>0.4812827588533594</v>
       </c>
       <c r="F35" t="n">
-        <v>4.797201848339976e-14</v>
+        <v>2.99651192726063e-14</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0001660087818183269</v>
+        <v>0.0003994984312274993</v>
       </c>
       <c r="H35" t="n">
-        <v>0.4357252030223185</v>
+        <v>0.4812827588533594</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
@@ -6636,62 +5844,62 @@
     <row r="36">
       <c r="A36" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS160_52.fasta</t>
+          <t>label_UMGS160_10.fasta</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>2.099309414499829e-07</v>
+        <v>0.1612926274820955</v>
       </c>
       <c r="C36" t="n">
-        <v>0.2729991861831111</v>
+        <v>0.103773495785218</v>
       </c>
       <c r="D36" t="n">
-        <v>0.5543123494275802</v>
+        <v>0.2415308965250199</v>
       </c>
       <c r="E36" t="n">
-        <v>0.1268030908526885</v>
+        <v>0.4934027881888875</v>
       </c>
       <c r="F36" t="n">
-        <v>4.658832574206498e-14</v>
+        <v>4.098420760409991e-14</v>
       </c>
       <c r="G36" t="n">
-        <v>0.04588516360563197</v>
+        <v>1.920187382111873e-07</v>
       </c>
       <c r="H36" t="n">
-        <v>0.5543123494275802</v>
+        <v>0.4934027881888875</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>s__Ruminococcus_E sp003438075</t>
+          <t>s__Ruminococcus_E sp003526955</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS160_7.fasta</t>
+          <t>label_UMGS160_2.fasta</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.1055414182527062</v>
+        <v>0.04023579716099185</v>
       </c>
       <c r="C37" t="n">
-        <v>0.08662234232359739</v>
+        <v>0.1554909997532275</v>
       </c>
       <c r="D37" t="n">
-        <v>0.110218513780978</v>
+        <v>0.1835302907431131</v>
       </c>
       <c r="E37" t="n">
-        <v>0.6975084830514817</v>
+        <v>0.6207420368585486</v>
       </c>
       <c r="F37" t="n">
-        <v>3.956815770812974e-14</v>
+        <v>6.409333524090717e-14</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0001092425911972733</v>
+        <v>8.754840549440843e-07</v>
       </c>
       <c r="H37" t="n">
-        <v>0.6975084830514817</v>
+        <v>0.6207420368585486</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
@@ -6702,29 +5910,29 @@
     <row r="38">
       <c r="A38" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS160_0.fasta</t>
+          <t>label_UMGS160_20.fasta</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.02340709163000558</v>
+        <v>0.1977229035382695</v>
       </c>
       <c r="C38" t="n">
-        <v>0.08582361699073673</v>
+        <v>0.05719847653981836</v>
       </c>
       <c r="D38" t="n">
-        <v>0.2027149524160934</v>
+        <v>0.1012886395080482</v>
       </c>
       <c r="E38" t="n">
-        <v>0.6880271514189487</v>
+        <v>0.6437897853638758</v>
       </c>
       <c r="F38" t="n">
-        <v>5.003433438318469e-14</v>
+        <v>2.227342341380303e-14</v>
       </c>
       <c r="G38" t="n">
-        <v>2.718754416550714e-05</v>
+        <v>1.950499660214165e-07</v>
       </c>
       <c r="H38" t="n">
-        <v>0.6880271514189487</v>
+        <v>0.6437897853638758</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
@@ -6735,62 +5943,62 @@
     <row r="39">
       <c r="A39" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS160_18.fasta</t>
+          <t>label_UMGS160_22.fasta</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.5526709975250014</v>
+        <v>0.1474620651017355</v>
       </c>
       <c r="C39" t="n">
-        <v>0.04531773375584447</v>
+        <v>0.08954497267603977</v>
       </c>
       <c r="D39" t="n">
-        <v>0.1573109802854768</v>
+        <v>0.3119657588161681</v>
       </c>
       <c r="E39" t="n">
-        <v>0.2446902372727529</v>
+        <v>0.4510264106090629</v>
       </c>
       <c r="F39" t="n">
-        <v>2.222195834109937e-14</v>
+        <v>3.758001172911091e-14</v>
       </c>
       <c r="G39" t="n">
-        <v>1.005116090222384e-05</v>
+        <v>7.927969560466848e-07</v>
       </c>
       <c r="H39" t="n">
-        <v>0.5526709975250014</v>
+        <v>0.4510264106090629</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>s__Ruminococcus_E bromii</t>
+          <t>s__Ruminococcus_E sp003526955</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS160_25.fasta</t>
+          <t>label_UMGS160_34.fasta</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.2192043079479304</v>
+        <v>0.23178227184722</v>
       </c>
       <c r="C40" t="n">
-        <v>0.06263201652361984</v>
+        <v>0.04914022994339406</v>
       </c>
       <c r="D40" t="n">
-        <v>0.2716260054958581</v>
+        <v>0.1721408840208094</v>
       </c>
       <c r="E40" t="n">
-        <v>0.4465266152920694</v>
+        <v>0.5469365552066272</v>
       </c>
       <c r="F40" t="n">
-        <v>3.573129682835541e-14</v>
+        <v>2.234144739689401e-14</v>
       </c>
       <c r="G40" t="n">
-        <v>1.105474048656937e-05</v>
+        <v>5.8981927046694e-08</v>
       </c>
       <c r="H40" t="n">
-        <v>0.4465266152920694</v>
+        <v>0.5469365552066272</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
@@ -6801,29 +6009,29 @@
     <row r="41">
       <c r="A41" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS160_31.fasta</t>
+          <t>label_UMGS160_46.fasta</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.2139573775457083</v>
+        <v>0.004258297155633889</v>
       </c>
       <c r="C41" t="n">
-        <v>0.04928983229213302</v>
+        <v>0.1833428670478903</v>
       </c>
       <c r="D41" t="n">
-        <v>0.1883771053590129</v>
+        <v>0.3847771392674071</v>
       </c>
       <c r="E41" t="n">
-        <v>0.5483751520108</v>
+        <v>0.4276204091694786</v>
       </c>
       <c r="F41" t="n">
-        <v>2.77007431965724e-14</v>
+        <v>7.57036773126374e-14</v>
       </c>
       <c r="G41" t="n">
-        <v>5.327923178690604e-07</v>
+        <v>1.287359514505336e-06</v>
       </c>
       <c r="H41" t="n">
-        <v>0.5483751520108</v>
+        <v>0.4276204091694786</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
@@ -6834,95 +6042,95 @@
     <row r="42">
       <c r="A42" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS160_32.fasta</t>
+          <t>label_UMGS160_47.fasta</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.2205550568442253</v>
+        <v>0.02295694787035209</v>
       </c>
       <c r="C42" t="n">
-        <v>0.06224633025577817</v>
+        <v>0.1501301753938417</v>
       </c>
       <c r="D42" t="n">
-        <v>0.1335200962166813</v>
+        <v>0.5563601916241957</v>
       </c>
       <c r="E42" t="n">
-        <v>0.5836724618705762</v>
+        <v>0.2705472808093209</v>
       </c>
       <c r="F42" t="n">
-        <v>3.195921697849661e-14</v>
+        <v>7.259760714056156e-14</v>
       </c>
       <c r="G42" t="n">
-        <v>6.054812707254552e-06</v>
+        <v>5.404302217135083e-06</v>
       </c>
       <c r="H42" t="n">
-        <v>0.5836724618705762</v>
+        <v>0.5563601916241957</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>s__Ruminococcus_E sp003526955</t>
+          <t>s__Ruminococcus_E sp003438075</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS160_35.fasta</t>
+          <t>label_UMGS160_51.fasta</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.1739370372268444</v>
+        <v>5.894000380840672e-06</v>
       </c>
       <c r="C43" t="n">
-        <v>0.07427081915919882</v>
+        <v>0.2125927692976025</v>
       </c>
       <c r="D43" t="n">
-        <v>0.2621855234725777</v>
+        <v>0.6502120657718381</v>
       </c>
       <c r="E43" t="n">
-        <v>0.4895087437325013</v>
+        <v>0.1370745652349908</v>
       </c>
       <c r="F43" t="n">
-        <v>3.804758409019924e-14</v>
+        <v>9.131406636603545e-14</v>
       </c>
       <c r="G43" t="n">
-        <v>9.787640883955502e-05</v>
+        <v>0.000114705695096376</v>
       </c>
       <c r="H43" t="n">
-        <v>0.4895087437325013</v>
+        <v>0.6502120657718381</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>s__Ruminococcus_E sp003526955</t>
+          <t>s__Ruminococcus_E sp003438075</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS160_4.fasta</t>
+          <t>label_UMGS160_6.fasta</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.03991599456136851</v>
+        <v>0.06147850280242197</v>
       </c>
       <c r="C44" t="n">
-        <v>0.1038218331944893</v>
+        <v>0.1065558423989363</v>
       </c>
       <c r="D44" t="n">
-        <v>0.2790610849945054</v>
+        <v>0.2564604161950615</v>
       </c>
       <c r="E44" t="n">
-        <v>0.5770887195813491</v>
+        <v>0.5754966990155577</v>
       </c>
       <c r="F44" t="n">
-        <v>6.595365322704657e-14</v>
+        <v>3.78781280166088e-14</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0001123676682219693</v>
+        <v>8.539587984802083e-06</v>
       </c>
       <c r="H44" t="n">
-        <v>0.5770887195813491</v>
+        <v>0.5754966990155577</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
@@ -6933,62 +6141,62 @@
     <row r="45">
       <c r="A45" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS160_5.fasta</t>
+          <t>label_UMGS160_1.fasta</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.03332377522534147</v>
+        <v>0.0755877964412499</v>
       </c>
       <c r="C45" t="n">
-        <v>0.08745467469448885</v>
+        <v>0.1008980734393685</v>
       </c>
       <c r="D45" t="n">
-        <v>0.2664923360488734</v>
+        <v>0.4799544044694273</v>
       </c>
       <c r="E45" t="n">
-        <v>0.6126717809176279</v>
+        <v>0.3435597256498674</v>
       </c>
       <c r="F45" t="n">
-        <v>4.970341555195536e-14</v>
+        <v>4.347988946389984e-14</v>
       </c>
       <c r="G45" t="n">
-        <v>5.74331136186915e-05</v>
+        <v>4.347988946390155e-14</v>
       </c>
       <c r="H45" t="n">
-        <v>0.6126717809176279</v>
+        <v>0.4799544044694273</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>s__Ruminococcus_E sp003526955</t>
+          <t>s__Ruminococcus_E sp003438075</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS160_9.fasta</t>
+          <t>label_UMGS160_11.fasta</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.3227130584639411</v>
+        <v>0.06167512497048088</v>
       </c>
       <c r="C46" t="n">
-        <v>0.06207663325813078</v>
+        <v>0.05958158443644718</v>
       </c>
       <c r="D46" t="n">
-        <v>0.1335280509933113</v>
+        <v>0.262192658802</v>
       </c>
       <c r="E46" t="n">
-        <v>0.4812827588533594</v>
+        <v>0.6165506317904557</v>
       </c>
       <c r="F46" t="n">
-        <v>2.99651192726063e-14</v>
+        <v>2.383399046765027e-14</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0003994984312274993</v>
+        <v>5.922147116059252e-13</v>
       </c>
       <c r="H46" t="n">
-        <v>0.4812827588533594</v>
+        <v>0.6165506317904557</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
@@ -6999,29 +6207,29 @@
     <row r="47">
       <c r="A47" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS160_10.fasta</t>
+          <t>label_UMGS160_12.fasta</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.1612926274820955</v>
+        <v>0.06746772761346262</v>
       </c>
       <c r="C47" t="n">
-        <v>0.103773495785218</v>
+        <v>0.05937742452699583</v>
       </c>
       <c r="D47" t="n">
-        <v>0.2415308965250199</v>
+        <v>0.4048167928744923</v>
       </c>
       <c r="E47" t="n">
-        <v>0.4934027881888875</v>
+        <v>0.4683380549850014</v>
       </c>
       <c r="F47" t="n">
-        <v>4.098420760409991e-14</v>
+        <v>2.390115374100976e-14</v>
       </c>
       <c r="G47" t="n">
-        <v>1.920187382111873e-07</v>
+        <v>2.390115374101002e-14</v>
       </c>
       <c r="H47" t="n">
-        <v>0.4934027881888875</v>
+        <v>0.4683380549850014</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
@@ -7032,29 +6240,29 @@
     <row r="48">
       <c r="A48" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS160_2.fasta</t>
+          <t>label_UMGS160_15.fasta</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.04023579716099185</v>
+        <v>0.07038204153548827</v>
       </c>
       <c r="C48" t="n">
-        <v>0.1554909997532275</v>
+        <v>0.05144054130536384</v>
       </c>
       <c r="D48" t="n">
-        <v>0.1835302907431131</v>
+        <v>0.1077213553717261</v>
       </c>
       <c r="E48" t="n">
-        <v>0.6207420368585486</v>
+        <v>0.7704560617118977</v>
       </c>
       <c r="F48" t="n">
-        <v>6.409333524090717e-14</v>
+        <v>2.2241722534049e-14</v>
       </c>
       <c r="G48" t="n">
-        <v>8.754840549440843e-07</v>
+        <v>7.550183658113828e-11</v>
       </c>
       <c r="H48" t="n">
-        <v>0.6207420368585486</v>
+        <v>0.7704560617118977</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
@@ -7065,29 +6273,29 @@
     <row r="49">
       <c r="A49" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS160_20.fasta</t>
+          <t>label_UMGS160_19.fasta</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.1977229035382695</v>
+        <v>0.08834759835542064</v>
       </c>
       <c r="C49" t="n">
-        <v>0.05719847653981836</v>
+        <v>0.03896992484410657</v>
       </c>
       <c r="D49" t="n">
-        <v>0.1012886395080482</v>
+        <v>0.1144092661288316</v>
       </c>
       <c r="E49" t="n">
-        <v>0.6437897853638758</v>
+        <v>0.7582732106715965</v>
       </c>
       <c r="F49" t="n">
-        <v>2.227342341380303e-14</v>
+        <v>2.238368271064545e-14</v>
       </c>
       <c r="G49" t="n">
-        <v>1.950499660214165e-07</v>
+        <v>2.238368271064545e-14</v>
       </c>
       <c r="H49" t="n">
-        <v>0.6437897853638758</v>
+        <v>0.7582732106715965</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
@@ -7098,29 +6306,29 @@
     <row r="50">
       <c r="A50" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS160_22.fasta</t>
+          <t>label_UMGS160_21.fasta</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.1474620651017355</v>
+        <v>0.04093752723489751</v>
       </c>
       <c r="C50" t="n">
-        <v>0.08954497267603977</v>
+        <v>0.03924857263122496</v>
       </c>
       <c r="D50" t="n">
-        <v>0.3119657588161681</v>
+        <v>0.1972029628570181</v>
       </c>
       <c r="E50" t="n">
-        <v>0.4510264106090629</v>
+        <v>0.7226109372688992</v>
       </c>
       <c r="F50" t="n">
-        <v>3.758001172911091e-14</v>
+        <v>2.234570158797682e-14</v>
       </c>
       <c r="G50" t="n">
-        <v>7.927969560466848e-07</v>
+        <v>7.937816670810501e-12</v>
       </c>
       <c r="H50" t="n">
-        <v>0.4510264106090629</v>
+        <v>0.7226109372688992</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
@@ -7131,29 +6339,29 @@
     <row r="51">
       <c r="A51" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS160_34.fasta</t>
+          <t>label_UMGS160_24.fasta</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.23178227184722</v>
+        <v>0.09756240944966915</v>
       </c>
       <c r="C51" t="n">
-        <v>0.04914022994339406</v>
+        <v>0.04664331033486278</v>
       </c>
       <c r="D51" t="n">
-        <v>0.1721408840208094</v>
+        <v>0.1974629073633267</v>
       </c>
       <c r="E51" t="n">
-        <v>0.5469365552066272</v>
+        <v>0.658331372512706</v>
       </c>
       <c r="F51" t="n">
-        <v>2.234144739689401e-14</v>
+        <v>2.234292558876679e-14</v>
       </c>
       <c r="G51" t="n">
-        <v>5.8981927046694e-08</v>
+        <v>3.394130086978798e-10</v>
       </c>
       <c r="H51" t="n">
-        <v>0.5469365552066272</v>
+        <v>0.658331372512706</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
@@ -7164,29 +6372,29 @@
     <row r="52">
       <c r="A52" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS160_46.fasta</t>
+          <t>label_UMGS160_39.fasta</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.004258297155633889</v>
+        <v>0.1787993987850833</v>
       </c>
       <c r="C52" t="n">
-        <v>0.1833428670478903</v>
+        <v>0.05143214855930474</v>
       </c>
       <c r="D52" t="n">
-        <v>0.3847771392674071</v>
+        <v>0.1926819913911057</v>
       </c>
       <c r="E52" t="n">
-        <v>0.4276204091694786</v>
+        <v>0.57708646126158</v>
       </c>
       <c r="F52" t="n">
-        <v>7.57036773126374e-14</v>
+        <v>2.231147057877447e-14</v>
       </c>
       <c r="G52" t="n">
-        <v>1.287359514505336e-06</v>
+        <v>2.903960559498275e-12</v>
       </c>
       <c r="H52" t="n">
-        <v>0.4276204091694786</v>
+        <v>0.57708646126158</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
@@ -7197,427 +6405,64 @@
     <row r="53">
       <c r="A53" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS160_47.fasta</t>
+          <t>label_UMGS160_45.fasta</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.02295694787035209</v>
+        <v>0.1648921505507809</v>
       </c>
       <c r="C53" t="n">
-        <v>0.1501301753938417</v>
+        <v>0.09505501281562337</v>
       </c>
       <c r="D53" t="n">
-        <v>0.5563601916241957</v>
+        <v>0.1197974844412356</v>
       </c>
       <c r="E53" t="n">
-        <v>0.2705472808093209</v>
+        <v>0.6202553515223517</v>
       </c>
       <c r="F53" t="n">
-        <v>7.259760714056156e-14</v>
+        <v>3.868622222031452e-14</v>
       </c>
       <c r="G53" t="n">
-        <v>5.404302217135083e-06</v>
+        <v>6.699697012623926e-10</v>
       </c>
       <c r="H53" t="n">
-        <v>0.5563601916241957</v>
+        <v>0.6202553515223517</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>s__Ruminococcus_E sp003438075</t>
+          <t>s__Ruminococcus_E sp003526955</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS160_51.fasta</t>
+          <t>label_UMGS160_53.fasta</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>5.894000380840672e-06</v>
+        <v>1.456870691681847e-08</v>
       </c>
       <c r="C54" t="n">
-        <v>0.2125927692976025</v>
+        <v>0.2884562347435778</v>
       </c>
       <c r="D54" t="n">
-        <v>0.6502120657718381</v>
+        <v>0.6999859964825318</v>
       </c>
       <c r="E54" t="n">
-        <v>0.1370745652349908</v>
+        <v>0.01155775390663964</v>
       </c>
       <c r="F54" t="n">
-        <v>9.131406636603545e-14</v>
+        <v>5.676050090882248e-13</v>
       </c>
       <c r="G54" t="n">
-        <v>0.000114705695096376</v>
+        <v>2.979762188296613e-10</v>
       </c>
       <c r="H54" t="n">
-        <v>0.6502120657718381</v>
+        <v>0.6999859964825318</v>
       </c>
       <c r="I54" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_E sp003438075</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS160_6.fasta</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>0.06147850280242197</v>
-      </c>
-      <c r="C55" t="n">
-        <v>0.1065558423989363</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0.2564604161950615</v>
-      </c>
-      <c r="E55" t="n">
-        <v>0.5754966990155577</v>
-      </c>
-      <c r="F55" t="n">
-        <v>3.78781280166088e-14</v>
-      </c>
-      <c r="G55" t="n">
-        <v>8.539587984802083e-06</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0.5754966990155577</v>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_E sp003526955</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS160_1.fasta</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>0.0755877964412499</v>
-      </c>
-      <c r="C56" t="n">
-        <v>0.1008980734393685</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0.4799544044694273</v>
-      </c>
-      <c r="E56" t="n">
-        <v>0.3435597256498674</v>
-      </c>
-      <c r="F56" t="n">
-        <v>4.347988946389984e-14</v>
-      </c>
-      <c r="G56" t="n">
-        <v>4.347988946390155e-14</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0.4799544044694273</v>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_E sp003438075</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS160_11.fasta</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>0.06167512497048088</v>
-      </c>
-      <c r="C57" t="n">
-        <v>0.05958158443644718</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0.262192658802</v>
-      </c>
-      <c r="E57" t="n">
-        <v>0.6165506317904557</v>
-      </c>
-      <c r="F57" t="n">
-        <v>2.383399046765027e-14</v>
-      </c>
-      <c r="G57" t="n">
-        <v>5.922147116059252e-13</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0.6165506317904557</v>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_E sp003526955</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS160_12.fasta</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>0.06746772761346262</v>
-      </c>
-      <c r="C58" t="n">
-        <v>0.05937742452699583</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0.4048167928744923</v>
-      </c>
-      <c r="E58" t="n">
-        <v>0.4683380549850014</v>
-      </c>
-      <c r="F58" t="n">
-        <v>2.390115374100976e-14</v>
-      </c>
-      <c r="G58" t="n">
-        <v>2.390115374101002e-14</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0.4683380549850014</v>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_E sp003526955</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS160_15.fasta</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>0.07038204153548827</v>
-      </c>
-      <c r="C59" t="n">
-        <v>0.05144054130536384</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0.1077213553717261</v>
-      </c>
-      <c r="E59" t="n">
-        <v>0.7704560617118977</v>
-      </c>
-      <c r="F59" t="n">
-        <v>2.2241722534049e-14</v>
-      </c>
-      <c r="G59" t="n">
-        <v>7.550183658113828e-11</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0.7704560617118977</v>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_E sp003526955</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS160_19.fasta</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>0.08834759835542064</v>
-      </c>
-      <c r="C60" t="n">
-        <v>0.03896992484410657</v>
-      </c>
-      <c r="D60" t="n">
-        <v>0.1144092661288316</v>
-      </c>
-      <c r="E60" t="n">
-        <v>0.7582732106715965</v>
-      </c>
-      <c r="F60" t="n">
-        <v>2.238368271064545e-14</v>
-      </c>
-      <c r="G60" t="n">
-        <v>2.238368271064545e-14</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0.7582732106715965</v>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_E sp003526955</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS160_21.fasta</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>0.04093752723489751</v>
-      </c>
-      <c r="C61" t="n">
-        <v>0.03924857263122496</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0.1972029628570181</v>
-      </c>
-      <c r="E61" t="n">
-        <v>0.7226109372688992</v>
-      </c>
-      <c r="F61" t="n">
-        <v>2.234570158797682e-14</v>
-      </c>
-      <c r="G61" t="n">
-        <v>7.937816670810501e-12</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0.7226109372688992</v>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_E sp003526955</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS160_24.fasta</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>0.09756240944966915</v>
-      </c>
-      <c r="C62" t="n">
-        <v>0.04664331033486278</v>
-      </c>
-      <c r="D62" t="n">
-        <v>0.1974629073633267</v>
-      </c>
-      <c r="E62" t="n">
-        <v>0.658331372512706</v>
-      </c>
-      <c r="F62" t="n">
-        <v>2.234292558876679e-14</v>
-      </c>
-      <c r="G62" t="n">
-        <v>3.394130086978798e-10</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0.658331372512706</v>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_E sp003526955</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS160_39.fasta</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>0.1787993987850833</v>
-      </c>
-      <c r="C63" t="n">
-        <v>0.05143214855930474</v>
-      </c>
-      <c r="D63" t="n">
-        <v>0.1926819913911057</v>
-      </c>
-      <c r="E63" t="n">
-        <v>0.57708646126158</v>
-      </c>
-      <c r="F63" t="n">
-        <v>2.231147057877447e-14</v>
-      </c>
-      <c r="G63" t="n">
-        <v>2.903960559498275e-12</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0.57708646126158</v>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_E sp003526955</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS160_45.fasta</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>0.1648921505507809</v>
-      </c>
-      <c r="C64" t="n">
-        <v>0.09505501281562337</v>
-      </c>
-      <c r="D64" t="n">
-        <v>0.1197974844412356</v>
-      </c>
-      <c r="E64" t="n">
-        <v>0.6202553515223517</v>
-      </c>
-      <c r="F64" t="n">
-        <v>3.868622222031452e-14</v>
-      </c>
-      <c r="G64" t="n">
-        <v>6.699697012623926e-10</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0.6202553515223517</v>
-      </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_E sp003526955</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS160_53.fasta</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>1.456870691681847e-08</v>
-      </c>
-      <c r="C65" t="n">
-        <v>0.2884562347435778</v>
-      </c>
-      <c r="D65" t="n">
-        <v>0.6999859964825318</v>
-      </c>
-      <c r="E65" t="n">
-        <v>0.01155775390663964</v>
-      </c>
-      <c r="F65" t="n">
-        <v>5.676050090882248e-13</v>
-      </c>
-      <c r="G65" t="n">
-        <v>2.979762188296613e-10</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0.6999859964825318</v>
-      </c>
-      <c r="I65" t="inlineStr">
         <is>
           <t>s__Ruminococcus_E sp003438075</t>
         </is>
@@ -7634,7 +6479,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I53"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7956,29 +6801,29 @@
     <row r="10">
       <c r="A10" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS81_10.fasta</t>
+          <t>label_UMGS81_0.fasta</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.182488972792902e-06</v>
+        <v>2.938345639520866e-07</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01088904252730918</v>
+        <v>0.0001249518144114936</v>
       </c>
       <c r="D10" t="n">
-        <v>0.001759822809162569</v>
+        <v>0.002194625208036437</v>
       </c>
       <c r="E10" t="n">
-        <v>0.00821536515049966</v>
+        <v>0.05178411294995149</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9790894858417633</v>
+        <v>0.9458923020444261</v>
       </c>
       <c r="G10" t="n">
-        <v>4.510118229249119e-05</v>
+        <v>3.714148610430687e-06</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9790894858417633</v>
+        <v>0.9458923020444261</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -7989,29 +6834,29 @@
     <row r="11">
       <c r="A11" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS81_16.fasta</t>
+          <t>label_UMGS81_1.fasta</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.589681060653174e-06</v>
+        <v>2.717348357614776e-06</v>
       </c>
       <c r="C11" t="n">
-        <v>0.008899271557513301</v>
+        <v>0.0001507282445953209</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0003637997023556034</v>
+        <v>0.003534409346519536</v>
       </c>
       <c r="E11" t="n">
-        <v>0.009981270656512137</v>
+        <v>0.04660414981875562</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9807357257672169</v>
+        <v>0.949705165317311</v>
       </c>
       <c r="G11" t="n">
-        <v>1.834263534137441e-05</v>
+        <v>2.82992446085082e-06</v>
       </c>
       <c r="H11" t="n">
-        <v>0.9807357257672169</v>
+        <v>0.949705165317311</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -8022,29 +6867,29 @@
     <row r="12">
       <c r="A12" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS81_18.fasta</t>
+          <t>label_UMGS81_22.fasta</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.059953965863455e-06</v>
+        <v>2.145471531474251e-09</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01001804890021247</v>
+        <v>0.001546157652397017</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0003105818300467634</v>
+        <v>0.0005744401699583428</v>
       </c>
       <c r="E12" t="n">
-        <v>0.00540339603412794</v>
+        <v>0.02382584379310864</v>
       </c>
       <c r="F12" t="n">
-        <v>0.98423007207008</v>
+        <v>0.9739939060097466</v>
       </c>
       <c r="G12" t="n">
-        <v>3.684121156700793e-05</v>
+        <v>5.965022931773435e-05</v>
       </c>
       <c r="H12" t="n">
-        <v>0.98423007207008</v>
+        <v>0.9739939060097466</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -8055,29 +6900,29 @@
     <row r="13">
       <c r="A13" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS81_2.fasta</t>
+          <t>label_UMGS81_24.fasta</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>5.451709954605021e-06</v>
+        <v>9.626762430550425e-08</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01187044949434711</v>
+        <v>0.0006245755592080612</v>
       </c>
       <c r="D13" t="n">
-        <v>0.005719181746760537</v>
+        <v>0.0005134682730595761</v>
       </c>
       <c r="E13" t="n">
-        <v>0.01184380089771031</v>
+        <v>0.04913995958134314</v>
       </c>
       <c r="F13" t="n">
-        <v>0.97053358660348</v>
+        <v>0.949718042706258</v>
       </c>
       <c r="G13" t="n">
-        <v>2.752954774740468e-05</v>
+        <v>3.857612506899755e-06</v>
       </c>
       <c r="H13" t="n">
-        <v>0.97053358660348</v>
+        <v>0.949718042706258</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -8088,29 +6933,29 @@
     <row r="14">
       <c r="A14" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS81_20.fasta</t>
+          <t>label_UMGS81_27.fasta</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.983569131768138e-07</v>
+        <v>4.268947008611259e-10</v>
       </c>
       <c r="C14" t="n">
-        <v>0.008482467482410716</v>
+        <v>0.0009182354821478054</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0001600887254094676</v>
+        <v>0.0001807071037009106</v>
       </c>
       <c r="E14" t="n">
-        <v>0.00931300965088022</v>
+        <v>0.04743104170701984</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9819782138851693</v>
+        <v>0.9514662985203408</v>
       </c>
       <c r="G14" t="n">
-        <v>6.582189921710573e-05</v>
+        <v>3.716759896182283e-06</v>
       </c>
       <c r="H14" t="n">
-        <v>0.9819782138851693</v>
+        <v>0.9514662985203408</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -8121,29 +6966,29 @@
     <row r="15">
       <c r="A15" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS81_31.fasta</t>
+          <t>label_UMGS81_30.fasta</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.430653791277932e-10</v>
+        <v>1.902143017711066e-09</v>
       </c>
       <c r="C15" t="n">
-        <v>0.00407350459288255</v>
+        <v>0.001527605388605775</v>
       </c>
       <c r="D15" t="n">
-        <v>2.827496881930268e-10</v>
+        <v>0.0001174602952200397</v>
       </c>
       <c r="E15" t="n">
-        <v>0.004246649252714172</v>
+        <v>0.07544738026433234</v>
       </c>
       <c r="F15" t="n">
-        <v>0.991678142916998</v>
+        <v>0.9229066268848974</v>
       </c>
       <c r="G15" t="n">
-        <v>1.702811590348847e-06</v>
+        <v>9.252648012366746e-07</v>
       </c>
       <c r="H15" t="n">
-        <v>0.991678142916998</v>
+        <v>0.9229066268848974</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -8154,29 +6999,29 @@
     <row r="16">
       <c r="A16" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS81_33.fasta</t>
+          <t>label_UMGS81_41.fasta</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.116356760700781e-06</v>
+        <v>3.144474263210493e-13</v>
       </c>
       <c r="C16" t="n">
-        <v>0.005982952918669537</v>
+        <v>0.08901752331708764</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0001074567282901692</v>
+        <v>0.0003821660418641063</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1144698652526094</v>
+        <v>0.006745398648864791</v>
       </c>
       <c r="F16" t="n">
-        <v>0.8793991948961151</v>
+        <v>0.9038549092296354</v>
       </c>
       <c r="G16" t="n">
-        <v>3.941384755491647e-05</v>
+        <v>2.762233637878708e-09</v>
       </c>
       <c r="H16" t="n">
-        <v>0.8793991948961151</v>
+        <v>0.9038549092296354</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -8187,29 +7032,29 @@
     <row r="17">
       <c r="A17" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS81_34.fasta</t>
+          <t>label_UMGS81_42.fasta</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>7.620780775013605e-11</v>
+        <v>2.230087771668707e-14</v>
       </c>
       <c r="C17" t="n">
-        <v>0.01207602436762822</v>
+        <v>0.1787974237666905</v>
       </c>
       <c r="D17" t="n">
-        <v>1.073103988526749e-05</v>
+        <v>0.0004669009053707517</v>
       </c>
       <c r="E17" t="n">
-        <v>0.01355941701440552</v>
+        <v>0.001349279359168141</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9741742031111681</v>
+        <v>0.7964529060600788</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0001796243907050951</v>
+        <v>0.02293348990866955</v>
       </c>
       <c r="H17" t="n">
-        <v>0.9741742031111681</v>
+        <v>0.7964529060600788</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -8220,62 +7065,62 @@
     <row r="18">
       <c r="A18" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS81_36.fasta</t>
+          <t>label_UMGS81_43.fasta</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>8.861966639235773e-11</v>
+        <v>8.96590871677979e-14</v>
       </c>
       <c r="C18" t="n">
-        <v>0.01022949732882407</v>
+        <v>0.569927632374619</v>
       </c>
       <c r="D18" t="n">
-        <v>5.172328244192211e-06</v>
+        <v>0.07773615411832295</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0004143438326101745</v>
+        <v>0.02995126173781034</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9891600724626702</v>
+        <v>0.3223579386247321</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0001909139590314601</v>
+        <v>2.701314442602457e-05</v>
       </c>
       <c r="H18" t="n">
-        <v>0.9891600724626702</v>
+        <v>0.569927632374619</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>s__Ruminococcus_E sp900314705</t>
+          <t>s__Ruminococcus_E bromii_B</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS81_39.fasta</t>
+          <t>label_UMGS81_8.fasta</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4.534972842616119e-11</v>
+        <v>3.283696916966292e-06</v>
       </c>
       <c r="C19" t="n">
-        <v>0.006598082493668877</v>
+        <v>0.0002641198839866452</v>
       </c>
       <c r="D19" t="n">
-        <v>7.139811690354219e-07</v>
+        <v>0.003422132126488055</v>
       </c>
       <c r="E19" t="n">
-        <v>0.04720960476217104</v>
+        <v>0.06714995330082406</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9459520005228631</v>
+        <v>0.9291582169002697</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0002395981947783598</v>
+        <v>2.294091514667558e-06</v>
       </c>
       <c r="H19" t="n">
-        <v>0.9459520005228631</v>
+        <v>0.9291582169002697</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -8286,29 +7131,29 @@
     <row r="20">
       <c r="A20" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS81_7.fasta</t>
+          <t>label_UMGS81_13.fasta</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>8.596254472348526e-07</v>
+        <v>3.1211571538898e-05</v>
       </c>
       <c r="C20" t="n">
-        <v>0.01015146316889856</v>
+        <v>0.004510447526818369</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0008078012964257971</v>
+        <v>0.03366537176074581</v>
       </c>
       <c r="E20" t="n">
-        <v>0.00876631342886549</v>
+        <v>0.01170045832966625</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9802364777046488</v>
+        <v>0.9500892812329391</v>
       </c>
       <c r="G20" t="n">
-        <v>3.708477571399696e-05</v>
+        <v>3.229578291537959e-06</v>
       </c>
       <c r="H20" t="n">
-        <v>0.9802364777046488</v>
+        <v>0.9500892812329391</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -8319,29 +7164,29 @@
     <row r="21">
       <c r="A21" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS81_0.fasta</t>
+          <t>label_UMGS81_14.fasta</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2.938345639520866e-07</v>
+        <v>2.634704418768547e-05</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0001249518144114936</v>
+        <v>0.005869808718834881</v>
       </c>
       <c r="D21" t="n">
-        <v>0.002194625208036437</v>
+        <v>0.03687470500049457</v>
       </c>
       <c r="E21" t="n">
-        <v>0.05178411294995149</v>
+        <v>0.01684464588625215</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9458923020444261</v>
+        <v>0.9403793500168658</v>
       </c>
       <c r="G21" t="n">
-        <v>3.714148610430687e-06</v>
+        <v>5.143333365006186e-06</v>
       </c>
       <c r="H21" t="n">
-        <v>0.9458923020444261</v>
+        <v>0.9403793500168658</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -8352,29 +7197,29 @@
     <row r="22">
       <c r="A22" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS81_1.fasta</t>
+          <t>label_UMGS81_17.fasta</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2.717348357614776e-06</v>
+        <v>0.0008276521001193158</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0001507282445953209</v>
+        <v>0.12163214969236</v>
       </c>
       <c r="D22" t="n">
-        <v>0.003534409346519536</v>
+        <v>0.2404350530406783</v>
       </c>
       <c r="E22" t="n">
-        <v>0.04660414981875562</v>
+        <v>0.2407552778131024</v>
       </c>
       <c r="F22" t="n">
-        <v>0.949705165317311</v>
+        <v>0.3961892173660356</v>
       </c>
       <c r="G22" t="n">
-        <v>2.82992446085082e-06</v>
+        <v>0.0001606499877044598</v>
       </c>
       <c r="H22" t="n">
-        <v>0.949705165317311</v>
+        <v>0.3961892173660356</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -8385,29 +7230,29 @@
     <row r="23">
       <c r="A23" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS81_22.fasta</t>
+          <t>label_UMGS81_23.fasta</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2.145471531474251e-09</v>
+        <v>7.759251749973707e-07</v>
       </c>
       <c r="C23" t="n">
-        <v>0.001546157652397017</v>
+        <v>0.006559111896148621</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0005744401699583428</v>
+        <v>0.01333487930919632</v>
       </c>
       <c r="E23" t="n">
-        <v>0.02382584379310864</v>
+        <v>0.0167532582152815</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9739939060097466</v>
+        <v>0.9633315953880698</v>
       </c>
       <c r="G23" t="n">
-        <v>5.965022931773435e-05</v>
+        <v>2.037926612872739e-05</v>
       </c>
       <c r="H23" t="n">
-        <v>0.9739939060097466</v>
+        <v>0.9633315953880698</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -8418,29 +7263,29 @@
     <row r="24">
       <c r="A24" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS81_24.fasta</t>
+          <t>label_UMGS81_29.fasta</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>9.626762430550425e-08</v>
+        <v>1.994605432076805e-06</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0006245755592080612</v>
+        <v>0.008852209072546333</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0005134682730595761</v>
+        <v>0.01614213120111681</v>
       </c>
       <c r="E24" t="n">
-        <v>0.04913995958134314</v>
+        <v>0.04228675694799864</v>
       </c>
       <c r="F24" t="n">
-        <v>0.949718042706258</v>
+        <v>0.9327162471421109</v>
       </c>
       <c r="G24" t="n">
-        <v>3.857612506899755e-06</v>
+        <v>6.610307952913209e-07</v>
       </c>
       <c r="H24" t="n">
-        <v>0.949718042706258</v>
+        <v>0.9327162471421109</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
@@ -8451,29 +7296,29 @@
     <row r="25">
       <c r="A25" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS81_27.fasta</t>
+          <t>label_UMGS81_32.fasta</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4.268947008611259e-10</v>
+        <v>4.287970820040453e-06</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0009182354821478054</v>
+        <v>0.01047274131713937</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0001807071037009106</v>
+        <v>0.01091460853331174</v>
       </c>
       <c r="E25" t="n">
-        <v>0.04743104170701984</v>
+        <v>0.07034291912709439</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9514662985203408</v>
+        <v>0.9082646145083201</v>
       </c>
       <c r="G25" t="n">
-        <v>3.716759896182283e-06</v>
+        <v>8.285433142919264e-07</v>
       </c>
       <c r="H25" t="n">
-        <v>0.9514662985203408</v>
+        <v>0.9082646145083201</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -8484,29 +7329,29 @@
     <row r="26">
       <c r="A26" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS81_30.fasta</t>
+          <t>label_UMGS81_37.fasta</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1.902143017711066e-09</v>
+        <v>1.117120160890963e-08</v>
       </c>
       <c r="C26" t="n">
-        <v>0.001527605388605775</v>
+        <v>0.004817827253932924</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0001174602952200397</v>
+        <v>0.002730167133755916</v>
       </c>
       <c r="E26" t="n">
-        <v>0.07544738026433234</v>
+        <v>0.05932084413316067</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9229066268848974</v>
+        <v>0.9331311449642123</v>
       </c>
       <c r="G26" t="n">
-        <v>9.252648012366746e-07</v>
+        <v>5.343736696757932e-09</v>
       </c>
       <c r="H26" t="n">
-        <v>0.9229066268848974</v>
+        <v>0.9331311449642123</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
@@ -8517,29 +7362,29 @@
     <row r="27">
       <c r="A27" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS81_41.fasta</t>
+          <t>label_UMGS81_11.fasta</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3.144474263210493e-13</v>
+        <v>3.62520976637084e-07</v>
       </c>
       <c r="C27" t="n">
-        <v>0.08901752331708764</v>
+        <v>0.005383861980238172</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0003821660418641063</v>
+        <v>5.201365076229794e-05</v>
       </c>
       <c r="E27" t="n">
-        <v>0.006745398648864791</v>
+        <v>0.02304842521193565</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9038549092296354</v>
+        <v>0.9715152445286123</v>
       </c>
       <c r="G27" t="n">
-        <v>2.762233637878708e-09</v>
+        <v>9.210747494535067e-08</v>
       </c>
       <c r="H27" t="n">
-        <v>0.9038549092296354</v>
+        <v>0.9715152445286123</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
@@ -8550,29 +7395,29 @@
     <row r="28">
       <c r="A28" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS81_42.fasta</t>
+          <t>label_UMGS81_19.fasta</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2.230087771668707e-14</v>
+        <v>1.847023864849697e-07</v>
       </c>
       <c r="C28" t="n">
-        <v>0.1787974237666905</v>
+        <v>0.01255958351558829</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0004669009053707517</v>
+        <v>0.0007766924940249572</v>
       </c>
       <c r="E28" t="n">
-        <v>0.001349279359168141</v>
+        <v>0.05974850267858599</v>
       </c>
       <c r="F28" t="n">
-        <v>0.7964529060600788</v>
+        <v>0.9269150366006168</v>
       </c>
       <c r="G28" t="n">
-        <v>0.02293348990866955</v>
+        <v>8.797516944619084e-12</v>
       </c>
       <c r="H28" t="n">
-        <v>0.7964529060600788</v>
+        <v>0.9269150366006168</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
@@ -8583,62 +7428,62 @@
     <row r="29">
       <c r="A29" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS81_43.fasta</t>
+          <t>label_UMGS81_21.fasta</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>8.96590871677979e-14</v>
+        <v>5.49163126682308e-08</v>
       </c>
       <c r="C29" t="n">
-        <v>0.569927632374619</v>
+        <v>0.009148079624920554</v>
       </c>
       <c r="D29" t="n">
-        <v>0.07773615411832295</v>
+        <v>0.0004489085496364313</v>
       </c>
       <c r="E29" t="n">
-        <v>0.02995126173781034</v>
+        <v>0.02408175653844645</v>
       </c>
       <c r="F29" t="n">
-        <v>0.3223579386247321</v>
+        <v>0.9663211990265048</v>
       </c>
       <c r="G29" t="n">
-        <v>2.701314442602457e-05</v>
+        <v>1.344179147899219e-09</v>
       </c>
       <c r="H29" t="n">
-        <v>0.569927632374619</v>
+        <v>0.9663211990265048</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>s__Ruminococcus_E bromii_B</t>
+          <t>s__Ruminococcus_E sp900314705</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS81_8.fasta</t>
+          <t>label_UMGS81_26.fasta</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3.283696916966292e-06</v>
+        <v>1.243372964970609e-10</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0002641198839866452</v>
+        <v>0.006650733188357338</v>
       </c>
       <c r="D30" t="n">
-        <v>0.003422132126488055</v>
+        <v>0.0004220170369887671</v>
       </c>
       <c r="E30" t="n">
-        <v>0.06714995330082406</v>
+        <v>0.001554125835992494</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9291582169002697</v>
+        <v>0.991373114948968</v>
       </c>
       <c r="G30" t="n">
-        <v>2.294091514667558e-06</v>
+        <v>8.865356062149518e-09</v>
       </c>
       <c r="H30" t="n">
-        <v>0.9291582169002697</v>
+        <v>0.991373114948968</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
@@ -8649,29 +7494,29 @@
     <row r="31">
       <c r="A31" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS81_13.fasta</t>
+          <t>label_UMGS81_3.fasta</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3.1211571538898e-05</v>
+        <v>1.131928640055406e-05</v>
       </c>
       <c r="C31" t="n">
-        <v>0.004510447526818369</v>
+        <v>0.005620064727206886</v>
       </c>
       <c r="D31" t="n">
-        <v>0.03366537176074581</v>
+        <v>6.50742498374503e-05</v>
       </c>
       <c r="E31" t="n">
-        <v>0.01170045832966625</v>
+        <v>0.07861634448378094</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9500892812329391</v>
+        <v>0.9156871889446276</v>
       </c>
       <c r="G31" t="n">
-        <v>3.229578291537959e-06</v>
+        <v>8.308146549988188e-09</v>
       </c>
       <c r="H31" t="n">
-        <v>0.9500892812329391</v>
+        <v>0.9156871889446276</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
@@ -8682,29 +7527,29 @@
     <row r="32">
       <c r="A32" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS81_14.fasta</t>
+          <t>label_UMGS81_35.fasta</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2.634704418768547e-05</v>
+        <v>4.273373717987956e-13</v>
       </c>
       <c r="C32" t="n">
-        <v>0.005869808718834881</v>
+        <v>0.01464547299787082</v>
       </c>
       <c r="D32" t="n">
-        <v>0.03687470500049457</v>
+        <v>0.0003830687450148767</v>
       </c>
       <c r="E32" t="n">
-        <v>0.01684464588625215</v>
+        <v>0.002215340313400234</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9403793500168658</v>
+        <v>0.9827561040515997</v>
       </c>
       <c r="G32" t="n">
-        <v>5.143333365006186e-06</v>
+        <v>1.38916870660762e-08</v>
       </c>
       <c r="H32" t="n">
-        <v>0.9403793500168658</v>
+        <v>0.9827561040515997</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
@@ -8715,29 +7560,29 @@
     <row r="33">
       <c r="A33" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS81_17.fasta</t>
+          <t>label_UMGS81_5.fasta</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.0008276521001193158</v>
+        <v>7.579754179003176e-07</v>
       </c>
       <c r="C33" t="n">
-        <v>0.12163214969236</v>
+        <v>0.004983354074112556</v>
       </c>
       <c r="D33" t="n">
-        <v>0.2404350530406783</v>
+        <v>2.95693018886378e-05</v>
       </c>
       <c r="E33" t="n">
-        <v>0.2407552778131024</v>
+        <v>0.02908234746204613</v>
       </c>
       <c r="F33" t="n">
-        <v>0.3961892173660356</v>
+        <v>0.9659039190650273</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0001606499877044598</v>
+        <v>5.212150757789043e-08</v>
       </c>
       <c r="H33" t="n">
-        <v>0.3961892173660356</v>
+        <v>0.9659039190650273</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
@@ -8748,29 +7593,29 @@
     <row r="34">
       <c r="A34" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS81_23.fasta</t>
+          <t>label_UMGS81_9.fasta</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>7.759251749973707e-07</v>
+        <v>8.060820775648218e-07</v>
       </c>
       <c r="C34" t="n">
-        <v>0.006559111896148621</v>
+        <v>0.005750519874543056</v>
       </c>
       <c r="D34" t="n">
-        <v>0.01333487930919632</v>
+        <v>5.340230045953383e-05</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0167532582152815</v>
+        <v>0.04836789944041588</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9633315953880698</v>
+        <v>0.94582735542723</v>
       </c>
       <c r="G34" t="n">
-        <v>2.037926612872739e-05</v>
+        <v>1.687527405175688e-08</v>
       </c>
       <c r="H34" t="n">
-        <v>0.9633315953880698</v>
+        <v>0.94582735542723</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
@@ -8781,29 +7626,29 @@
     <row r="35">
       <c r="A35" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS81_29.fasta</t>
+          <t>label_UMGS81_12.fasta</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1.994605432076805e-06</v>
+        <v>0.0002813551504276949</v>
       </c>
       <c r="C35" t="n">
-        <v>0.008852209072546333</v>
+        <v>0.01891421164091514</v>
       </c>
       <c r="D35" t="n">
-        <v>0.01614213120111681</v>
+        <v>0.00291230399549631</v>
       </c>
       <c r="E35" t="n">
-        <v>0.04228675694799864</v>
+        <v>0.05300979232182986</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9327162471421109</v>
+        <v>0.9248823368913087</v>
       </c>
       <c r="G35" t="n">
-        <v>6.610307952913209e-07</v>
+        <v>2.223073743576931e-14</v>
       </c>
       <c r="H35" t="n">
-        <v>0.9327162471421109</v>
+        <v>0.9248823368913087</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
@@ -8814,29 +7659,29 @@
     <row r="36">
       <c r="A36" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS81_32.fasta</t>
+          <t>label_UMGS81_15.fasta</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>4.287970820040453e-06</v>
+        <v>0.001750348759714525</v>
       </c>
       <c r="C36" t="n">
-        <v>0.01047274131713937</v>
+        <v>0.01868997777792154</v>
       </c>
       <c r="D36" t="n">
-        <v>0.01091460853331174</v>
+        <v>0.009414285758882566</v>
       </c>
       <c r="E36" t="n">
-        <v>0.07034291912709439</v>
+        <v>0.09089494389974816</v>
       </c>
       <c r="F36" t="n">
-        <v>0.9082646145083201</v>
+        <v>0.879250443803711</v>
       </c>
       <c r="G36" t="n">
-        <v>8.285433142919264e-07</v>
+        <v>2.226811838633524e-14</v>
       </c>
       <c r="H36" t="n">
-        <v>0.9082646145083201</v>
+        <v>0.879250443803711</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
@@ -8847,29 +7692,29 @@
     <row r="37">
       <c r="A37" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS81_37.fasta</t>
+          <t>label_UMGS81_25.fasta</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1.117120160890963e-08</v>
+        <v>7.80072759666075e-06</v>
       </c>
       <c r="C37" t="n">
-        <v>0.004817827253932924</v>
+        <v>0.02151061139037268</v>
       </c>
       <c r="D37" t="n">
-        <v>0.002730167133755916</v>
+        <v>0.000684596144955783</v>
       </c>
       <c r="E37" t="n">
-        <v>0.05932084413316067</v>
+        <v>0.01431983292738975</v>
       </c>
       <c r="F37" t="n">
-        <v>0.9331311449642123</v>
+        <v>0.9634771587512788</v>
       </c>
       <c r="G37" t="n">
-        <v>5.343736696757932e-09</v>
+        <v>5.84063391640425e-11</v>
       </c>
       <c r="H37" t="n">
-        <v>0.9331311449642123</v>
+        <v>0.9634771587512788</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
@@ -8880,29 +7725,29 @@
     <row r="38">
       <c r="A38" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS81_11.fasta</t>
+          <t>label_UMGS81_28.fasta</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>3.62520976637084e-07</v>
+        <v>1.205838203230343e-07</v>
       </c>
       <c r="C38" t="n">
-        <v>0.005383861980238172</v>
+        <v>0.01937468731490937</v>
       </c>
       <c r="D38" t="n">
-        <v>5.201365076229794e-05</v>
+        <v>0.0001102727396402936</v>
       </c>
       <c r="E38" t="n">
-        <v>0.02304842521193565</v>
+        <v>0.06131995217911852</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9715152445286123</v>
+        <v>0.9191949671823199</v>
       </c>
       <c r="G38" t="n">
-        <v>9.210747494535067e-08</v>
+        <v>1.91687349953546e-13</v>
       </c>
       <c r="H38" t="n">
-        <v>0.9715152445286123</v>
+        <v>0.9191949671823199</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
@@ -8913,29 +7758,29 @@
     <row r="39">
       <c r="A39" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS81_19.fasta</t>
+          <t>label_UMGS81_38.fasta</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1.847023864849697e-07</v>
+        <v>1.016272331493545e-05</v>
       </c>
       <c r="C39" t="n">
-        <v>0.01255958351558829</v>
+        <v>0.02208189013318437</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0007766924940249572</v>
+        <v>0.006277876339441689</v>
       </c>
       <c r="E39" t="n">
-        <v>0.05974850267858599</v>
+        <v>0.02477987899948173</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9269150366006168</v>
+        <v>0.9468501918045551</v>
       </c>
       <c r="G39" t="n">
-        <v>8.797516944619084e-12</v>
+        <v>2.222600552003634e-14</v>
       </c>
       <c r="H39" t="n">
-        <v>0.9269150366006168</v>
+        <v>0.9468501918045551</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
@@ -8946,29 +7791,29 @@
     <row r="40">
       <c r="A40" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS81_21.fasta</t>
+          <t>label_UMGS81_4.fasta</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>5.49163126682308e-08</v>
+        <v>0.0007061017384910944</v>
       </c>
       <c r="C40" t="n">
-        <v>0.009148079624920554</v>
+        <v>0.02173628589470018</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0004489085496364313</v>
+        <v>0.006346184481101552</v>
       </c>
       <c r="E40" t="n">
-        <v>0.02408175653844645</v>
+        <v>0.009120573650096516</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9663211990265048</v>
+        <v>0.9620908538552643</v>
       </c>
       <c r="G40" t="n">
-        <v>1.344179147899219e-09</v>
+        <v>3.803463920018907e-10</v>
       </c>
       <c r="H40" t="n">
-        <v>0.9663211990265048</v>
+        <v>0.9620908538552643</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
@@ -8979,29 +7824,29 @@
     <row r="41">
       <c r="A41" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS81_26.fasta</t>
+          <t>label_UMGS81_40.fasta</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1.243372964970609e-10</v>
+        <v>2.677974084551605e-07</v>
       </c>
       <c r="C41" t="n">
-        <v>0.006650733188357338</v>
+        <v>0.02740728132076529</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0004220170369887671</v>
+        <v>0.008281397072965449</v>
       </c>
       <c r="E41" t="n">
-        <v>0.001554125835992494</v>
+        <v>0.001916892573816842</v>
       </c>
       <c r="F41" t="n">
-        <v>0.991373114948968</v>
+        <v>0.9623941612350218</v>
       </c>
       <c r="G41" t="n">
-        <v>8.865356062149518e-09</v>
+        <v>2.22058928633851e-14</v>
       </c>
       <c r="H41" t="n">
-        <v>0.991373114948968</v>
+        <v>0.9623941612350218</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
@@ -9012,394 +7857,31 @@
     <row r="42">
       <c r="A42" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS81_3.fasta</t>
+          <t>label_UMGS81_6.fasta</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1.131928640055406e-05</v>
+        <v>0.0005038138762760887</v>
       </c>
       <c r="C42" t="n">
-        <v>0.005620064727206886</v>
+        <v>0.02033342633613247</v>
       </c>
       <c r="D42" t="n">
-        <v>6.50742498374503e-05</v>
+        <v>0.004159680712025713</v>
       </c>
       <c r="E42" t="n">
-        <v>0.07861634448378094</v>
+        <v>0.00752805422514101</v>
       </c>
       <c r="F42" t="n">
-        <v>0.9156871889446276</v>
+        <v>0.9674750248503188</v>
       </c>
       <c r="G42" t="n">
-        <v>8.308146549988188e-09</v>
+        <v>1.059024223624259e-13</v>
       </c>
       <c r="H42" t="n">
-        <v>0.9156871889446276</v>
+        <v>0.9674750248503188</v>
       </c>
       <c r="I42" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_E sp900314705</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS81_35.fasta</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>4.273373717987956e-13</v>
-      </c>
-      <c r="C43" t="n">
-        <v>0.01464547299787082</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0.0003830687450148767</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0.002215340313400234</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0.9827561040515997</v>
-      </c>
-      <c r="G43" t="n">
-        <v>1.38916870660762e-08</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0.9827561040515997</v>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_E sp900314705</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS81_5.fasta</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>7.579754179003176e-07</v>
-      </c>
-      <c r="C44" t="n">
-        <v>0.004983354074112556</v>
-      </c>
-      <c r="D44" t="n">
-        <v>2.95693018886378e-05</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0.02908234746204613</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0.9659039190650273</v>
-      </c>
-      <c r="G44" t="n">
-        <v>5.212150757789043e-08</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0.9659039190650273</v>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_E sp900314705</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS81_9.fasta</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>8.060820775648218e-07</v>
-      </c>
-      <c r="C45" t="n">
-        <v>0.005750519874543056</v>
-      </c>
-      <c r="D45" t="n">
-        <v>5.340230045953383e-05</v>
-      </c>
-      <c r="E45" t="n">
-        <v>0.04836789944041588</v>
-      </c>
-      <c r="F45" t="n">
-        <v>0.94582735542723</v>
-      </c>
-      <c r="G45" t="n">
-        <v>1.687527405175688e-08</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0.94582735542723</v>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_E sp900314705</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS81_12.fasta</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>0.0002813551504276949</v>
-      </c>
-      <c r="C46" t="n">
-        <v>0.01891421164091514</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0.00291230399549631</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0.05300979232182986</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0.9248823368913087</v>
-      </c>
-      <c r="G46" t="n">
-        <v>2.223073743576931e-14</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0.9248823368913087</v>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_E sp900314705</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS81_15.fasta</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>0.001750348759714525</v>
-      </c>
-      <c r="C47" t="n">
-        <v>0.01868997777792154</v>
-      </c>
-      <c r="D47" t="n">
-        <v>0.009414285758882566</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0.09089494389974816</v>
-      </c>
-      <c r="F47" t="n">
-        <v>0.879250443803711</v>
-      </c>
-      <c r="G47" t="n">
-        <v>2.226811838633524e-14</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0.879250443803711</v>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_E sp900314705</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS81_25.fasta</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>7.80072759666075e-06</v>
-      </c>
-      <c r="C48" t="n">
-        <v>0.02151061139037268</v>
-      </c>
-      <c r="D48" t="n">
-        <v>0.000684596144955783</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0.01431983292738975</v>
-      </c>
-      <c r="F48" t="n">
-        <v>0.9634771587512788</v>
-      </c>
-      <c r="G48" t="n">
-        <v>5.84063391640425e-11</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0.9634771587512788</v>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_E sp900314705</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS81_28.fasta</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>1.205838203230343e-07</v>
-      </c>
-      <c r="C49" t="n">
-        <v>0.01937468731490937</v>
-      </c>
-      <c r="D49" t="n">
-        <v>0.0001102727396402936</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0.06131995217911852</v>
-      </c>
-      <c r="F49" t="n">
-        <v>0.9191949671823199</v>
-      </c>
-      <c r="G49" t="n">
-        <v>1.91687349953546e-13</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0.9191949671823199</v>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_E sp900314705</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS81_38.fasta</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>1.016272331493545e-05</v>
-      </c>
-      <c r="C50" t="n">
-        <v>0.02208189013318437</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0.006277876339441689</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0.02477987899948173</v>
-      </c>
-      <c r="F50" t="n">
-        <v>0.9468501918045551</v>
-      </c>
-      <c r="G50" t="n">
-        <v>2.222600552003634e-14</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0.9468501918045551</v>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_E sp900314705</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS81_4.fasta</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>0.0007061017384910944</v>
-      </c>
-      <c r="C51" t="n">
-        <v>0.02173628589470018</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0.006346184481101552</v>
-      </c>
-      <c r="E51" t="n">
-        <v>0.009120573650096516</v>
-      </c>
-      <c r="F51" t="n">
-        <v>0.9620908538552643</v>
-      </c>
-      <c r="G51" t="n">
-        <v>3.803463920018907e-10</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0.9620908538552643</v>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_E sp900314705</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS81_40.fasta</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>2.677974084551605e-07</v>
-      </c>
-      <c r="C52" t="n">
-        <v>0.02740728132076529</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0.008281397072965449</v>
-      </c>
-      <c r="E52" t="n">
-        <v>0.001916892573816842</v>
-      </c>
-      <c r="F52" t="n">
-        <v>0.9623941612350218</v>
-      </c>
-      <c r="G52" t="n">
-        <v>2.22058928633851e-14</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0.9623941612350218</v>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_E sp900314705</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS81_6.fasta</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>0.0005038138762760887</v>
-      </c>
-      <c r="C53" t="n">
-        <v>0.02033342633613247</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0.004159680712025713</v>
-      </c>
-      <c r="E53" t="n">
-        <v>0.00752805422514101</v>
-      </c>
-      <c r="F53" t="n">
-        <v>0.9674750248503188</v>
-      </c>
-      <c r="G53" t="n">
-        <v>1.059024223624259e-13</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0.9674750248503188</v>
-      </c>
-      <c r="I53" t="inlineStr">
         <is>
           <t>s__Ruminococcus_E sp900314705</t>
         </is>
@@ -9416,7 +7898,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I53"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9804,29 +8286,29 @@
     <row r="12">
       <c r="A12" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS526_22.fasta</t>
+          <t>label_UMGS526_12.fasta</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.03223361666523657</v>
+        <v>0.06009909956381587</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01565724424671019</v>
+        <v>0.00718105834857951</v>
       </c>
       <c r="D12" t="n">
-        <v>0.06479091714680578</v>
+        <v>0.01755983291264607</v>
       </c>
       <c r="E12" t="n">
-        <v>0.02679861653940342</v>
+        <v>0.0275033906566407</v>
       </c>
       <c r="F12" t="n">
-        <v>2.23746799006255e-14</v>
+        <v>2.233525805777635e-14</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8605196054018217</v>
+        <v>0.8876566185182955</v>
       </c>
       <c r="H12" t="n">
-        <v>0.8605196054018217</v>
+        <v>0.8876566185182955</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -9837,29 +8319,29 @@
     <row r="13">
       <c r="A13" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS526_23.fasta</t>
+          <t>label_UMGS526_18.fasta</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.03364715829475724</v>
+        <v>0.2706457734689088</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01653820976344468</v>
+        <v>0.00712588452902245</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1018695029457052</v>
+        <v>0.02571145805522317</v>
       </c>
       <c r="E13" t="n">
-        <v>0.06386123763761238</v>
+        <v>0.03530181293357271</v>
       </c>
       <c r="F13" t="n">
-        <v>2.251300277297489e-14</v>
+        <v>2.270152714652633e-14</v>
       </c>
       <c r="G13" t="n">
-        <v>0.784083891358458</v>
+        <v>0.6612150710132502</v>
       </c>
       <c r="H13" t="n">
-        <v>0.784083891358458</v>
+        <v>0.6612150710132502</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -9870,29 +8352,29 @@
     <row r="14">
       <c r="A14" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS526_3.fasta</t>
+          <t>label_UMGS526_19.fasta</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.006589244457821219</v>
+        <v>0.009447912128334778</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01962989688044351</v>
+        <v>0.006216922480869786</v>
       </c>
       <c r="D14" t="n">
-        <v>0.02739384145592645</v>
+        <v>0.05245870693241778</v>
       </c>
       <c r="E14" t="n">
-        <v>0.01569647900546807</v>
+        <v>0.03790517948224567</v>
       </c>
       <c r="F14" t="n">
-        <v>2.225962965758289e-14</v>
+        <v>2.232042768967505e-14</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9306905382003184</v>
+        <v>0.8939712789761096</v>
       </c>
       <c r="H14" t="n">
-        <v>0.9306905382003184</v>
+        <v>0.8939712789761096</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -9903,29 +8385,29 @@
     <row r="15">
       <c r="A15" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS526_33.fasta</t>
+          <t>label_UMGS526_24.fasta</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.05655056140678125</v>
+        <v>0.007118340544984711</v>
       </c>
       <c r="C15" t="n">
-        <v>0.06284242931745559</v>
+        <v>0.007117596944710989</v>
       </c>
       <c r="D15" t="n">
-        <v>0.09215921268899291</v>
+        <v>0.07136622954345954</v>
       </c>
       <c r="E15" t="n">
-        <v>0.06787986995099932</v>
+        <v>0.05478977419314166</v>
       </c>
       <c r="F15" t="n">
-        <v>4.330332845609138e-14</v>
+        <v>2.234585124999652e-14</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7205679266357277</v>
+        <v>0.8596080587736807</v>
       </c>
       <c r="H15" t="n">
-        <v>0.7205679266357277</v>
+        <v>0.8596080587736807</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -9936,29 +8418,29 @@
     <row r="16">
       <c r="A16" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS526_34.fasta</t>
+          <t>label_UMGS526_35.fasta</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.0001607146791962739</v>
+        <v>8.95336036576837e-06</v>
       </c>
       <c r="C16" t="n">
-        <v>0.01233821906089261</v>
+        <v>0.1364939970951575</v>
       </c>
       <c r="D16" t="n">
-        <v>0.239321776476104</v>
+        <v>0.165694809120499</v>
       </c>
       <c r="E16" t="n">
-        <v>0.01001295476928661</v>
+        <v>0.2725435515514252</v>
       </c>
       <c r="F16" t="n">
-        <v>2.232894682382359e-14</v>
+        <v>6.402754434000404e-14</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7381663350144981</v>
+        <v>0.4252586888724885</v>
       </c>
       <c r="H16" t="n">
-        <v>0.7381663350144981</v>
+        <v>0.4252586888724885</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -9969,62 +8451,62 @@
     <row r="17">
       <c r="A17" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS526_37.fasta</t>
+          <t>label_UMGS526_36.fasta</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.090873139383393e-10</v>
+        <v>1.407564651874813e-05</v>
       </c>
       <c r="C17" t="n">
-        <v>0.02463194522365874</v>
+        <v>0.08666532292129749</v>
       </c>
       <c r="D17" t="n">
-        <v>0.5327071754350649</v>
+        <v>0.1878441111519321</v>
       </c>
       <c r="E17" t="n">
-        <v>1.246064702721529e-07</v>
+        <v>0.1677794786373776</v>
       </c>
       <c r="F17" t="n">
-        <v>2.247662033953931e-14</v>
+        <v>3.822819438857788e-14</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4426607546256962</v>
+        <v>0.5576970116428358</v>
       </c>
       <c r="H17" t="n">
-        <v>0.5327071754350649</v>
+        <v>0.5576970116428358</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>s__Ruminococcus_E sp003438075</t>
+          <t>s__Ruminococcus_E sp900543095</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS526_12.fasta</t>
+          <t>label_UMGS526_9.fasta</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.06009909956381587</v>
+        <v>0.05950112787273657</v>
       </c>
       <c r="C18" t="n">
-        <v>0.00718105834857951</v>
+        <v>0.01347361132411311</v>
       </c>
       <c r="D18" t="n">
-        <v>0.01755983291264607</v>
+        <v>0.06854199607971584</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0275033906566407</v>
+        <v>0.07549328264750965</v>
       </c>
       <c r="F18" t="n">
-        <v>2.233525805777635e-14</v>
+        <v>2.267910486236441e-14</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8876566185182955</v>
+        <v>0.7829899820759021</v>
       </c>
       <c r="H18" t="n">
-        <v>0.8876566185182955</v>
+        <v>0.7829899820759021</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -10035,29 +8517,29 @@
     <row r="19">
       <c r="A19" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS526_18.fasta</t>
+          <t>label_UMGS526_1.fasta</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.2706457734689088</v>
+        <v>0.01931551201008236</v>
       </c>
       <c r="C19" t="n">
-        <v>0.00712588452902245</v>
+        <v>0.01912756670758742</v>
       </c>
       <c r="D19" t="n">
-        <v>0.02571145805522317</v>
+        <v>0.03415283097108154</v>
       </c>
       <c r="E19" t="n">
-        <v>0.03530181293357271</v>
+        <v>0.02474551351488893</v>
       </c>
       <c r="F19" t="n">
-        <v>2.270152714652633e-14</v>
+        <v>2.231967633682321e-14</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6612150710132502</v>
+        <v>0.9026585767963374</v>
       </c>
       <c r="H19" t="n">
-        <v>0.6612150710132502</v>
+        <v>0.9026585767963374</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -10068,29 +8550,29 @@
     <row r="20">
       <c r="A20" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS526_19.fasta</t>
+          <t>label_UMGS526_15.fasta</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.009447912128334778</v>
+        <v>0.01962463782473951</v>
       </c>
       <c r="C20" t="n">
-        <v>0.006216922480869786</v>
+        <v>0.01339210102009745</v>
       </c>
       <c r="D20" t="n">
-        <v>0.05245870693241778</v>
+        <v>0.05975914654111437</v>
       </c>
       <c r="E20" t="n">
-        <v>0.03790517948224567</v>
+        <v>0.03747738577675021</v>
       </c>
       <c r="F20" t="n">
-        <v>2.232042768967505e-14</v>
+        <v>2.239356913467574e-14</v>
       </c>
       <c r="G20" t="n">
-        <v>0.8939712789761096</v>
+        <v>0.869746728837276</v>
       </c>
       <c r="H20" t="n">
-        <v>0.8939712789761096</v>
+        <v>0.869746728837276</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -10101,29 +8583,29 @@
     <row r="21">
       <c r="A21" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS526_24.fasta</t>
+          <t>label_UMGS526_16.fasta</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.007118340544984711</v>
+        <v>0.009144326182206742</v>
       </c>
       <c r="C21" t="n">
-        <v>0.007117596944710989</v>
+        <v>0.01188591247838997</v>
       </c>
       <c r="D21" t="n">
-        <v>0.07136622954345954</v>
+        <v>0.07053454006293085</v>
       </c>
       <c r="E21" t="n">
-        <v>0.05478977419314166</v>
+        <v>0.02753588556102487</v>
       </c>
       <c r="F21" t="n">
-        <v>2.234585124999652e-14</v>
+        <v>2.230966449965718e-14</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8596080587736807</v>
+        <v>0.8808993357154253</v>
       </c>
       <c r="H21" t="n">
-        <v>0.8596080587736807</v>
+        <v>0.8808993357154253</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -10134,29 +8616,29 @@
     <row r="22">
       <c r="A22" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS526_35.fasta</t>
+          <t>label_UMGS526_20.fasta</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>8.95336036576837e-06</v>
+        <v>0.00374840498206439</v>
       </c>
       <c r="C22" t="n">
-        <v>0.1364939970951575</v>
+        <v>0.01147914090642245</v>
       </c>
       <c r="D22" t="n">
-        <v>0.165694809120499</v>
+        <v>0.06434526823178283</v>
       </c>
       <c r="E22" t="n">
-        <v>0.2725435515514252</v>
+        <v>0.04669721238667976</v>
       </c>
       <c r="F22" t="n">
-        <v>6.402754434000404e-14</v>
+        <v>2.234957172087108e-14</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4252586888724885</v>
+        <v>0.8737299734930283</v>
       </c>
       <c r="H22" t="n">
-        <v>0.4252586888724885</v>
+        <v>0.8737299734930283</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -10167,29 +8649,29 @@
     <row r="23">
       <c r="A23" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS526_36.fasta</t>
+          <t>label_UMGS526_21.fasta</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1.407564651874813e-05</v>
+        <v>0.02546246131153819</v>
       </c>
       <c r="C23" t="n">
-        <v>0.08666532292129749</v>
+        <v>0.01133356746867595</v>
       </c>
       <c r="D23" t="n">
-        <v>0.1878441111519321</v>
+        <v>0.04286286188710052</v>
       </c>
       <c r="E23" t="n">
-        <v>0.1677794786373776</v>
+        <v>0.05430101085433477</v>
       </c>
       <c r="F23" t="n">
-        <v>3.822819438857788e-14</v>
+        <v>2.240891890024411e-14</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5576970116428358</v>
+        <v>0.8660400984783282</v>
       </c>
       <c r="H23" t="n">
-        <v>0.5576970116428358</v>
+        <v>0.8660400984783282</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -10200,29 +8682,29 @@
     <row r="24">
       <c r="A24" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS526_9.fasta</t>
+          <t>label_UMGS526_26.fasta</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.05950112787273657</v>
+        <v>0.004257804869822392</v>
       </c>
       <c r="C24" t="n">
-        <v>0.01347361132411311</v>
+        <v>0.01449364675596521</v>
       </c>
       <c r="D24" t="n">
-        <v>0.06854199607971584</v>
+        <v>0.06723422068684969</v>
       </c>
       <c r="E24" t="n">
-        <v>0.07549328264750965</v>
+        <v>0.1011156611606038</v>
       </c>
       <c r="F24" t="n">
-        <v>2.267910486236441e-14</v>
+        <v>2.241637433881649e-14</v>
       </c>
       <c r="G24" t="n">
-        <v>0.7829899820759021</v>
+        <v>0.8128986665267365</v>
       </c>
       <c r="H24" t="n">
-        <v>0.7829899820759021</v>
+        <v>0.8128986665267365</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
@@ -10233,29 +8715,29 @@
     <row r="25">
       <c r="A25" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS526_1.fasta</t>
+          <t>label_UMGS526_32.fasta</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.01931551201008236</v>
+        <v>0.001522573877297474</v>
       </c>
       <c r="C25" t="n">
-        <v>0.01912756670758742</v>
+        <v>0.01742966218478113</v>
       </c>
       <c r="D25" t="n">
-        <v>0.03415283097108154</v>
+        <v>0.06840993452862264</v>
       </c>
       <c r="E25" t="n">
-        <v>0.02474551351488893</v>
+        <v>0.1126045249476428</v>
       </c>
       <c r="F25" t="n">
-        <v>2.231967633682321e-14</v>
+        <v>2.242340523758638e-14</v>
       </c>
       <c r="G25" t="n">
-        <v>0.9026585767963374</v>
+        <v>0.8000333044616336</v>
       </c>
       <c r="H25" t="n">
-        <v>0.9026585767963374</v>
+        <v>0.8000333044616336</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -10266,29 +8748,29 @@
     <row r="26">
       <c r="A26" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS526_15.fasta</t>
+          <t>label_UMGS526_4.fasta</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.01962463782473951</v>
+        <v>0.06673739922938089</v>
       </c>
       <c r="C26" t="n">
-        <v>0.01339210102009745</v>
+        <v>0.01703658771106119</v>
       </c>
       <c r="D26" t="n">
-        <v>0.05975914654111437</v>
+        <v>0.03259270661813595</v>
       </c>
       <c r="E26" t="n">
-        <v>0.03747738577675021</v>
+        <v>0.0657521260633077</v>
       </c>
       <c r="F26" t="n">
-        <v>2.239356913467574e-14</v>
+        <v>2.255154733395303e-14</v>
       </c>
       <c r="G26" t="n">
-        <v>0.869746728837276</v>
+        <v>0.8178811803780917</v>
       </c>
       <c r="H26" t="n">
-        <v>0.869746728837276</v>
+        <v>0.8178811803780917</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
@@ -10299,29 +8781,29 @@
     <row r="27">
       <c r="A27" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS526_16.fasta</t>
+          <t>label_UMGS526_40.fasta</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.009144326182206742</v>
+        <v>2.239705059792091e-14</v>
       </c>
       <c r="C27" t="n">
-        <v>0.01188591247838997</v>
+        <v>0.01147205782886416</v>
       </c>
       <c r="D27" t="n">
-        <v>0.07053454006293085</v>
+        <v>0.06796280794562047</v>
       </c>
       <c r="E27" t="n">
-        <v>0.02753588556102487</v>
+        <v>0.07920282150406834</v>
       </c>
       <c r="F27" t="n">
-        <v>2.230966449965718e-14</v>
+        <v>2.239705059792091e-14</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8808993357154253</v>
+        <v>0.8413623127214022</v>
       </c>
       <c r="H27" t="n">
-        <v>0.8808993357154253</v>
+        <v>0.8413623127214022</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
@@ -10332,29 +8814,29 @@
     <row r="28">
       <c r="A28" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS526_20.fasta</t>
+          <t>label_UMGS526_6.fasta</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.00374840498206439</v>
+        <v>0.03456335507755962</v>
       </c>
       <c r="C28" t="n">
-        <v>0.01147914090642245</v>
+        <v>0.01566961390306271</v>
       </c>
       <c r="D28" t="n">
-        <v>0.06434526823178283</v>
+        <v>0.02960653982365632</v>
       </c>
       <c r="E28" t="n">
-        <v>0.04669721238667976</v>
+        <v>0.02578979677452038</v>
       </c>
       <c r="F28" t="n">
-        <v>2.234957172087108e-14</v>
+        <v>2.234112776093944e-14</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8737299734930283</v>
+        <v>0.8943706944211787</v>
       </c>
       <c r="H28" t="n">
-        <v>0.8737299734930283</v>
+        <v>0.8943706944211787</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
@@ -10365,29 +8847,29 @@
     <row r="29">
       <c r="A29" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS526_21.fasta</t>
+          <t>label_UMGS526_0.fasta</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.02546246131153819</v>
+        <v>0.02732783111502167</v>
       </c>
       <c r="C29" t="n">
-        <v>0.01133356746867595</v>
+        <v>0.01830121452305402</v>
       </c>
       <c r="D29" t="n">
-        <v>0.04286286188710052</v>
+        <v>0.01378960970026264</v>
       </c>
       <c r="E29" t="n">
-        <v>0.05430101085433477</v>
+        <v>0.04985518117759914</v>
       </c>
       <c r="F29" t="n">
-        <v>2.240891890024411e-14</v>
+        <v>2.234728776600569e-14</v>
       </c>
       <c r="G29" t="n">
-        <v>0.8660400984783282</v>
+        <v>0.8907261634840401</v>
       </c>
       <c r="H29" t="n">
-        <v>0.8660400984783282</v>
+        <v>0.8907261634840401</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
@@ -10398,29 +8880,29 @@
     <row r="30">
       <c r="A30" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS526_26.fasta</t>
+          <t>label_UMGS526_10.fasta</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.004257804869822392</v>
+        <v>0.08256342016085452</v>
       </c>
       <c r="C30" t="n">
-        <v>0.01449364675596521</v>
+        <v>0.01970012517383693</v>
       </c>
       <c r="D30" t="n">
-        <v>0.06723422068684969</v>
+        <v>0.04724762542140905</v>
       </c>
       <c r="E30" t="n">
-        <v>0.1011156611606038</v>
+        <v>0.1532555098933379</v>
       </c>
       <c r="F30" t="n">
-        <v>2.241637433881649e-14</v>
+        <v>2.307754612071112e-14</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8128986665267365</v>
+        <v>0.6972333193505386</v>
       </c>
       <c r="H30" t="n">
-        <v>0.8128986665267365</v>
+        <v>0.6972333193505386</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
@@ -10431,29 +8913,29 @@
     <row r="31">
       <c r="A31" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS526_32.fasta</t>
+          <t>label_UMGS526_13.fasta</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.001522573877297474</v>
+        <v>0.07713338717733674</v>
       </c>
       <c r="C31" t="n">
-        <v>0.01742966218478113</v>
+        <v>0.01642114143423347</v>
       </c>
       <c r="D31" t="n">
-        <v>0.06840993452862264</v>
+        <v>0.04678192584105352</v>
       </c>
       <c r="E31" t="n">
-        <v>0.1126045249476428</v>
+        <v>0.04079978602676378</v>
       </c>
       <c r="F31" t="n">
-        <v>2.242340523758638e-14</v>
+        <v>2.258551863003916e-14</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8000333044616336</v>
+        <v>0.81886375952059</v>
       </c>
       <c r="H31" t="n">
-        <v>0.8000333044616336</v>
+        <v>0.81886375952059</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
@@ -10464,29 +8946,29 @@
     <row r="32">
       <c r="A32" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS526_4.fasta</t>
+          <t>label_UMGS526_14.fasta</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.06673739922938089</v>
+        <v>0.06484338909680191</v>
       </c>
       <c r="C32" t="n">
-        <v>0.01703658771106119</v>
+        <v>0.01538097372286572</v>
       </c>
       <c r="D32" t="n">
-        <v>0.03259270661813595</v>
+        <v>0.01366628040430111</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0657521260633077</v>
+        <v>0.1050349950229817</v>
       </c>
       <c r="F32" t="n">
-        <v>2.255154733395303e-14</v>
+        <v>2.263716742216295e-14</v>
       </c>
       <c r="G32" t="n">
-        <v>0.8178811803780917</v>
+        <v>0.8010743617530269</v>
       </c>
       <c r="H32" t="n">
-        <v>0.8178811803780917</v>
+        <v>0.8010743617530269</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
@@ -10497,95 +8979,95 @@
     <row r="33">
       <c r="A33" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS526_40.fasta</t>
+          <t>label_UMGS526_29.fasta</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2.239705059792091e-14</v>
+        <v>0.0627149943539243</v>
       </c>
       <c r="C33" t="n">
-        <v>0.01147205782886416</v>
+        <v>0.1528919983761242</v>
       </c>
       <c r="D33" t="n">
-        <v>0.06796280794562047</v>
+        <v>0.2682574044025401</v>
       </c>
       <c r="E33" t="n">
-        <v>0.07920282150406834</v>
+        <v>0.3096689244455797</v>
       </c>
       <c r="F33" t="n">
-        <v>2.239705059792091e-14</v>
+        <v>9.547064866242813e-14</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8413623127214022</v>
+        <v>0.2064666784217362</v>
       </c>
       <c r="H33" t="n">
-        <v>0.8413623127214022</v>
+        <v>0.3096689244455797</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>s__Ruminococcus_E sp900543095</t>
+          <t>s__Ruminococcus_E sp003526955</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS526_6.fasta</t>
+          <t>label_UMGS526_31.fasta</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.03456335507755962</v>
+        <v>0.03219983089364123</v>
       </c>
       <c r="C34" t="n">
-        <v>0.01566961390306271</v>
+        <v>0.1610115731150081</v>
       </c>
       <c r="D34" t="n">
-        <v>0.02960653982365632</v>
+        <v>0.3338962528991745</v>
       </c>
       <c r="E34" t="n">
-        <v>0.02578979677452038</v>
+        <v>0.2955461479839607</v>
       </c>
       <c r="F34" t="n">
-        <v>2.234112776093944e-14</v>
+        <v>9.536068277687452e-14</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8943706944211787</v>
+        <v>0.1773461951081201</v>
       </c>
       <c r="H34" t="n">
-        <v>0.8943706944211787</v>
+        <v>0.3338962528991745</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>s__Ruminococcus_E sp900543095</t>
+          <t>s__Ruminococcus_E sp003438075</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS526_0.fasta</t>
+          <t>label_UMGS526_38.fasta</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.02732783111502167</v>
+        <v>2.662597881637421e-05</v>
       </c>
       <c r="C35" t="n">
-        <v>0.01830121452305402</v>
+        <v>0.02191972645683619</v>
       </c>
       <c r="D35" t="n">
-        <v>0.01378960970026264</v>
+        <v>0.07520117752435683</v>
       </c>
       <c r="E35" t="n">
-        <v>0.04985518117759914</v>
+        <v>0.01565352228411448</v>
       </c>
       <c r="F35" t="n">
-        <v>2.234728776600569e-14</v>
+        <v>2.227250591177476e-14</v>
       </c>
       <c r="G35" t="n">
-        <v>0.8907261634840401</v>
+        <v>0.8871989477558538</v>
       </c>
       <c r="H35" t="n">
-        <v>0.8907261634840401</v>
+        <v>0.8871989477558538</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
@@ -10596,29 +9078,29 @@
     <row r="36">
       <c r="A36" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS526_10.fasta</t>
+          <t>label_UMGS526_41.fasta</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.08256342016085452</v>
+        <v>2.27684767527862e-14</v>
       </c>
       <c r="C36" t="n">
-        <v>0.01970012517383693</v>
+        <v>0.08888839582692949</v>
       </c>
       <c r="D36" t="n">
-        <v>0.04724762542140905</v>
+        <v>0.2220534052883269</v>
       </c>
       <c r="E36" t="n">
-        <v>0.1532555098933379</v>
+        <v>0.0001241115623530859</v>
       </c>
       <c r="F36" t="n">
-        <v>2.307754612071112e-14</v>
+        <v>2.27684767527862e-14</v>
       </c>
       <c r="G36" t="n">
-        <v>0.6972333193505386</v>
+        <v>0.688934087322345</v>
       </c>
       <c r="H36" t="n">
-        <v>0.6972333193505386</v>
+        <v>0.688934087322345</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
@@ -10629,29 +9111,29 @@
     <row r="37">
       <c r="A37" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS526_13.fasta</t>
+          <t>label_UMGS526_7.fasta</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.07713338717733674</v>
+        <v>0.09156737456512624</v>
       </c>
       <c r="C37" t="n">
-        <v>0.01642114143423347</v>
+        <v>0.01480440114782207</v>
       </c>
       <c r="D37" t="n">
-        <v>0.04678192584105352</v>
+        <v>0.02808473181344199</v>
       </c>
       <c r="E37" t="n">
-        <v>0.04079978602676378</v>
+        <v>0.07824314641923476</v>
       </c>
       <c r="F37" t="n">
-        <v>2.258551863003916e-14</v>
+        <v>2.269786992739741e-14</v>
       </c>
       <c r="G37" t="n">
-        <v>0.81886375952059</v>
+        <v>0.7873003460543522</v>
       </c>
       <c r="H37" t="n">
-        <v>0.81886375952059</v>
+        <v>0.7873003460543522</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
@@ -10662,29 +9144,29 @@
     <row r="38">
       <c r="A38" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS526_14.fasta</t>
+          <t>label_UMGS526_11.fasta</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.06484338909680191</v>
+        <v>0.0960255830709766</v>
       </c>
       <c r="C38" t="n">
-        <v>0.01538097372286572</v>
+        <v>0.02289950953359984</v>
       </c>
       <c r="D38" t="n">
-        <v>0.01366628040430111</v>
+        <v>0.04326290192872091</v>
       </c>
       <c r="E38" t="n">
-        <v>0.1050349950229817</v>
+        <v>0.003769145537824988</v>
       </c>
       <c r="F38" t="n">
-        <v>2.263716742216295e-14</v>
+        <v>2.243585676324977e-14</v>
       </c>
       <c r="G38" t="n">
-        <v>0.8010743617530269</v>
+        <v>0.8340428599288552</v>
       </c>
       <c r="H38" t="n">
-        <v>0.8010743617530269</v>
+        <v>0.8340428599288552</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
@@ -10695,95 +9177,95 @@
     <row r="39">
       <c r="A39" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS526_29.fasta</t>
+          <t>label_UMGS526_17.fasta</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.0627149943539243</v>
+        <v>0.03976530159998199</v>
       </c>
       <c r="C39" t="n">
-        <v>0.1528919983761242</v>
+        <v>0.02349679782873787</v>
       </c>
       <c r="D39" t="n">
-        <v>0.2682574044025401</v>
+        <v>0.01606543434651461</v>
       </c>
       <c r="E39" t="n">
-        <v>0.3096689244455797</v>
+        <v>0.007689411652285953</v>
       </c>
       <c r="F39" t="n">
-        <v>9.547064866242813e-14</v>
+        <v>2.228559907718159e-14</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2064666784217362</v>
+        <v>0.9129830545724573</v>
       </c>
       <c r="H39" t="n">
-        <v>0.3096689244455797</v>
+        <v>0.9129830545724573</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>s__Ruminococcus_E sp003526955</t>
+          <t>s__Ruminococcus_E sp900543095</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS526_31.fasta</t>
+          <t>label_UMGS526_2.fasta</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.03219983089364123</v>
+        <v>0.05512147341965085</v>
       </c>
       <c r="C40" t="n">
-        <v>0.1610115731150081</v>
+        <v>0.0258045517791283</v>
       </c>
       <c r="D40" t="n">
-        <v>0.3338962528991745</v>
+        <v>0.02755108761412993</v>
       </c>
       <c r="E40" t="n">
-        <v>0.2955461479839607</v>
+        <v>0.00282539459077294</v>
       </c>
       <c r="F40" t="n">
-        <v>9.536068277687452e-14</v>
+        <v>2.232822210467226e-14</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1773461951081201</v>
+        <v>0.8886974925962956</v>
       </c>
       <c r="H40" t="n">
-        <v>0.3338962528991745</v>
+        <v>0.8886974925962956</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>s__Ruminococcus_E sp003438075</t>
+          <t>s__Ruminococcus_E sp900543095</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS526_38.fasta</t>
+          <t>label_UMGS526_25.fasta</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2.662597881637421e-05</v>
+        <v>0.03690407982628247</v>
       </c>
       <c r="C41" t="n">
-        <v>0.02191972645683619</v>
+        <v>0.02265725562129454</v>
       </c>
       <c r="D41" t="n">
-        <v>0.07520117752435683</v>
+        <v>0.02844366407525665</v>
       </c>
       <c r="E41" t="n">
-        <v>0.01565352228411448</v>
+        <v>0.02701453757430125</v>
       </c>
       <c r="F41" t="n">
-        <v>2.227250591177476e-14</v>
+        <v>2.237401645433583e-14</v>
       </c>
       <c r="G41" t="n">
-        <v>0.8871989477558538</v>
+        <v>0.8849804629028427</v>
       </c>
       <c r="H41" t="n">
-        <v>0.8871989477558538</v>
+        <v>0.8849804629028427</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
@@ -10794,29 +9276,29 @@
     <row r="42">
       <c r="A42" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS526_41.fasta</t>
+          <t>label_UMGS526_27.fasta</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>2.27684767527862e-14</v>
+        <v>0.01105566647225186</v>
       </c>
       <c r="C42" t="n">
-        <v>0.08888839582692949</v>
+        <v>0.02347799714487337</v>
       </c>
       <c r="D42" t="n">
-        <v>0.2220534052883269</v>
+        <v>0.03905487810071129</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0001241115623530859</v>
+        <v>0.01294835264992363</v>
       </c>
       <c r="F42" t="n">
-        <v>2.27684767527862e-14</v>
+        <v>2.228601328753452e-14</v>
       </c>
       <c r="G42" t="n">
-        <v>0.688934087322345</v>
+        <v>0.9134631056322176</v>
       </c>
       <c r="H42" t="n">
-        <v>0.688934087322345</v>
+        <v>0.9134631056322176</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
@@ -10827,29 +9309,29 @@
     <row r="43">
       <c r="A43" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS526_7.fasta</t>
+          <t>label_UMGS526_28.fasta</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.09156737456512624</v>
+        <v>0.0263959345776671</v>
       </c>
       <c r="C43" t="n">
-        <v>0.01480440114782207</v>
+        <v>0.02273628365561983</v>
       </c>
       <c r="D43" t="n">
-        <v>0.02808473181344199</v>
+        <v>0.05731219621012101</v>
       </c>
       <c r="E43" t="n">
-        <v>0.07824314641923476</v>
+        <v>0.0219434618407074</v>
       </c>
       <c r="F43" t="n">
-        <v>2.269786992739741e-14</v>
+        <v>2.239891936521966e-14</v>
       </c>
       <c r="G43" t="n">
-        <v>0.7873003460543522</v>
+        <v>0.8716121237158622</v>
       </c>
       <c r="H43" t="n">
-        <v>0.7873003460543522</v>
+        <v>0.8716121237158622</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
@@ -10860,29 +9342,29 @@
     <row r="44">
       <c r="A44" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS526_11.fasta</t>
+          <t>label_UMGS526_30.fasta</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.0960255830709766</v>
+        <v>0.01317492320634643</v>
       </c>
       <c r="C44" t="n">
-        <v>0.02289950953359984</v>
+        <v>0.02282204646849614</v>
       </c>
       <c r="D44" t="n">
-        <v>0.04326290192872091</v>
+        <v>0.06529804947671032</v>
       </c>
       <c r="E44" t="n">
-        <v>0.003769145537824988</v>
+        <v>0.03042598263584925</v>
       </c>
       <c r="F44" t="n">
-        <v>2.243585676324977e-14</v>
+        <v>2.237801704664259e-14</v>
       </c>
       <c r="G44" t="n">
-        <v>0.8340428599288552</v>
+        <v>0.8682789982125756</v>
       </c>
       <c r="H44" t="n">
-        <v>0.8340428599288552</v>
+        <v>0.8682789982125756</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
@@ -10893,29 +9375,29 @@
     <row r="45">
       <c r="A45" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS526_17.fasta</t>
+          <t>label_UMGS526_39.fasta</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.03976530159998199</v>
+        <v>5.310255593883821e-07</v>
       </c>
       <c r="C45" t="n">
-        <v>0.02349679782873787</v>
+        <v>0.02922849504136321</v>
       </c>
       <c r="D45" t="n">
-        <v>0.01606543434651461</v>
+        <v>0.2413639297027096</v>
       </c>
       <c r="E45" t="n">
-        <v>0.007689411652285953</v>
+        <v>0.003232659776013199</v>
       </c>
       <c r="F45" t="n">
-        <v>2.228559907718159e-14</v>
+        <v>2.231846761262397e-14</v>
       </c>
       <c r="G45" t="n">
-        <v>0.9129830545724573</v>
+        <v>0.7261743844543324</v>
       </c>
       <c r="H45" t="n">
-        <v>0.9129830545724573</v>
+        <v>0.7261743844543324</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
@@ -10926,29 +9408,29 @@
     <row r="46">
       <c r="A46" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS526_2.fasta</t>
+          <t>label_UMGS526_5.fasta</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.05512147341965085</v>
+        <v>0.0330334765809436</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0258045517791283</v>
+        <v>0.0257339519785835</v>
       </c>
       <c r="D46" t="n">
-        <v>0.02755108761412993</v>
+        <v>0.06065130943389704</v>
       </c>
       <c r="E46" t="n">
-        <v>0.00282539459077294</v>
+        <v>0.01145491684709619</v>
       </c>
       <c r="F46" t="n">
-        <v>2.232822210467226e-14</v>
+        <v>2.240010810257792e-14</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8886974925962956</v>
+        <v>0.8691263451594572</v>
       </c>
       <c r="H46" t="n">
-        <v>0.8886974925962956</v>
+        <v>0.8691263451594572</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
@@ -10959,229 +9441,31 @@
     <row r="47">
       <c r="A47" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS526_25.fasta</t>
+          <t>label_UMGS526_8.fasta</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.03690407982628247</v>
+        <v>0.0580763824216884</v>
       </c>
       <c r="C47" t="n">
-        <v>0.02265725562129454</v>
+        <v>0.02163610519486541</v>
       </c>
       <c r="D47" t="n">
-        <v>0.02844366407525665</v>
+        <v>0.05365086797788236</v>
       </c>
       <c r="E47" t="n">
-        <v>0.02701453757430125</v>
+        <v>0.0123841949255159</v>
       </c>
       <c r="F47" t="n">
-        <v>2.237401645433583e-14</v>
+        <v>2.245054281292497e-14</v>
       </c>
       <c r="G47" t="n">
-        <v>0.8849804629028427</v>
+        <v>0.8542524494800255</v>
       </c>
       <c r="H47" t="n">
-        <v>0.8849804629028427</v>
+        <v>0.8542524494800255</v>
       </c>
       <c r="I47" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_E sp900543095</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS526_27.fasta</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>0.01105566647225186</v>
-      </c>
-      <c r="C48" t="n">
-        <v>0.02347799714487337</v>
-      </c>
-      <c r="D48" t="n">
-        <v>0.03905487810071129</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0.01294835264992363</v>
-      </c>
-      <c r="F48" t="n">
-        <v>2.228601328753452e-14</v>
-      </c>
-      <c r="G48" t="n">
-        <v>0.9134631056322176</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0.9134631056322176</v>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_E sp900543095</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS526_28.fasta</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>0.0263959345776671</v>
-      </c>
-      <c r="C49" t="n">
-        <v>0.02273628365561983</v>
-      </c>
-      <c r="D49" t="n">
-        <v>0.05731219621012101</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0.0219434618407074</v>
-      </c>
-      <c r="F49" t="n">
-        <v>2.239891936521966e-14</v>
-      </c>
-      <c r="G49" t="n">
-        <v>0.8716121237158622</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0.8716121237158622</v>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_E sp900543095</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS526_30.fasta</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>0.01317492320634643</v>
-      </c>
-      <c r="C50" t="n">
-        <v>0.02282204646849614</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0.06529804947671032</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0.03042598263584925</v>
-      </c>
-      <c r="F50" t="n">
-        <v>2.237801704664259e-14</v>
-      </c>
-      <c r="G50" t="n">
-        <v>0.8682789982125756</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0.8682789982125756</v>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_E sp900543095</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS526_39.fasta</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>5.310255593883821e-07</v>
-      </c>
-      <c r="C51" t="n">
-        <v>0.02922849504136321</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0.2413639297027096</v>
-      </c>
-      <c r="E51" t="n">
-        <v>0.003232659776013199</v>
-      </c>
-      <c r="F51" t="n">
-        <v>2.231846761262397e-14</v>
-      </c>
-      <c r="G51" t="n">
-        <v>0.7261743844543324</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0.7261743844543324</v>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_E sp900543095</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS526_5.fasta</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>0.0330334765809436</v>
-      </c>
-      <c r="C52" t="n">
-        <v>0.0257339519785835</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0.06065130943389704</v>
-      </c>
-      <c r="E52" t="n">
-        <v>0.01145491684709619</v>
-      </c>
-      <c r="F52" t="n">
-        <v>2.240010810257792e-14</v>
-      </c>
-      <c r="G52" t="n">
-        <v>0.8691263451594572</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0.8691263451594572</v>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_E sp900543095</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS526_8.fasta</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>0.0580763824216884</v>
-      </c>
-      <c r="C53" t="n">
-        <v>0.02163610519486541</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0.05365086797788236</v>
-      </c>
-      <c r="E53" t="n">
-        <v>0.0123841949255159</v>
-      </c>
-      <c r="F53" t="n">
-        <v>2.245054281292497e-14</v>
-      </c>
-      <c r="G53" t="n">
-        <v>0.8542524494800255</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0.8542524494800255</v>
-      </c>
-      <c r="I53" t="inlineStr">
         <is>
           <t>s__Ruminococcus_E sp900543095</t>
         </is>
